--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CFCB56A3-0A5D-4A62-8019-AA40695E0BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CF75AC71-8818-448F-9E6C-FEFD46E9FC7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6210" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,16 +37,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4-6'!$A$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'4-8'!$A$1:$P$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'4-9'!$A$1:$P$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="4" r:id="rId15"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="609">
   <si>
     <t>发车时间</t>
   </si>
@@ -2166,6 +2167,82 @@
   </si>
   <si>
     <t>18062</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19990</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0019638</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016583</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017476</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018061</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016584</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017163</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017162</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0019842</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018681</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0019843</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017948</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018131</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017904</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018062</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0019990</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2397,7 +2474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2500,9 +2577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2525,19 +2599,7 @@
     <cellStyle name="常规 8 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="常规 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2620,66 +2682,6 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -3064,6 +3066,90 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -10203,7 +10289,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C66EDB0D-A643-4537-8091-4E6ACB2CB338}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C66EDB0D-A643-4537-8091-4E6ACB2CB338}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12433,7 +12519,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="96" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20782,56 +20868,56 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G30 G148:G1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H54">
-    <cfRule type="duplicateValues" dxfId="43" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H77">
-    <cfRule type="duplicateValues" dxfId="41" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="duplicateValues" dxfId="39" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:I94">
-    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:I94">
-    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H124">
-    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22638,8 +22724,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="95" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24591,11 +24677,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="91" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25804,12 +25890,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="90" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="88" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27632,23 +27718,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="86" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="83" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="81" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="79" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29534,23 +29620,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="76" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="74" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="72" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="70" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31226,23 +31312,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="65" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="63" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31253,8 +31339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446FF77-B144-4FAF-9D0F-C1C136286227}">
   <dimension ref="A1:CY168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35117,37 +35203,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="59" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="58" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35156,10 +35242,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C543C7-81A4-4C73-B4A1-91A3B51487EE}">
-  <dimension ref="A1:CY168"/>
+  <dimension ref="A1:CY147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35173,8 +35259,8 @@
     <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="16" customWidth="1"/>
     <col min="12" max="12" width="8.875" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.875" style="18" customWidth="1"/>
     <col min="14" max="14" width="8.75" style="18" bestFit="1" customWidth="1"/>
@@ -35202,7 +35288,7 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="10" t="s">
         <v>227</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -35322,316 +35408,340 @@
     </row>
     <row r="2" spans="1:103" ht="18.75">
       <c r="A2" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>371</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="H2" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>573</v>
+      </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I23" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J2" s="17" t="str">
         <f>VLOOKUP(L2,ch!$A$1:$B$31,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f t="shared" ref="M2:M23" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M2" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N2" s="4">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f t="shared" ref="O2:O23" si="2">C2&amp;"--"&amp;E2</f>
-        <v>新地园区--常福园区</v>
+        <f t="shared" ref="O2" si="2">C2&amp;"--"&amp;E2</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P2" s="4">
         <f>IF(OR(C2="常福园区",C2="欣程园区",E2="常福园区",E2="欣程园区"),1250,165)</f>
-        <v>1250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="18.75">
       <c r="A3" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="H3" s="5"/>
+        <v>374</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>574</v>
+      </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3" si="3">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J3" s="17" t="str">
         <f>VLOOKUP(L3,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
-      <c r="K3" s="17"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3" si="4">IF(A3&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N3" s="4">
         <v>14</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--常福园区</v>
+        <f t="shared" ref="O3" si="5">C3&amp;"--"&amp;E3</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P10" si="3">IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
-        <v>1250</v>
+        <f t="shared" ref="P3:P17" si="6">IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:103" ht="18.75">
       <c r="A4" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>377</v>
+        <v>254</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="H4" s="5"/>
+        <v>374</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>575</v>
+      </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4" si="7">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>VLOOKUP(L4,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AQQ353</v>
-      </c>
-      <c r="K4" s="17"/>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="L4" s="4" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M4" si="8">IF(A4&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N4" s="4">
         <v>14</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--常福园区</v>
+        <f t="shared" ref="O4" si="9">C4&amp;"--"&amp;E4</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="3"/>
-        <v>1250</v>
+        <f t="shared" si="6"/>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:103" ht="18.75">
       <c r="A5" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>373</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>576</v>
+      </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I5" si="10">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J5" s="17" t="str">
         <f>VLOOKUP(L5,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="K5" s="17"/>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L5" s="4" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M5" si="11">IF(A5&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N5" s="4">
         <v>14</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O5" si="12">C5&amp;"--"&amp;E5</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:103" ht="18.75">
       <c r="A6" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="H6" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>577</v>
+      </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I6" si="13">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J6" s="17" t="str">
         <f>VLOOKUP(L6,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="K6" s="17"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M6" si="14">IF(A6&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N6" s="4">
         <v>14</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" ref="O6" si="15">C6&amp;"--"&amp;E6</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:103" ht="18.75">
       <c r="A7" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>578</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I7" si="16">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J7" s="17" t="str">
         <f>VLOOKUP(L7,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AFE237</v>
-      </c>
-      <c r="K7" s="17"/>
+        <v>鄂ANH299</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="L7" s="4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M7" si="17">IF(A7&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N7" s="4">
         <v>14</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O7" si="18">C7&amp;"--"&amp;E7</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:103" ht="18.75">
       <c r="A8" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -35643,196 +35753,212 @@
         <v>379</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>483</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>580</v>
+      </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I8" si="19">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J8" s="17" t="str">
         <f>VLOOKUP(L8,ch!$A$1:$B$31,2,0)</f>
         <v>鄂ANH299</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="L8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M8" si="20">IF(A8&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N8" s="4">
         <v>14</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O8" si="21">C8&amp;"--"&amp;E8</f>
         <v>新地园区--万科园区</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:103" ht="18.75">
       <c r="A9" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>371</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>370</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>581</v>
+      </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I9" si="22">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J9" s="17" t="str">
         <f>VLOOKUP(L9,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="K9" s="17"/>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L9" s="4" t="s">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M9" si="23">IF(A9&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N9" s="4">
         <v>14</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O9" si="24">C9&amp;"--"&amp;E9</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:103" ht="18.75">
       <c r="A10" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>582</v>
+      </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10:I11" si="25">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J10" s="17" t="str">
         <f>VLOOKUP(L10,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="K10" s="17"/>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="L10" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M10:M11" si="26">IF(A10&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N10" s="4">
         <v>14</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" ref="O10:O11" si="27">C10&amp;"--"&amp;E10</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:103" ht="18.75">
       <c r="A11" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>584</v>
+      </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J11" s="17" t="str">
         <f>VLOOKUP(L11,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂FJU350</v>
-      </c>
-      <c r="K11" s="17"/>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L11" s="4" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>9.6米</v>
       </c>
       <c r="N11" s="4">
         <v>14</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" si="27"/>
+        <v>丰树园区--新地园区</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11" si="4">IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",F3="欣程园区"),1250,165)</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:103" ht="18.75">
       <c r="A12" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>26</v>
@@ -35849,92 +35975,100 @@
       <c r="F12" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>585</v>
+      </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I12" si="28">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J12" s="17" t="str">
         <f>VLOOKUP(L12,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="K12" s="17"/>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>54</v>
+        <v>283</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M12" si="29">IF(A12&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N12" s="4">
         <v>14</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O12" si="30">C12&amp;"--"&amp;E12</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" ref="P12:P22" si="5">IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",F5="欣程园区"),1250,165)</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:103" ht="18.75">
       <c r="A13" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>379</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="H13" s="5"/>
+        <v>390</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>586</v>
+      </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I13" si="31">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J13" s="17" t="str">
         <f>VLOOKUP(L13,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ANH299</v>
-      </c>
-      <c r="K13" s="17"/>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="L13" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M13" si="32">IF(A13&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N13" s="4">
         <v>14</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--万科园区</v>
+        <f t="shared" ref="O13" si="33">C13&amp;"--"&amp;E13</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:103" ht="18.75">
       <c r="A14" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>25</v>
@@ -35943,1130 +36077,559 @@
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>370</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I14:I16" si="34">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J14" s="17" t="str">
         <f>VLOOKUP(L14,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ALU151</v>
-      </c>
-      <c r="K14" s="17"/>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M14:M17" si="35">IF(A14&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N14" s="4">
         <v>14</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O14:O17" si="36">C14&amp;"--"&amp;E14</f>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:103" ht="18.75">
       <c r="A15" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>436</v>
+        <v>588</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>589</v>
+      </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="34"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J15" s="17" t="str">
         <f>VLOOKUP(L15,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="K15" s="17"/>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="35"/>
         <v>9.6米</v>
       </c>
       <c r="N15" s="4">
         <v>14</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" si="36"/>
+        <v>万纬园区--新地园区</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:103" ht="18.75">
       <c r="A16" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="34"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J16" s="17" t="str">
         <f>VLOOKUP(L16,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="K16" s="17"/>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="L16" s="4" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="35"/>
         <v>9.6米</v>
       </c>
       <c r="N16" s="4">
         <v>14</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" si="36"/>
+        <v>新地园区--常福园区</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="5"/>
-        <v>165</v>
+        <f t="shared" si="6"/>
+        <v>1250</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75">
       <c r="A17" s="9">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>349</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>591</v>
+      </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I17" si="37">IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J17" s="17" t="str">
         <f>VLOOKUP(L17,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="K17" s="17"/>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="L17" s="4" t="s">
-        <v>65</v>
+        <v>592</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="35"/>
         <v>9.6米</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" si="36"/>
+        <v>新地园区--常福园区</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="5"/>
-        <v>165</v>
+        <f t="shared" si="6"/>
+        <v>1250</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75">
-      <c r="A18" s="9">
-        <v>43198</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J18" s="17" t="str">
-        <f>VLOOKUP(L18,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AFE237</v>
-      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N18" s="4">
-        <v>14</v>
-      </c>
-      <c r="O18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>亚洲一号园区--新地园区</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="18.75">
-      <c r="A19" s="9">
-        <v>43198</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J19" s="17" t="str">
-        <f>VLOOKUP(L19,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N19" s="4">
-        <v>11</v>
-      </c>
-      <c r="O19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>万纬园区--新地园区</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="18.75">
-      <c r="A20" s="9">
-        <v>43198</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>563</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J20" s="17" t="str">
-        <f>VLOOKUP(L20,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂FJU350</v>
-      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N20" s="4">
-        <v>14</v>
-      </c>
-      <c r="O20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>丰树园区--新地园区</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="18.75">
-      <c r="A21" s="9">
-        <v>43198</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>564</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J21" s="17" t="str">
-        <f>VLOOKUP(L21,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂FJU350</v>
-      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N21" s="4">
-        <v>14</v>
-      </c>
-      <c r="O21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--新地园区</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="34" customFormat="1" ht="18.75">
-      <c r="A22" s="24">
-        <v>43198</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J22" s="22" t="str">
-        <f>VLOOKUP(L22,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N22" s="23">
-        <v>12</v>
-      </c>
-      <c r="O22" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>亚洲一号园区--新地园区</v>
-      </c>
-      <c r="P22" s="23">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="18.75">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="18.75">
-      <c r="A23" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>573</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J23" s="17" t="str">
-        <f>VLOOKUP(L23,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N23" s="4">
-        <v>14</v>
-      </c>
-      <c r="O23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>新地园区--亚洲一号园区</v>
-      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="18.75">
-      <c r="A24" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>574</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="2" t="str">
-        <f t="shared" ref="I24" si="6">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J24" s="17" t="str">
-        <f>VLOOKUP(L24,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="2" t="str">
-        <f t="shared" ref="M24" si="7">IF(A24&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N24" s="4">
-        <v>14</v>
-      </c>
-      <c r="O24" s="2" t="str">
-        <f t="shared" ref="O24" si="8">C24&amp;"--"&amp;E24</f>
-        <v>新地园区--亚洲一号园区</v>
-      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="18.75">
-      <c r="A25" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>575</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="2" t="str">
-        <f t="shared" ref="I25" si="9">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J25" s="17" t="str">
-        <f>VLOOKUP(L25,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ALU151</v>
-      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="2" t="str">
-        <f t="shared" ref="M25" si="10">IF(A25&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N25" s="4">
-        <v>14</v>
-      </c>
-      <c r="O25" s="2" t="str">
-        <f t="shared" ref="O25" si="11">C25&amp;"--"&amp;E25</f>
-        <v>新地园区--亚洲一号园区</v>
-      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" ht="18.75">
-      <c r="A26" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>576</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="2" t="str">
-        <f t="shared" ref="I26" si="12">IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J26" s="17" t="str">
-        <f>VLOOKUP(L26,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" ref="M26" si="13">IF(A26&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N26" s="4">
-        <v>14</v>
-      </c>
-      <c r="O26" s="2" t="str">
-        <f t="shared" ref="O26" si="14">C26&amp;"--"&amp;E26</f>
-        <v>新地园区--丰树园区</v>
-      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="18.75">
-      <c r="A27" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="2" t="str">
-        <f t="shared" ref="I27" si="15">IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J27" s="17" t="str">
-        <f>VLOOKUP(L27,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="17"/>
-      <c r="L27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="2" t="str">
-        <f t="shared" ref="M27" si="16">IF(A27&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N27" s="4">
-        <v>14</v>
-      </c>
-      <c r="O27" s="2" t="str">
-        <f t="shared" ref="O27" si="17">C27&amp;"--"&amp;E27</f>
-        <v>新地园区--亚洲一号园区</v>
-      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="18.75">
-      <c r="A28" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>579</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="2" t="str">
-        <f t="shared" ref="I28" si="18">IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J28" s="17" t="str">
-        <f>VLOOKUP(L28,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ANH299</v>
-      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="2" t="str">
-        <f t="shared" ref="M28" si="19">IF(A28&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N28" s="4">
-        <v>14</v>
-      </c>
-      <c r="O28" s="2" t="str">
-        <f t="shared" ref="O28" si="20">C28&amp;"--"&amp;E28</f>
-        <v>新地园区--亚洲一号园区</v>
-      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="2"/>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" ht="18.75">
-      <c r="A29" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>580</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="2" t="str">
-        <f t="shared" ref="I29" si="21">IF(A29&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J29" s="17" t="str">
-        <f>VLOOKUP(L29,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ANH299</v>
-      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" s="2" t="str">
-        <f t="shared" ref="M29" si="22">IF(A29&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N29" s="4">
-        <v>14</v>
-      </c>
-      <c r="O29" s="2" t="str">
-        <f t="shared" ref="O29" si="23">C29&amp;"--"&amp;E29</f>
-        <v>新地园区--万科园区</v>
-      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="2"/>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" ht="18.75">
-      <c r="A30" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="2" t="str">
-        <f t="shared" ref="I30" si="24">IF(A30&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J30" s="17" t="str">
-        <f>VLOOKUP(L30,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" ref="M30" si="25">IF(A30&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N30" s="4">
-        <v>14</v>
-      </c>
-      <c r="O30" s="2" t="str">
-        <f t="shared" ref="O30" si="26">C30&amp;"--"&amp;E30</f>
-        <v>新地园区--丰树园区</v>
-      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="2"/>
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" ht="18.75">
-      <c r="A31" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>582</v>
-      </c>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="2" t="str">
-        <f t="shared" ref="I31:I32" si="27">IF(A31&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J31" s="17" t="str">
-        <f>VLOOKUP(L31,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AFE237</v>
-      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="17"/>
-      <c r="L31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="2" t="str">
-        <f t="shared" ref="M31:M32" si="28">IF(A31&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N31" s="4">
-        <v>14</v>
-      </c>
-      <c r="O31" s="2" t="str">
-        <f t="shared" ref="O31:O32" si="29">C31&amp;"--"&amp;E31</f>
-        <v>新地园区--亚洲一号园区</v>
-      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="2"/>
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:16" ht="18.75">
-      <c r="A32" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>584</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J32" s="17" t="str">
-        <f>VLOOKUP(L32,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N32" s="4">
-        <v>14</v>
-      </c>
-      <c r="O32" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>丰树园区--新地园区</v>
-      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="2"/>
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" ht="18.75">
-      <c r="A33" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>585</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="2" t="str">
-        <f t="shared" ref="I33" si="30">IF(A33&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J33" s="17" t="str">
-        <f>VLOOKUP(L33,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="17"/>
-      <c r="L33" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="M33" s="2" t="str">
-        <f t="shared" ref="M33" si="31">IF(A33&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N33" s="4">
-        <v>14</v>
-      </c>
-      <c r="O33" s="2" t="str">
-        <f t="shared" ref="O33" si="32">C33&amp;"--"&amp;E33</f>
-        <v>新地园区--亚洲一号园区</v>
-      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="2"/>
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" ht="18.75">
-      <c r="A34" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>586</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="2" t="str">
-        <f t="shared" ref="I34" si="33">IF(A34&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J34" s="17" t="str">
-        <f>VLOOKUP(L34,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" ref="M34" si="34">IF(A34&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N34" s="4">
-        <v>14</v>
-      </c>
-      <c r="O34" s="2" t="str">
-        <f t="shared" ref="O34" si="35">C34&amp;"--"&amp;E34</f>
-        <v>新地园区--丰树园区</v>
-      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="4"/>
     </row>
     <row r="35" spans="1:16" ht="18.75">
-      <c r="A35" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>587</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="2" t="str">
-        <f t="shared" ref="I35:I36" si="36">IF(A35&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J35" s="17" t="str">
-        <f>VLOOKUP(L35,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="17"/>
-      <c r="L35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" ref="M35:M36" si="37">IF(A35&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N35" s="4">
-        <v>14</v>
-      </c>
-      <c r="O35" s="2" t="str">
-        <f t="shared" ref="O35:O36" si="38">C35&amp;"--"&amp;E35</f>
-        <v>新地园区--丰树园区</v>
-      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" ht="18.75">
-      <c r="A36" s="9">
-        <v>43199</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="36"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J36" s="17" t="str">
-        <f>VLOOKUP(L36,ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="37"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N36" s="4">
-        <v>14</v>
-      </c>
-      <c r="O36" s="2" t="str">
-        <f t="shared" si="38"/>
-        <v>万纬园区--新地园区</v>
-      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="2"/>
       <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" ht="18.75">
-      <c r="A37" s="9">
-        <v>43199</v>
-      </c>
+      <c r="A37" s="9"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -39063,432 +38626,57 @@
       <c r="O147" s="2"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" spans="1:16" ht="18.75">
-      <c r="A148" s="9"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="4"/>
-    </row>
-    <row r="149" spans="1:16" ht="18.75">
-      <c r="A149" s="9"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="4"/>
-    </row>
-    <row r="150" spans="1:16" ht="18.75">
-      <c r="A150" s="9"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="4"/>
-    </row>
-    <row r="151" spans="1:16" ht="18.75">
-      <c r="A151" s="9"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="4"/>
-    </row>
-    <row r="152" spans="1:16" ht="18.75">
-      <c r="A152" s="9"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="17"/>
-      <c r="K152" s="17"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="4"/>
-    </row>
-    <row r="153" spans="1:16" ht="18.75">
-      <c r="A153" s="9"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="17"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="4"/>
-    </row>
-    <row r="154" spans="1:16" ht="18.75">
-      <c r="A154" s="9"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="17"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="4"/>
-    </row>
-    <row r="155" spans="1:16" ht="18.75">
-      <c r="A155" s="9"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="4"/>
-    </row>
-    <row r="156" spans="1:16" ht="18.75">
-      <c r="A156" s="9"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="4"/>
-    </row>
-    <row r="157" spans="1:16" ht="18.75">
-      <c r="A157" s="9"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="4"/>
-    </row>
-    <row r="158" spans="1:16" ht="18.75">
-      <c r="A158" s="9"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="4"/>
-    </row>
-    <row r="159" spans="1:16" ht="18.75">
-      <c r="A159" s="9"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="4"/>
-    </row>
-    <row r="160" spans="1:16" ht="18.75">
-      <c r="A160" s="9"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="4"/>
-    </row>
-    <row r="161" spans="1:16" ht="18.75">
-      <c r="A161" s="9"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="4"/>
-    </row>
-    <row r="162" spans="1:16" ht="18.75">
-      <c r="A162" s="9"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="17"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="4"/>
-    </row>
-    <row r="163" spans="1:16" ht="18.75">
-      <c r="A163" s="9"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="4"/>
-    </row>
-    <row r="164" spans="1:16" ht="18.75">
-      <c r="A164" s="9"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="4"/>
-    </row>
-    <row r="165" spans="1:16" ht="18.75">
-      <c r="A165" s="9"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="4"/>
-    </row>
-    <row r="166" spans="1:16" ht="18.75">
-      <c r="A166" s="9"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="4"/>
-    </row>
-    <row r="167" spans="1:16" ht="18.75">
-      <c r="A167" s="9"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="4"/>
-    </row>
-    <row r="168" spans="1:16" ht="18.75">
-      <c r="A168" s="9"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+  <conditionalFormatting sqref="G148:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="45" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+  <conditionalFormatting sqref="G148:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="44" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  <conditionalFormatting sqref="G148:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H32 G36:H168">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
+    <cfRule type="duplicateValues" dxfId="40" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H32 G36:H168">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+  <conditionalFormatting sqref="H12:H14">
+    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H32 G36:H168">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
+    <cfRule type="duplicateValues" dxfId="14" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
+  <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
+    <cfRule type="duplicateValues" dxfId="13" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
+  <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
+    <cfRule type="duplicateValues" dxfId="11" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G32 G36:G1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="H12:H14">
+    <cfRule type="duplicateValues" dxfId="9" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H35">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="H12:H14">
+    <cfRule type="duplicateValues" dxfId="7" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H35">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H35">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="713">
   <si>
     <t>发车时间</t>
   </si>
@@ -2603,6 +2603,18 @@
   </si>
   <si>
     <t>19645</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰西蒂分拣</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17482</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明华</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2959,7 +2971,7 @@
     <cellStyle name="常规 8 2" xfId="13"/>
     <cellStyle name="常规 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="192">
+  <dxfs count="122">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3054,846 +3066,6 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -6619,7 +5791,7 @@
           <c:x val="0.18258271435078877"/>
           <c:y val="0.11843426979035028"/>
           <c:w val="0.65911740371296557"/>
-          <c:h val="0.77786915524448386"/>
+          <c:h val="0.77786915524448408"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7079,11 +6251,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="219"/>
-        <c:axId val="72291840"/>
-        <c:axId val="72293376"/>
+        <c:axId val="57149312"/>
+        <c:axId val="57150848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72291840"/>
+        <c:axId val="57149312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7118,14 +6290,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72293376"/>
+        <c:crossAx val="57150848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72293376"/>
+        <c:axId val="57150848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7174,7 +6346,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72291840"/>
+        <c:crossAx val="57149312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7265,7 +6437,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -7890,7 +7062,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12850,7 +12022,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="191" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16106,30 +15278,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="117" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="116" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="114" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="112" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="110" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="109" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="107" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16140,8 +15312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16307,50 +15479,50 @@
         <v>43201</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>325</v>
+        <v>627</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>710</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I3" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J2" s="17" t="str">
         <f>VLOOKUP(L2,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>鄂ALU151</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="4" t="s">
-        <v>181</v>
+        <v>712</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f t="shared" ref="M2:M3" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A2&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N2" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f t="shared" ref="O2:O3" si="2">C2&amp;"--"&amp;E2</f>
-        <v>丰树园区--新地园区</v>
+        <f>C2&amp;"--"&amp;E2</f>
+        <v>新地园区--常福园区</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" ref="P2:P3" si="3">IF(OR(C2="常福园区",C2="欣程园区",E2="常福园区",E2="欣程园区"),1250,165)</f>
-        <v>165</v>
+        <f>IF(OR(C2="常福园区",C2="欣程园区",E2="常福园区",E2="欣程园区"),1250,165)</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="18.75">
@@ -16377,7 +15549,7 @@
         <v>683</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3" si="0">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J3" s="17" t="str">
@@ -16389,18 +15561,18 @@
         <v>260</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>684</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O3" si="2">C3&amp;"--"&amp;E3</f>
         <v>新地园区--常福园区</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P3" si="3">IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
         <v>1250</v>
       </c>
     </row>
@@ -16409,49 +15581,49 @@
         <v>43201</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>681</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4" si="4">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>VLOOKUP(L4,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AF1588</v>
+        <v>鄂AZR876</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" ref="M4" si="5">IF(A4&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A4&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N4" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4" si="6">C4&amp;"--"&amp;E4</f>
-        <v>新地园区--丰树园区</v>
+        <f>C4&amp;"--"&amp;E4</f>
+        <v>丰树园区--新地园区</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4" si="7">IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
+        <f>IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16460,49 +15632,49 @@
         <v>43201</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5" si="8">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I5" si="4">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J5" s="17" t="str">
         <f>VLOOKUP(L5,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AFE237</v>
+        <v>鄂AF1588</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" ref="M5" si="9">IF(A5&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M5" si="5">IF(A5&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N5" s="4">
         <v>14</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" ref="O5" si="10">C5&amp;"--"&amp;E5</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O5" si="6">C5&amp;"--"&amp;E5</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5" si="11">IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P5" si="7">IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16511,49 +15683,49 @@
         <v>43201</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6" si="12">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I6" si="8">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J6" s="17" t="str">
         <f>VLOOKUP(L6,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AMT870</v>
+        <v>鄂AFE237</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="4" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" ref="M6" si="13">IF(A6&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M6" si="9">IF(A6&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N6" s="4">
         <v>14</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" ref="O6" si="14">C6&amp;"--"&amp;E6</f>
+        <f t="shared" ref="O6" si="10">C6&amp;"--"&amp;E6</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6" si="15">IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P6" si="11">IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16562,7 +15734,7 @@
         <v>43201</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>162</v>
@@ -16574,14 +15746,14 @@
         <v>66</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" ref="I7" si="16">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I7" si="12">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J7" s="17" t="str">
@@ -16593,18 +15765,18 @@
         <v>282</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" ref="M7" si="17">IF(A7&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M7" si="13">IF(A7&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N7" s="4">
         <v>14</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" ref="O7" si="18">C7&amp;"--"&amp;E7</f>
+        <f t="shared" ref="O7" si="14">C7&amp;"--"&amp;E7</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" ref="P7" si="19">IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P7" si="15">IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16613,49 +15785,49 @@
         <v>43201</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" ref="I8" si="20">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I8" si="16">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J8" s="17" t="str">
         <f>VLOOKUP(L8,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
+        <v>鄂AMT870</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="4" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" ref="M8" si="21">IF(A8&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M8" si="17">IF(A8&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N8" s="4">
         <v>14</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" ref="O8" si="22">C8&amp;"--"&amp;E8</f>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" ref="O8" si="18">C8&amp;"--"&amp;E8</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8" si="23">IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P8" si="19">IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16664,7 +15836,7 @@
         <v>43201</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>162</v>
@@ -16673,40 +15845,40 @@
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" ref="I9" si="24">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I9" si="20">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J9" s="17" t="str">
         <f>VLOOKUP(L9,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AAW309</v>
+        <v>鄂AHB101</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" ref="M9" si="25">IF(A9&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M9" si="21">IF(A9&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N9" s="4">
         <v>14</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" ref="O9" si="26">C9&amp;"--"&amp;E9</f>
-        <v>新地园区--新地园区</v>
+        <f t="shared" ref="O9" si="22">C9&amp;"--"&amp;E9</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9" si="27">IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P9" si="23">IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16715,7 +15887,7 @@
         <v>43201</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>162</v>
@@ -16724,17 +15896,17 @@
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" ref="I10" si="28">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I10" si="24">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J10" s="17" t="str">
@@ -16746,18 +15918,18 @@
         <v>168</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" ref="M10" si="29">IF(A10&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M10" si="25">IF(A10&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N10" s="4">
         <v>14</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" ref="O10" si="30">C10&amp;"--"&amp;E10</f>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" ref="O10" si="26">C10&amp;"--"&amp;E10</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" ref="P10" si="31">IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P10" si="27">IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16766,49 +15938,49 @@
         <v>43201</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" ref="I11" si="32">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I11" si="28">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J11" s="17" t="str">
         <f>VLOOKUP(L11,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>鄂AAW309</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" ref="M11" si="33">IF(A11&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M11" si="29">IF(A11&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N11" s="4">
         <v>14</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" ref="O11" si="34">C11&amp;"--"&amp;E11</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O11" si="30">C11&amp;"--"&amp;E11</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11" si="35">IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P11" si="31">IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16823,43 +15995,43 @@
         <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" ref="I12" si="36">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I12" si="32">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J12" s="17" t="str">
         <f>VLOOKUP(L12,ch!$A$1:$B$33,2,0)</f>
-        <v>粤BES791</v>
+        <v>鄂AZR876</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="4" t="s">
-        <v>632</v>
+        <v>181</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" ref="M12" si="37">IF(A12&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M12" si="33">IF(A12&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N12" s="4">
         <v>14</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" ref="O12" si="38">C12&amp;"--"&amp;E12</f>
+        <f t="shared" ref="O12" si="34">C12&amp;"--"&amp;E12</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" ref="P12" si="39">IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P12" si="35">IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16868,49 +16040,49 @@
         <v>43201</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>694</v>
+        <v>252</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" ref="I13" si="40">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I13" si="36">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J13" s="17" t="str">
         <f>VLOOKUP(L13,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
+        <v>粤BES791</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="4" t="s">
-        <v>202</v>
+        <v>632</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" ref="M13" si="41">IF(A13&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M13" si="37">IF(A13&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N13" s="4">
         <v>14</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" ref="O13" si="42">C13&amp;"--"&amp;E13</f>
-        <v>新地园区--新地园区</v>
+        <f t="shared" ref="O13" si="38">C13&amp;"--"&amp;E13</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" ref="P13" si="43">IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P13" si="39">IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16919,49 +16091,49 @@
         <v>43201</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>252</v>
+        <v>694</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" ref="I14" si="44">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I14" si="40">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J14" s="17" t="str">
         <f>VLOOKUP(L14,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
+        <v>鄂AZR992</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="4" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" ref="M14" si="45">IF(A14&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M14" si="41">IF(A14&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N14" s="4">
         <v>14</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" ref="O14" si="46">C14&amp;"--"&amp;E14</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O14" si="42">C14&amp;"--"&amp;E14</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" ref="P14" si="47">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P14" si="43">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16970,7 +16142,7 @@
         <v>43201</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>697</v>
+        <v>252</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>162</v>
@@ -16982,37 +16154,37 @@
         <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" ref="I15" si="48">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I15" si="44">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J15" s="17" t="str">
         <f>VLOOKUP(L15,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
+        <v>鄂AZV377</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="4" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" ref="M15" si="49">IF(A15&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M15" si="45">IF(A15&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N15" s="4">
         <v>14</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" ref="O15" si="50">C15&amp;"--"&amp;E15</f>
+        <f t="shared" ref="O15" si="46">C15&amp;"--"&amp;E15</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15" si="51">IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P15" si="47">IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17021,49 +16193,49 @@
         <v>43201</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" ref="I16" si="52">IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I16" si="48">IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J16" s="17" t="str">
         <f>VLOOKUP(L16,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
+        <v>鄂AZR992</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" ref="M16" si="53">IF(A16&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M16" si="49">IF(A16&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N16" s="4">
         <v>14</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" ref="O16" si="54">C16&amp;"--"&amp;E16</f>
-        <v>新地园区--新地园区</v>
+        <f t="shared" ref="O16" si="50">C16&amp;"--"&amp;E16</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16" si="55">IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P16" si="51">IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17072,49 +16244,49 @@
         <v>43201</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>370</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17" si="56">IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I17" si="52">IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J17" s="17" t="str">
         <f>VLOOKUP(L17,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
+        <v>鄂AHB101</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="4" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" ref="M17" si="57">IF(A17&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M17" si="53">IF(A17&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" ref="O17" si="58">C17&amp;"--"&amp;E17</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O17" si="54">C17&amp;"--"&amp;E17</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" ref="P17" si="59">IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P17" si="55">IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17123,49 +16295,49 @@
         <v>43201</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>469</v>
+        <v>371</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" ref="I18" si="60">IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I18" si="56">IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J18" s="17" t="str">
         <f>VLOOKUP(L18,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>鄂AZV377</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="4" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" ref="M18" si="61">IF(A18&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M18" si="57">IF(A18&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N18" s="4">
         <v>14</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" ref="O18" si="62">C18&amp;"--"&amp;E18</f>
+        <f t="shared" ref="O18" si="58">C18&amp;"--"&amp;E18</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="63">IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P18" si="59">IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17174,49 +16346,49 @@
         <v>43201</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>702</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" ref="I19" si="64">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I19" si="60">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J19" s="17" t="str">
         <f>VLOOKUP(L19,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
+        <v>鄂AZR876</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="4" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" ref="M19" si="65">IF(A19&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M19" si="61">IF(A19&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N19" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" ref="O19" si="66">C19&amp;"--"&amp;E19</f>
-        <v>亚洲一号园区--新地园区</v>
+        <f t="shared" ref="O19" si="62">C19&amp;"--"&amp;E19</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" ref="P19" si="67">IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P19" si="63">IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17225,49 +16397,49 @@
         <v>43201</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>345</v>
+        <v>702</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>704</v>
+        <v>469</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" ref="I20" si="68">IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I20" si="64">IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J20" s="17" t="str">
         <f>VLOOKUP(L20,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ABY277</v>
+        <v>鄂AZV377</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="4" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" ref="M20" si="69">IF(A20&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M20" si="65">IF(A20&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N20" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" ref="O20" si="70">C20&amp;"--"&amp;E20</f>
-        <v>万纬园区--新地园区</v>
+        <f t="shared" ref="O20" si="66">C20&amp;"--"&amp;E20</f>
+        <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" ref="P20" si="71">IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P20" si="67">IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17276,49 +16448,49 @@
         <v>43201</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>373</v>
+        <v>704</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" ref="I21" si="72">IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I21" si="68">IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J21" s="17" t="str">
         <f>VLOOKUP(L21,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="4" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" ref="M21" si="73">IF(A21&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M21" si="69">IF(A21&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N21" s="4">
         <v>14</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" ref="O21" si="74">C21&amp;"--"&amp;E21</f>
-        <v>亚洲一号园区--新地园区</v>
+        <f t="shared" ref="O21" si="70">C21&amp;"--"&amp;E21</f>
+        <v>万纬园区--新地园区</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" ref="P21" si="75">IF(OR(C21="常福园区",C21="欣程园区",E21="常福园区",E21="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P21" si="71">IF(OR(C21="常福园区",C21="欣程园区",E21="常福园区",E21="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17327,49 +16499,49 @@
         <v>43201</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>707</v>
+        <v>20</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" ref="I22" si="76">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I22" si="72">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J22" s="17" t="str">
         <f>VLOOKUP(L22,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ABY277</v>
+        <v>鄂AZR876</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="4" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" ref="M22" si="77">IF(A22&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M22" si="73">IF(A22&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N22" s="4">
         <v>14</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" ref="O22" si="78">C22&amp;"--"&amp;E22</f>
-        <v>万纬园区--新地园区</v>
+        <f t="shared" ref="O22" si="74">C22&amp;"--"&amp;E22</f>
+        <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22" si="79">IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P22" si="75">IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17378,69 +16550,102 @@
         <v>43201</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>371</v>
+        <v>560</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>268</v>
+        <v>707</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" ref="I23" si="80">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I23" si="76">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J23" s="17" t="str">
         <f>VLOOKUP(L23,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="4" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" ref="M23" si="81">IF(A23&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M23" si="77">IF(A23&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N23" s="4">
         <v>14</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" ref="O23" si="82">C23&amp;"--"&amp;E23</f>
+        <f t="shared" ref="O23" si="78">C23&amp;"--"&amp;E23</f>
+        <v>万纬园区--新地园区</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" ref="P23" si="79">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75">
+      <c r="A24" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" ref="I24" si="80">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J24" s="17" t="str">
+        <f>VLOOKUP(L24,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" ref="M24" si="81">IF(A24&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N24" s="4">
+        <v>14</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" ref="O24" si="82">C24&amp;"--"&amp;E24</f>
         <v>亚洲一号园区--新地园区</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" ref="P23" si="83">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
+      <c r="P24" s="4">
+        <f t="shared" ref="P24" si="83">IF(OR(C24="常福园区",C24="欣程园区",E24="常福园区",E24="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="18.75">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="18.75">
       <c r="A25" s="9"/>
@@ -27398,56 +26603,56 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G30 G148:G1048576">
-    <cfRule type="duplicateValues" dxfId="105" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H54">
-    <cfRule type="duplicateValues" dxfId="104" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H77">
-    <cfRule type="duplicateValues" dxfId="102" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="duplicateValues" dxfId="100" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:I94">
-    <cfRule type="duplicateValues" dxfId="99" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:I94">
-    <cfRule type="duplicateValues" dxfId="97" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H124">
-    <cfRule type="duplicateValues" dxfId="95" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="94" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="92" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="90" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="88" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="86" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="83" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29240,8 +28445,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="190" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31193,11 +30398,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="188" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="186" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32406,12 +31611,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="185" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="183" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34234,23 +33439,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="181" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="180" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="178" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="176" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="174" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36136,23 +35341,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="172" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="171" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="169" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="167" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="165" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37828,23 +37033,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="163" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="162" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="160" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="158" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="156" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41719,37 +40924,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="154" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="153" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="151" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="149" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="148" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="146" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="144" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="142" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="140" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45145,54 +44350,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="139" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="138" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="136" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="134" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="133" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="132" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="131" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="129" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="127" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="125" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="123" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="122" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="121" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="119" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -28,6 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$I$1:$I$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'4-10'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'4-11'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="765">
   <si>
     <t>发车时间</t>
   </si>
@@ -2615,6 +2616,180 @@
   </si>
   <si>
     <t>李明华</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>林杰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC(B-13)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18156</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18157</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小威</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18158</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17764</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16903</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16907</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17915</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19707</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17909</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19648</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19649</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19850</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017482</t>
+  </si>
+  <si>
+    <t>WW0017861</t>
+  </si>
+  <si>
+    <t>WW0018148</t>
+  </si>
+  <si>
+    <t>WW0018686</t>
+  </si>
+  <si>
+    <t>WW0018212</t>
+  </si>
+  <si>
+    <t>WW0018211</t>
+  </si>
+  <si>
+    <t>WW0017911</t>
+  </si>
+  <si>
+    <t>WW0018068</t>
+  </si>
+  <si>
+    <t>WW0018067</t>
+  </si>
+  <si>
+    <t>WW0017757</t>
+  </si>
+  <si>
+    <t>WW0016731</t>
+  </si>
+  <si>
+    <t>WW0019643</t>
+  </si>
+  <si>
+    <t>WW0016902</t>
+  </si>
+  <si>
+    <t>WW0019642</t>
+  </si>
+  <si>
+    <t>WW0017912</t>
+  </si>
+  <si>
+    <t>WW0016901</t>
+  </si>
+  <si>
+    <t>WW0017758</t>
+  </si>
+  <si>
+    <t>WW0016905</t>
+  </si>
+  <si>
+    <t>WW0017761</t>
+  </si>
+  <si>
+    <t>WW0019645</t>
+  </si>
+  <si>
+    <t>WW0017558</t>
+  </si>
+  <si>
+    <t>WW0017562</t>
+  </si>
+  <si>
+    <t>WW0017760</t>
+  </si>
+  <si>
+    <t>WW0018156</t>
+  </si>
+  <si>
+    <t>WW0018157</t>
+  </si>
+  <si>
+    <t>WW0018158</t>
+  </si>
+  <si>
+    <t>WW0017764</t>
+  </si>
+  <si>
+    <t>WW0016903</t>
+  </si>
+  <si>
+    <t>WW0016907</t>
+  </si>
+  <si>
+    <t>WW0017915</t>
+  </si>
+  <si>
+    <t>WW0019648</t>
+  </si>
+  <si>
+    <t>WW0019649</t>
+  </si>
+  <si>
+    <t>WW0019850</t>
+  </si>
+  <si>
+    <t>WW0019707</t>
+  </si>
+  <si>
+    <t>TC库房</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2971,7 +3146,7 @@
     <cellStyle name="常规 8 2" xfId="13"/>
     <cellStyle name="常规 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="122">
+  <dxfs count="137">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3066,6 +3241,186 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -5791,7 +6146,7 @@
           <c:x val="0.18258271435078877"/>
           <c:y val="0.11843426979035028"/>
           <c:w val="0.65911740371296557"/>
-          <c:h val="0.77786915524448408"/>
+          <c:h val="0.7778691552444843"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6251,11 +6606,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="219"/>
-        <c:axId val="57149312"/>
-        <c:axId val="57150848"/>
+        <c:axId val="52029312"/>
+        <c:axId val="52030848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57149312"/>
+        <c:axId val="52029312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6290,14 +6645,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57150848"/>
+        <c:crossAx val="52030848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57150848"/>
+        <c:axId val="52030848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6346,7 +6701,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57149312"/>
+        <c:crossAx val="52029312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6360,6 +6715,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
@@ -6437,7 +6793,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -7062,7 +7418,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12022,7 +12378,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="121" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15278,30 +15634,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="47" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="46" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15310,10 +15666,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY111"/>
+  <dimension ref="A1:CY114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15324,11 +15680,11 @@
     <col min="4" max="4" width="39.25" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="31" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="16" customWidth="1"/>
     <col min="12" max="12" width="8.875" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.875" style="18" customWidth="1"/>
     <col min="14" max="14" width="8.75" style="18" bestFit="1" customWidth="1"/>
@@ -15493,7 +15849,9 @@
       <c r="F2" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>730</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>711</v>
       </c>
@@ -15505,7 +15863,9 @@
         <f>VLOOKUP(L2,ch!$A$1:$B$33,2,0)</f>
         <v>鄂ALU151</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>712</v>
       </c>
@@ -15544,7 +15904,9 @@
       <c r="F3" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>731</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>683</v>
       </c>
@@ -15556,7 +15918,9 @@
         <f>VLOOKUP(L3,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>260</v>
       </c>
@@ -15581,49 +15945,53 @@
         <v>43201</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>325</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>369</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>732</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I4" si="4">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>VLOOKUP(L4,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="K4" s="17"/>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="L4" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>IF(A4&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M4" si="5">IF(A4&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N4" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f>C4&amp;"--"&amp;E4</f>
-        <v>丰树园区--新地园区</v>
+        <f t="shared" ref="O4" si="6">C4&amp;"--"&amp;E4</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P4" s="4">
-        <f>IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P4" si="7">IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15632,49 +16000,53 @@
         <v>43201</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G5" s="5"/>
+        <v>446</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>733</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5" si="4">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I5" si="8">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J5" s="17" t="str">
         <f>VLOOKUP(L5,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="K5" s="17"/>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="L5" s="4" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" ref="M5" si="5">IF(A5&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M5" si="9">IF(A5&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N5" s="4">
         <v>14</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" ref="O5" si="6">C5&amp;"--"&amp;E5</f>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" ref="O5" si="10">C5&amp;"--"&amp;E5</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5" si="7">IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P5" si="11">IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15683,49 +16055,53 @@
         <v>43201</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>371</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>734</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6" si="8">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I6" si="12">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J6" s="17" t="str">
         <f>VLOOKUP(L6,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AFE237</v>
-      </c>
-      <c r="K6" s="17"/>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L6" s="4" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" ref="M6" si="9">IF(A6&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M6" si="13">IF(A6&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N6" s="4">
         <v>14</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" ref="O6" si="10">C6&amp;"--"&amp;E6</f>
+        <f t="shared" ref="O6" si="14">C6&amp;"--"&amp;E6</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6" si="11">IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P6" si="15">IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15734,7 +16110,7 @@
         <v>43201</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>162</v>
@@ -15746,37 +16122,41 @@
         <v>66</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>373</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>735</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" ref="I7" si="12">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I7" si="16">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J7" s="17" t="str">
         <f>VLOOKUP(L7,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L7" s="4" t="s">
         <v>282</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" ref="M7" si="13">IF(A7&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M7" si="17">IF(A7&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N7" s="4">
         <v>14</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" ref="O7" si="14">C7&amp;"--"&amp;E7</f>
+        <f t="shared" ref="O7" si="18">C7&amp;"--"&amp;E7</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" ref="P7" si="15">IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P7" si="19">IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15785,49 +16165,53 @@
         <v>43201</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>389</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>736</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" ref="I8" si="16">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I8" si="20">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J8" s="17" t="str">
         <f>VLOOKUP(L8,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="K8" s="17"/>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L8" s="4" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" ref="M8" si="17">IF(A8&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M8" si="21">IF(A8&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N8" s="4">
         <v>14</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" ref="O8" si="18">C8&amp;"--"&amp;E8</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O8" si="22">C8&amp;"--"&amp;E8</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8" si="19">IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P8" si="23">IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15836,7 +16220,7 @@
         <v>43201</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>162</v>
@@ -15845,40 +16229,44 @@
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>436</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>737</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" ref="I9" si="20">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I9" si="24">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J9" s="17" t="str">
         <f>VLOOKUP(L9,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
-      <c r="K9" s="17"/>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L9" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" ref="M9" si="21">IF(A9&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M9" si="25">IF(A9&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N9" s="4">
         <v>14</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" ref="O9" si="22">C9&amp;"--"&amp;E9</f>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" ref="O9" si="26">C9&amp;"--"&amp;E9</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9" si="23">IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P9" si="27">IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15887,7 +16275,7 @@
         <v>43201</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>162</v>
@@ -15896,40 +16284,44 @@
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>372</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>738</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" ref="I10" si="24">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I10" si="28">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J10" s="17" t="str">
         <f>VLOOKUP(L10,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AAW309</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L10" s="4" t="s">
         <v>168</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" ref="M10" si="25">IF(A10&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M10" si="29">IF(A10&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N10" s="4">
         <v>14</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" ref="O10" si="26">C10&amp;"--"&amp;E10</f>
-        <v>新地园区--新地园区</v>
+        <f t="shared" ref="O10" si="30">C10&amp;"--"&amp;E10</f>
+        <v>新地园区--丰树园区</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" ref="P10" si="27">IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P10" si="31">IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15938,49 +16330,53 @@
         <v>43201</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>373</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>739</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" ref="I11" si="28">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I11" si="32">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J11" s="17" t="str">
         <f>VLOOKUP(L11,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="K11" s="17"/>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="L11" s="4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" ref="M11" si="29">IF(A11&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M11" si="33">IF(A11&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N11" s="4">
         <v>14</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" ref="O11" si="30">C11&amp;"--"&amp;E11</f>
-        <v>新地园区--丰树园区</v>
+        <f t="shared" ref="O11" si="34">C11&amp;"--"&amp;E11</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11" si="31">IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P11" si="35">IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -15995,43 +16391,47 @@
         <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>371</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>740</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" ref="I12" si="32">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I12" si="36">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J12" s="17" t="str">
         <f>VLOOKUP(L12,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="K12" s="17"/>
+        <v>粤BES791</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>679</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>181</v>
+        <v>632</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" ref="M12" si="33">IF(A12&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M12" si="37">IF(A12&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N12" s="4">
         <v>14</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" ref="O12" si="34">C12&amp;"--"&amp;E12</f>
+        <f t="shared" ref="O12" si="38">C12&amp;"--"&amp;E12</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" ref="P12" si="35">IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P12" si="39">IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16040,49 +16440,53 @@
         <v>43201</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>252</v>
+        <v>694</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>436</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>741</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" ref="I13" si="36">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I13" si="40">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J13" s="17" t="str">
         <f>VLOOKUP(L13,ch!$A$1:$B$33,2,0)</f>
-        <v>粤BES791</v>
-      </c>
-      <c r="K13" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L13" s="4" t="s">
-        <v>632</v>
+        <v>202</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" ref="M13" si="37">IF(A13&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M13" si="41">IF(A13&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N13" s="4">
         <v>14</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" ref="O13" si="38">C13&amp;"--"&amp;E13</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O13" si="42">C13&amp;"--"&amp;E13</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" ref="P13" si="39">IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P13" si="43">IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16091,49 +16495,53 @@
         <v>43201</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>694</v>
+        <v>252</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G14" s="5"/>
+        <v>469</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>742</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" ref="I14" si="40">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I14" si="44">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J14" s="17" t="str">
         <f>VLOOKUP(L14,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="K14" s="17"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L14" s="4" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" ref="M14" si="41">IF(A14&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M14" si="45">IF(A14&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N14" s="4">
         <v>14</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" ref="O14" si="42">C14&amp;"--"&amp;E14</f>
-        <v>新地园区--新地园区</v>
+        <f t="shared" ref="O14" si="46">C14&amp;"--"&amp;E14</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" ref="P14" si="43">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P14" si="47">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16142,7 +16550,7 @@
         <v>43201</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>252</v>
+        <v>697</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>162</v>
@@ -16154,37 +16562,41 @@
         <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>457</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>743</v>
+      </c>
       <c r="H15" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" ref="I15" si="44">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I15" si="48">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J15" s="17" t="str">
         <f>VLOOKUP(L15,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="K15" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" ref="M15" si="45">IF(A15&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M15" si="49">IF(A15&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N15" s="4">
         <v>14</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" ref="O15" si="46">C15&amp;"--"&amp;E15</f>
+        <f t="shared" ref="O15" si="50">C15&amp;"--"&amp;E15</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15" si="47">IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P15" si="51">IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16193,49 +16605,53 @@
         <v>43201</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G16" s="5"/>
+        <v>398</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>744</v>
+      </c>
       <c r="H16" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" ref="I16" si="48">IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I16" si="52">IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J16" s="17" t="str">
         <f>VLOOKUP(L16,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="K16" s="17"/>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L16" s="4" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" ref="M16" si="49">IF(A16&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M16" si="53">IF(A16&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N16" s="4">
         <v>14</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" ref="O16" si="50">C16&amp;"--"&amp;E16</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O16" si="54">C16&amp;"--"&amp;E16</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16" si="51">IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P16" si="55">IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16244,49 +16660,53 @@
         <v>43201</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>371</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>745</v>
+      </c>
       <c r="H17" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17" si="52">IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I17" si="56">IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J17" s="17" t="str">
         <f>VLOOKUP(L17,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
-      <c r="K17" s="17"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L17" s="4" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" ref="M17" si="53">IF(A17&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M17" si="57">IF(A17&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" ref="O17" si="54">C17&amp;"--"&amp;E17</f>
-        <v>新地园区--新地园区</v>
+        <f t="shared" ref="O17" si="58">C17&amp;"--"&amp;E17</f>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" ref="P17" si="55">IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P17" si="59">IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16295,49 +16715,53 @@
         <v>43201</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>469</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>746</v>
+      </c>
       <c r="H18" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" ref="I18" si="56">IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I18" si="60">IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J18" s="17" t="str">
         <f>VLOOKUP(L18,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="K18" s="17"/>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" ref="M18" si="57">IF(A18&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M18" si="61">IF(A18&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N18" s="4">
         <v>14</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" ref="O18" si="58">C18&amp;"--"&amp;E18</f>
+        <f t="shared" ref="O18" si="62">C18&amp;"--"&amp;E18</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="59">IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P18" si="63">IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16346,49 +16770,53 @@
         <v>43201</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>165</v>
+        <v>702</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>747</v>
+      </c>
       <c r="H19" s="5" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" ref="I19" si="60">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I19" si="64">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J19" s="17" t="str">
         <f>VLOOKUP(L19,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="K19" s="17"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L19" s="4" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" ref="M19" si="61">IF(A19&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M19" si="65">IF(A19&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N19" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" ref="O19" si="62">C19&amp;"--"&amp;E19</f>
-        <v>新地园区--亚洲一号园区</v>
+        <f t="shared" ref="O19" si="66">C19&amp;"--"&amp;E19</f>
+        <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" ref="P19" si="63">IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P19" si="67">IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16397,49 +16825,53 @@
         <v>43201</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>702</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>469</v>
+        <v>373</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>748</v>
+      </c>
       <c r="H20" s="5" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" ref="I20" si="64">IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I20" si="68">IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J20" s="17" t="str">
         <f>VLOOKUP(L20,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="K20" s="17"/>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" ref="M20" si="65">IF(A20&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M20" si="69">IF(A20&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N20" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" ref="O20" si="66">C20&amp;"--"&amp;E20</f>
+        <f t="shared" ref="O20" si="70">C20&amp;"--"&amp;E20</f>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" ref="P20" si="67">IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P20" si="71">IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16448,49 +16880,53 @@
         <v>43201</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>704</v>
+        <v>371</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>749</v>
+      </c>
       <c r="H21" s="5" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" ref="I21" si="68">IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J21" s="17" t="str">
         <f>VLOOKUP(L21,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="K21" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L21" s="4" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" ref="M21" si="69">IF(A21&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A21&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N21" s="4">
         <v>14</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" ref="O21" si="70">C21&amp;"--"&amp;E21</f>
-        <v>万纬园区--新地园区</v>
+        <f>C21&amp;"--"&amp;E21</f>
+        <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" ref="P21" si="71">IF(OR(C21="常福园区",C21="欣程园区",E21="常福园区",E21="欣程园区"),1250,165)</f>
+        <f>IF(OR(C21="常福园区",C21="欣程园区",E21="常福园区",E21="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16499,49 +16935,53 @@
         <v>43201</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>159</v>
+        <v>624</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>373</v>
+        <v>729</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>723</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>673</v>
+      </c>
       <c r="H22" s="5" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" ref="I22" si="72">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J22" s="17" t="str">
         <f>VLOOKUP(L22,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="K22" s="17"/>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" ref="M22" si="73">IF(A22&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A22&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N22" s="4">
         <v>14</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" ref="O22" si="74">C22&amp;"--"&amp;E22</f>
+        <f>C22&amp;"--"&amp;E22</f>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22" si="75">IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
+        <f>IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16564,35 +17004,39 @@
       <c r="F23" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7" t="s">
+        <v>750</v>
+      </c>
       <c r="H23" s="5" t="s">
         <v>708</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" ref="I23" si="76">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I23" si="72">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J23" s="17" t="str">
         <f>VLOOKUP(L23,ch!$A$1:$B$33,2,0)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="L23" s="4" t="s">
         <v>261</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" ref="M23" si="77">IF(A23&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M23" si="73">IF(A23&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N23" s="4">
         <v>14</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" ref="O23" si="78">C23&amp;"--"&amp;E23</f>
+        <f t="shared" ref="O23" si="74">C23&amp;"--"&amp;E23</f>
         <v>万纬园区--新地园区</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" ref="P23" si="79">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P23" si="75">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16601,267 +17045,715 @@
         <v>43201</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>371</v>
+        <v>704</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>751</v>
+      </c>
       <c r="H24" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" ref="I24" si="80">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I24" si="76">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J24" s="17" t="str">
         <f>VLOOKUP(L24,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="K24" s="17"/>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" ref="M24" si="81">IF(A24&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M24" si="77">IF(A24&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N24" s="4">
         <v>14</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" ref="O24" si="82">C24&amp;"--"&amp;E24</f>
-        <v>亚洲一号园区--新地园区</v>
+        <f t="shared" ref="O24" si="78">C24&amp;"--"&amp;E24</f>
+        <v>万纬园区--新地园区</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" ref="P24" si="83">IF(OR(C24="常福园区",C24="欣程园区",E24="常福园区",E24="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P24" si="79">IF(OR(C24="常福园区",C24="欣程园区",E24="常福园区",E24="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.75">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="4"/>
+      <c r="A25" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J25" s="17" t="str">
+        <f>VLOOKUP(L25,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f>IF(A25&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N25" s="4">
+        <v>12</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f>C25&amp;"--"&amp;E25</f>
+        <v>丰树园区--新地园区</v>
+      </c>
+      <c r="P25" s="4">
+        <f>IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="18.75">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="4"/>
+      <c r="A26" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" ref="I26" si="80">IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J26" s="17" t="str">
+        <f>VLOOKUP(L26,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" ref="M26" si="81">IF(A26&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N26" s="4">
+        <v>14</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" ref="O26" si="82">C26&amp;"--"&amp;E26</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26" si="83">IF(OR(C26="常福园区",C26="欣程园区",E26="常福园区",E26="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="18.75">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="4"/>
+      <c r="A27" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" ref="I27" si="84">IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J27" s="17" t="str">
+        <f>VLOOKUP(L27,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" ref="M27" si="85">IF(A27&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N27" s="4">
+        <v>14</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" ref="O27" si="86">C27&amp;"--"&amp;E27</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" ref="P27" si="87">IF(OR(C27="常福园区",C27="欣程园区",E27="常福园区",E27="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="18.75">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="4"/>
+      <c r="A28" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" ref="I28:I31" si="88">IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J28" s="17" t="str">
+        <f>VLOOKUP(L28,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" ref="M28:M31" si="89">IF(A28&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N28" s="4">
+        <v>14</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" ref="O28:O31" si="90">C28&amp;"--"&amp;E28</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" ref="P28:P31" si="91">IF(OR(C28="常福园区",C28="欣程园区",E28="常福园区",E28="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="18.75">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="4"/>
+      <c r="A29" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="88"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J29" s="17" t="str">
+        <f>VLOOKUP(L29,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="89"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N29" s="4">
+        <v>14</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="90"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="91"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="18.75">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="4"/>
+      <c r="A30" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="88"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J30" s="17" t="str">
+        <f>VLOOKUP(L30,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="89"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N30" s="4">
+        <v>14</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="90"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="91"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="18.75">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="4"/>
+      <c r="A31" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="88"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J31" s="17" t="str">
+        <f>VLOOKUP(L31,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="89"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N31" s="4">
+        <v>14</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="90"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="91"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="18.75">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="4"/>
+      <c r="A32" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" ref="I32:I36" si="92">IF(A32&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J32" s="17" t="str">
+        <f>VLOOKUP(L32,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" ref="M32:M36" si="93">IF(A32&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N32" s="4">
+        <v>14</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" ref="O32:O36" si="94">C32&amp;"--"&amp;E32</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" ref="P32:P36" si="95">IF(OR(C32="常福园区",C32="欣程园区",E32="常福园区",E32="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="18.75">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="4"/>
+      <c r="A33" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" ref="I33:I34" si="96">IF(A33&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J33" s="17" t="str">
+        <f>VLOOKUP(L33,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" ref="M33:M34" si="97">IF(A33&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N33" s="4">
+        <v>14</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" ref="O33:O34" si="98">C33&amp;"--"&amp;E33</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" ref="P33:P34" si="99">IF(OR(C33="常福园区",C33="欣程园区",E33="常福园区",E33="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="18.75">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="4"/>
+      <c r="A34" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J34" s="17" t="str">
+        <f>VLOOKUP(L34,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f t="shared" si="97"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N34" s="4">
+        <v>14</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="99"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="18.75">
-      <c r="A35" s="9"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="4"/>
+      <c r="A35" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" ref="I35" si="100">IF(A35&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J35" s="17" t="str">
+        <f>VLOOKUP(L35,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" s="2" t="str">
+        <f t="shared" ref="M35" si="101">IF(A35&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N35" s="4">
+        <v>14</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" ref="O35" si="102">C35&amp;"--"&amp;E35</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" ref="P35" si="103">IF(OR(C35="常福园区",C35="欣程园区",E35="常福园区",E35="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="18.75">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="4"/>
+      <c r="A36" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="92"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J36" s="17" t="str">
+        <f>VLOOKUP(L36,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f t="shared" si="93"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N36" s="4">
+        <v>14</v>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="94"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="95"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="18.75">
       <c r="A37" s="9"/>
@@ -18213,16 +19105,70 @@
       <c r="O111" s="2"/>
       <c r="P111" s="4"/>
     </row>
+    <row r="112" spans="1:16" ht="18.75">
+      <c r="A112" s="9"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="4"/>
+    </row>
+    <row r="113" spans="1:16" ht="18.75">
+      <c r="A113" s="9"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="4"/>
+    </row>
+    <row r="114" spans="1:16" ht="18.75">
+      <c r="A114" s="9"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G112:H1048576 G1:H1">
+  <conditionalFormatting sqref="G115:H1048576 G1:H1">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:H1048576 G1:H1">
+  <conditionalFormatting sqref="G115:H1048576 G1:H1">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:H1048576 G1:H1">
+  <conditionalFormatting sqref="G115:H1048576 G1:H1">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
@@ -18230,14 +19176,14 @@
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H111">
+  <conditionalFormatting sqref="G2:H114">
     <cfRule type="duplicateValues" dxfId="4" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H111">
+  <conditionalFormatting sqref="G2:H114">
     <cfRule type="duplicateValues" dxfId="3" priority="25"/>
     <cfRule type="duplicateValues" dxfId="2" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H111">
+  <conditionalFormatting sqref="G2:H114">
     <cfRule type="duplicateValues" dxfId="1" priority="27"/>
     <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
@@ -26603,56 +27549,56 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G30 G148:G1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H54">
-    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H77">
-    <cfRule type="duplicateValues" dxfId="32" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:I94">
-    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:I94">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H124">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28445,8 +29391,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="120" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30398,11 +31344,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="116" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31611,12 +32557,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="115" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="113" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33439,23 +34385,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="111" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="110" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="108" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="106" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="104" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35341,23 +36287,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="102" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="101" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="99" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="97" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="95" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37033,23 +37979,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="90" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="88" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="86" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40924,37 +41870,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="84" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="83" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="81" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="78" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="76" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="74" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="72" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44350,54 +45296,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="68" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="66" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="64" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="63" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="62" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="61" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="59" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="57" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="55" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3E0FA5CF-860C-4163-9230-B56D77E70D08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -18,17 +24,20 @@
     <sheet name="4-9" sheetId="14" r:id="rId9"/>
     <sheet name="4-10" sheetId="12" r:id="rId10"/>
     <sheet name="4-11" sheetId="15" r:id="rId11"/>
-    <sheet name="ch" sheetId="3" r:id="rId12"/>
-    <sheet name="分析图" sheetId="13" r:id="rId13"/>
-    <sheet name="汇总明细" sheetId="9" r:id="rId14"/>
+    <sheet name="4-12" sheetId="16" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId13"/>
+    <sheet name="ch" sheetId="3" r:id="rId14"/>
+    <sheet name="分析图" sheetId="13" r:id="rId15"/>
+    <sheet name="汇总明细" sheetId="9" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$I$1:$I$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'4-10'!$A$1:$P$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'4-11'!$A$1:$P$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'4-11'!$A$1:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'4-12'!$A$1:$P$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
@@ -36,15 +45,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'4-8'!$A$1:$P$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'4-9'!$A$1:$P$16</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="789">
   <si>
     <t>发车时间</t>
   </si>
@@ -2663,10 +2672,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>19707</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>17909</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2786,17 +2791,117 @@
     <t>WW0019850</t>
   </si>
   <si>
-    <t>WW0019707</t>
-  </si>
-  <si>
-    <t>TC库房</t>
+    <t>18159</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18160</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16908</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16909</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17076</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18224</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉公共平台5号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19751</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19752</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19650</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17951</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17765</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17766</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17767</t>
+  </si>
+  <si>
+    <t>16911</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17916</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17917</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17914</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16733</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17484</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16913</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉业一图书音像仓</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC(B-3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19753</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17078</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17080</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17081</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;鄂A&quot;@"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
@@ -3127,26 +3232,26 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 2 3" xfId="7"/>
-    <cellStyle name="常规 2 3 2" xfId="17"/>
-    <cellStyle name="常规 2 4" xfId="14"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="8"/>
-    <cellStyle name="常规 3 2 2" xfId="18"/>
-    <cellStyle name="常规 3 3" xfId="15"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 4 2" xfId="16"/>
-    <cellStyle name="常规 5" xfId="6"/>
-    <cellStyle name="常规 5 2" xfId="11"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="常规 7" xfId="9"/>
-    <cellStyle name="常规 8" xfId="10"/>
-    <cellStyle name="常规 8 2" xfId="13"/>
-    <cellStyle name="常规 9" xfId="12"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 7" xfId="9" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 8" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 8 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="137">
+  <dxfs count="142">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3157,270 +3262,6 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -3757,6 +3598,330 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -4805,13 +4970,24 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[4月TC报表.xlsx]分析图!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -4846,8 +5022,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -4882,8 +5063,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -4918,8 +5104,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -4954,8 +5145,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -4990,8 +5186,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5026,8 +5227,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5062,8 +5268,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5098,8 +5309,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5134,8 +5350,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5170,8 +5391,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5206,8 +5432,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5242,8 +5473,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5278,8 +5514,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5314,8 +5555,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5350,8 +5596,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5386,8 +5637,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5422,8 +5678,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5458,8 +5719,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5494,8 +5760,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5530,8 +5801,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5566,8 +5842,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5602,8 +5883,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5638,8 +5924,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5674,8 +5965,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5710,8 +6006,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5746,8 +6047,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5782,8 +6088,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5818,8 +6129,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5854,8 +6170,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5890,8 +6211,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5926,8 +6252,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5962,8 +6293,13 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -6002,13 +6338,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -6030,13 +6366,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -6058,13 +6394,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -6086,13 +6422,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -6114,13 +6450,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -6152,6 +6488,7 @@
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6188,6 +6525,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -6220,7 +6558,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -6262,6 +6600,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -6294,7 +6633,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000044-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -6336,6 +6675,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -6368,7 +6708,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000045-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -6410,6 +6750,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -6442,7 +6783,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000046-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -6484,6 +6825,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -6525,7 +6867,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000047-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -6567,6 +6909,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -6599,12 +6942,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000048-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:axId val="52029312"/>
         <c:axId val="52030848"/>
@@ -6614,9 +6965,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6650,12 +7003,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="52030848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6673,6 +7028,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6715,7 +7071,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
@@ -6750,13 +7106,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:pattFill prst="dkDnDiag">
@@ -6796,7 +7153,7 @@
     <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -7418,7 +7775,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7440,7 +7797,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -7712,7 +8069,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="LENOVO" refreshedDate="43198.888957870367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="146">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="LENOVO" refreshedDate="43198.888957870367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="146" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N147" sheet="汇总明细"/>
   </cacheSource>
@@ -10184,7 +10541,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10424,7 +10781,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10466,7 +10823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10498,9 +10855,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10532,6 +10907,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10707,7 +11100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12378,7 +12771,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="136" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12386,11 +12779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CY131"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15634,30 +16027,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="62" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="61" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="59" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="57" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="55" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="54" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="52" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15665,11 +16058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:CY112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15850,7 +16243,7 @@
         <v>710</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>711</v>
@@ -15905,13 +16298,13 @@
         <v>280</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>683</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3" si="0">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J3" s="17" t="str">
@@ -15925,18 +16318,18 @@
         <v>260</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A3&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>684</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3" si="2">C3&amp;"--"&amp;E3</f>
+        <f>C3&amp;"--"&amp;E3</f>
         <v>新地园区--常福园区</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3" si="3">IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
+        <f>IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
         <v>1250</v>
       </c>
     </row>
@@ -15960,13 +16353,13 @@
         <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>685</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4" si="4">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J4" s="17" t="str">
@@ -15980,18 +16373,18 @@
         <v>185</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" ref="M4" si="5">IF(A4&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A4&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N4" s="4">
         <v>14</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4" si="6">C4&amp;"--"&amp;E4</f>
+        <f>C4&amp;"--"&amp;E4</f>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4" si="7">IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
+        <f>IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16015,13 +16408,13 @@
         <v>446</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>686</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5" si="8">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J5" s="17" t="str">
@@ -16035,18 +16428,18 @@
         <v>223</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" ref="M5" si="9">IF(A5&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A5&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N5" s="4">
         <v>14</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" ref="O5" si="10">C5&amp;"--"&amp;E5</f>
+        <f>C5&amp;"--"&amp;E5</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5" si="11">IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
+        <f>IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16070,13 +16463,13 @@
         <v>371</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>687</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6" si="12">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J6" s="17" t="str">
@@ -16090,18 +16483,18 @@
         <v>282</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" ref="M6" si="13">IF(A6&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A6&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N6" s="4">
         <v>14</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" ref="O6" si="14">C6&amp;"--"&amp;E6</f>
+        <f>C6&amp;"--"&amp;E6</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6" si="15">IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
+        <f>IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16125,13 +16518,13 @@
         <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>688</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" ref="I7" si="16">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J7" s="17" t="str">
@@ -16145,18 +16538,18 @@
         <v>282</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" ref="M7" si="17">IF(A7&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A7&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N7" s="4">
         <v>14</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" ref="O7" si="18">C7&amp;"--"&amp;E7</f>
+        <f>C7&amp;"--"&amp;E7</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" ref="P7" si="19">IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
+        <f>IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16180,13 +16573,13 @@
         <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>689</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" ref="I8" si="20">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J8" s="17" t="str">
@@ -16200,18 +16593,18 @@
         <v>158</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" ref="M8" si="21">IF(A8&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A8&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N8" s="4">
         <v>14</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" ref="O8" si="22">C8&amp;"--"&amp;E8</f>
+        <f>C8&amp;"--"&amp;E8</f>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8" si="23">IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
+        <f>IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16235,13 +16628,13 @@
         <v>436</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>690</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" ref="I9" si="24">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J9" s="17" t="str">
@@ -16255,18 +16648,18 @@
         <v>168</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" ref="M9" si="25">IF(A9&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A9&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N9" s="4">
         <v>14</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" ref="O9" si="26">C9&amp;"--"&amp;E9</f>
+        <f>C9&amp;"--"&amp;E9</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9" si="27">IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
+        <f>IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16290,13 +16683,13 @@
         <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>691</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" ref="I10" si="28">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J10" s="17" t="str">
@@ -16310,18 +16703,18 @@
         <v>168</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" ref="M10" si="29">IF(A10&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A10&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N10" s="4">
         <v>14</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" ref="O10" si="30">C10&amp;"--"&amp;E10</f>
+        <f>C10&amp;"--"&amp;E10</f>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" ref="P10" si="31">IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
+        <f>IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16345,13 +16738,13 @@
         <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>692</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" ref="I11" si="32">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J11" s="17" t="str">
@@ -16365,18 +16758,18 @@
         <v>181</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" ref="M11" si="33">IF(A11&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A11&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N11" s="4">
         <v>14</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" ref="O11" si="34">C11&amp;"--"&amp;E11</f>
+        <f>C11&amp;"--"&amp;E11</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11" si="35">IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
+        <f>IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16400,13 +16793,13 @@
         <v>371</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>693</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" ref="I12" si="36">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J12" s="17" t="str">
@@ -16420,18 +16813,18 @@
         <v>632</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" ref="M12" si="37">IF(A12&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A12&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N12" s="4">
         <v>14</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" ref="O12" si="38">C12&amp;"--"&amp;E12</f>
+        <f>C12&amp;"--"&amp;E12</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" ref="P12" si="39">IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
+        <f>IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16455,13 +16848,13 @@
         <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>695</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" ref="I13" si="40">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J13" s="17" t="str">
@@ -16475,18 +16868,18 @@
         <v>202</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" ref="M13" si="41">IF(A13&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A13&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N13" s="4">
         <v>14</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" ref="O13" si="42">C13&amp;"--"&amp;E13</f>
+        <f>C13&amp;"--"&amp;E13</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" ref="P13" si="43">IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
+        <f>IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16510,13 +16903,13 @@
         <v>469</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>696</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" ref="I14" si="44">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J14" s="17" t="str">
@@ -16530,18 +16923,18 @@
         <v>54</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" ref="M14" si="45">IF(A14&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A14&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N14" s="4">
         <v>14</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" ref="O14" si="46">C14&amp;"--"&amp;E14</f>
+        <f>C14&amp;"--"&amp;E14</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" ref="P14" si="47">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
+        <f>IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16565,13 +16958,13 @@
         <v>457</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>698</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" ref="I15" si="48">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J15" s="17" t="str">
@@ -16585,18 +16978,18 @@
         <v>202</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" ref="M15" si="49">IF(A15&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A15&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N15" s="4">
         <v>14</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" ref="O15" si="50">C15&amp;"--"&amp;E15</f>
+        <f>C15&amp;"--"&amp;E15</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15" si="51">IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
+        <f>IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16620,13 +17013,13 @@
         <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>699</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" ref="I16" si="52">IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J16" s="17" t="str">
@@ -16640,18 +17033,18 @@
         <v>158</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" ref="M16" si="53">IF(A16&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A16&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N16" s="4">
         <v>14</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" ref="O16" si="54">C16&amp;"--"&amp;E16</f>
+        <f>C16&amp;"--"&amp;E16</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16" si="55">IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
+        <f>IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16675,13 +17068,13 @@
         <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>700</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17" si="56">IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J17" s="17" t="str">
@@ -16695,18 +17088,18 @@
         <v>54</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" ref="M17" si="57">IF(A17&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A17&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" ref="O17" si="58">C17&amp;"--"&amp;E17</f>
+        <f>C17&amp;"--"&amp;E17</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" ref="P17" si="59">IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
+        <f>IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16730,13 +17123,13 @@
         <v>469</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>701</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" ref="I18" si="60">IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J18" s="17" t="str">
@@ -16750,18 +17143,18 @@
         <v>181</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" ref="M18" si="61">IF(A18&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A18&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N18" s="4">
         <v>14</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" ref="O18" si="62">C18&amp;"--"&amp;E18</f>
+        <f>C18&amp;"--"&amp;E18</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="63">IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
+        <f>IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16785,13 +17178,13 @@
         <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>703</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" ref="I19" si="64">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J19" s="17" t="str">
@@ -16805,18 +17198,18 @@
         <v>54</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" ref="M19" si="65">IF(A19&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A19&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N19" s="4">
         <v>12</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" ref="O19" si="66">C19&amp;"--"&amp;E19</f>
+        <f>C19&amp;"--"&amp;E19</f>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" ref="P19" si="67">IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
+        <f>IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16840,13 +17233,13 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>706</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" ref="I20" si="68">IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J20" s="17" t="str">
@@ -16860,18 +17253,18 @@
         <v>181</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" ref="M20" si="69">IF(A20&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A20&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N20" s="4">
         <v>14</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" ref="O20" si="70">C20&amp;"--"&amp;E20</f>
+        <f>C20&amp;"--"&amp;E20</f>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" ref="P20" si="71">IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
+        <f>IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16895,7 +17288,7 @@
         <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>709</v>
@@ -16935,53 +17328,53 @@
         <v>43201</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>729</v>
+        <v>560</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f>IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I22" si="0">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J22" s="17" t="str">
         <f>VLOOKUP(L22,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f>IF(A22&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M22" si="1">IF(A22&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N22" s="4">
         <v>14</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f>C22&amp;"--"&amp;E22</f>
-        <v>亚洲一号园区--新地园区</v>
+        <f t="shared" ref="O22" si="2">C22&amp;"--"&amp;E22</f>
+        <v>万纬园区--新地园区</v>
       </c>
       <c r="P22" s="4">
-        <f>IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P22" si="3">IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -16990,28 +17383,28 @@
         <v>43201</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>560</v>
+        <v>704</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>707</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>750</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" ref="I23" si="72">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I23" si="4">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J23" s="17" t="str">
@@ -17025,18 +17418,18 @@
         <v>261</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" ref="M23" si="73">IF(A23&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M23" si="5">IF(A23&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N23" s="4">
         <v>14</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" ref="O23" si="74">C23&amp;"--"&amp;E23</f>
+        <f t="shared" ref="O23" si="6">C23&amp;"--"&amp;E23</f>
         <v>万纬园区--新地园区</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" ref="P23" si="75">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P23" si="7">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17045,53 +17438,53 @@
         <v>43201</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>704</v>
+        <v>372</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>274</v>
+        <v>681</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>751</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" ref="I24" si="76">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J24" s="17" t="str">
         <f>VLOOKUP(L24,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ABY277</v>
+        <v>鄂AZR876</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" ref="M24" si="77">IF(A24&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A24&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N24" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" ref="O24" si="78">C24&amp;"--"&amp;E24</f>
-        <v>万纬园区--新地园区</v>
+        <f>C24&amp;"--"&amp;E24</f>
+        <v>丰树园区--新地园区</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" ref="P24" si="79">IF(OR(C24="常福园区",C24="欣程园区",E24="常福园区",E24="欣程园区"),1250,165)</f>
+        <f>IF(OR(C24="常福园区",C24="欣程园区",E24="常福园区",E24="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17100,53 +17493,53 @@
         <v>43201</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>325</v>
+        <v>713</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>372</v>
+        <v>714</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>681</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>752</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f>IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I25" si="8">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J25" s="17" t="str">
         <f>VLOOKUP(L25,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>鄂AF1588</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f>IF(A25&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M25" si="9">IF(A25&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N25" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f>C25&amp;"--"&amp;E25</f>
-        <v>丰树园区--新地园区</v>
+        <f t="shared" ref="O25" si="10">C25&amp;"--"&amp;E25</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P25" s="4">
-        <f>IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P25" si="11">IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17173,10 +17566,10 @@
         <v>753</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" ref="I26" si="80">IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I26" si="12">IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J26" s="17" t="str">
@@ -17190,18 +17583,18 @@
         <v>185</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" ref="M26" si="81">IF(A26&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M26" si="13">IF(A26&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N26" s="4">
         <v>14</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" ref="O26" si="82">C26&amp;"--"&amp;E26</f>
+        <f t="shared" ref="O26" si="14">C26&amp;"--"&amp;E26</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" ref="P26" si="83">IF(OR(C26="常福园区",C26="欣程园区",E26="常福园区",E26="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P26" si="15">IF(OR(C26="常福园区",C26="欣程园区",E26="常福园区",E26="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17210,13 +17603,13 @@
         <v>43201</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>714</v>
+        <v>19</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>162</v>
@@ -17228,10 +17621,10 @@
         <v>754</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" ref="I27" si="84">IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I27:I30" si="16">IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J27" s="17" t="str">
@@ -17245,18 +17638,18 @@
         <v>185</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" ref="M27" si="85">IF(A27&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M27:M30" si="17">IF(A27&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N27" s="4">
         <v>14</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" ref="O27" si="86">C27&amp;"--"&amp;E27</f>
+        <f t="shared" ref="O27:O30" si="18">C27&amp;"--"&amp;E27</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27" si="87">IF(OR(C27="常福园区",C27="欣程园区",E27="常福园区",E27="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P27:P30" si="19">IF(OR(C27="常福园区",C27="欣程园区",E27="常福园区",E27="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17283,35 +17676,35 @@
         <v>755</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" ref="I28:I31" si="88">IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="16"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J28" s="17" t="str">
         <f>VLOOKUP(L28,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AF1588</v>
+        <v>鄂AZR876</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f t="shared" ref="M28:M31" si="89">IF(A28&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="17"/>
         <v>9.6米</v>
       </c>
       <c r="N28" s="4">
         <v>14</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" ref="O28:O31" si="90">C28&amp;"--"&amp;E28</f>
+        <f t="shared" si="18"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28:P31" si="91">IF(OR(C28="常福园区",C28="欣程园区",E28="常福园区",E28="欣程园区"),1250,165)</f>
+        <f t="shared" si="19"/>
         <v>165</v>
       </c>
     </row>
@@ -17326,7 +17719,7 @@
         <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>714</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>162</v>
@@ -17338,35 +17731,35 @@
         <v>756</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="16"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J29" s="17" t="str">
         <f>VLOOKUP(L29,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>鄂AZV377</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="17"/>
         <v>9.6米</v>
       </c>
       <c r="N29" s="4">
         <v>14</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="18"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="19"/>
         <v>165</v>
       </c>
     </row>
@@ -17393,10 +17786,10 @@
         <v>757</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="16"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J30" s="17" t="str">
@@ -17410,18 +17803,18 @@
         <v>54</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="17"/>
         <v>9.6米</v>
       </c>
       <c r="N30" s="4">
         <v>14</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="18"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="19"/>
         <v>165</v>
       </c>
     </row>
@@ -17448,35 +17841,35 @@
         <v>758</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="I31" si="20">IF(A31&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J31" s="17" t="str">
         <f>VLOOKUP(L31,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
+        <v>鄂AHB101</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="M31" si="21">IF(A31&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N31" s="4">
         <v>14</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="O31" si="22">C31&amp;"--"&amp;E31</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="P31" si="23">IF(OR(C31="常福园区",C31="欣程园区",E31="常福园区",E31="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17503,35 +17896,35 @@
         <v>759</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" ref="I32:I36" si="92">IF(A32&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I32:I33" si="24">IF(A32&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J32" s="17" t="str">
         <f>VLOOKUP(L32,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
+        <v>鄂AZR992</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f t="shared" ref="M32:M36" si="93">IF(A32&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M32:M33" si="25">IF(A32&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N32" s="4">
         <v>14</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f t="shared" ref="O32:O36" si="94">C32&amp;"--"&amp;E32</f>
+        <f t="shared" ref="O32:O33" si="26">C32&amp;"--"&amp;E32</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32:P36" si="95">IF(OR(C32="常福园区",C32="欣程园区",E32="常福园区",E32="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P32:P33" si="27">IF(OR(C32="常福园区",C32="欣程园区",E32="常福园区",E32="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17561,7 +17954,7 @@
         <v>726</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" ref="I33:I34" si="96">IF(A33&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="24"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J33" s="17" t="str">
@@ -17575,18 +17968,18 @@
         <v>270</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f t="shared" ref="M33:M34" si="97">IF(A33&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="25"/>
         <v>9.6米</v>
       </c>
       <c r="N33" s="4">
         <v>14</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f t="shared" ref="O33:O34" si="98">C33&amp;"--"&amp;E33</f>
+        <f t="shared" si="26"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" ref="P33:P34" si="99">IF(OR(C33="常福园区",C33="欣程园区",E33="常福园区",E33="欣程园区"),1250,165)</f>
+        <f t="shared" si="27"/>
         <v>165</v>
       </c>
     </row>
@@ -17595,7 +17988,7 @@
         <v>43201</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>162</v>
@@ -17616,144 +18009,70 @@
         <v>727</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="I34" si="28">IF(A34&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J34" s="17" t="str">
         <f>VLOOKUP(L34,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
+        <v>鄂ABY256</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="M34" si="29">IF(A34&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N34" s="4">
         <v>14</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="O34" si="30">C34&amp;"--"&amp;E34</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="P34" si="31">IF(OR(C34="常福园区",C34="欣程园区",E34="常福园区",E34="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18.75">
-      <c r="A35" s="9">
-        <v>43201</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" ref="I35" si="100">IF(A35&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J35" s="17" t="str">
-        <f>VLOOKUP(L35,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" ref="M35" si="101">IF(A35&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="N35" s="4">
-        <v>14</v>
-      </c>
-      <c r="O35" s="2" t="str">
-        <f t="shared" ref="O35" si="102">C35&amp;"--"&amp;E35</f>
-        <v>新地园区--新地园区</v>
-      </c>
-      <c r="P35" s="4">
-        <f t="shared" ref="P35" si="103">IF(OR(C35="常福园区",C35="欣程园区",E35="常福园区",E35="欣程园区"),1250,165)</f>
-        <v>165</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" ht="18.75">
-      <c r="A36" s="9">
-        <v>43201</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="92"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="J36" s="17" t="str">
-        <f>VLOOKUP(L36,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="93"/>
-        <v>9.6米</v>
-      </c>
-      <c r="N36" s="4">
-        <v>14</v>
-      </c>
-      <c r="O36" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v>新地园区--丰树园区</v>
-      </c>
-      <c r="P36" s="4">
-        <f t="shared" si="95"/>
-        <v>165</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" ht="18.75">
       <c r="A37" s="9"/>
@@ -19123,76 +19442,2524 @@
       <c r="O112" s="2"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" spans="1:16" ht="18.75">
-      <c r="A113" s="9"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="4"/>
-    </row>
-    <row r="114" spans="1:16" ht="18.75">
-      <c r="A114" s="9"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G115:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  <conditionalFormatting sqref="G113:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="55" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  <conditionalFormatting sqref="G113:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  <conditionalFormatting sqref="G113:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H114">
-    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
+  <conditionalFormatting sqref="G2:H112">
+    <cfRule type="duplicateValues" dxfId="48" priority="113"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H114">
-    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
+  <conditionalFormatting sqref="G2:H112">
+    <cfRule type="duplicateValues" dxfId="47" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H114">
-    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  <conditionalFormatting sqref="G2:H112">
+    <cfRule type="duplicateValues" dxfId="45" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="120"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0AA506-9764-4795-A8D3-B85187EA355D}">
+  <dimension ref="A1:CY79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:103" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+    </row>
+    <row r="2" spans="1:103" ht="18.75">
+      <c r="A2" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J2" s="17" t="str">
+        <f>VLOOKUP(L2,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f t="shared" ref="M2" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N2" s="4">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f t="shared" ref="O2" si="2">C2&amp;"--"&amp;E2</f>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" ref="P2" si="3">IF(OR(C2="常福园区",C2="欣程园区",E2="常福园区",E2="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" ht="18.75">
+      <c r="A3" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J3" s="17" t="str">
+        <f>VLOOKUP(L3,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3" si="5">IF(A3&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N3" s="4">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3" si="6">C3&amp;"--"&amp;E3</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3" si="7">IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" ht="18.75">
+      <c r="A4" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4" si="8">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J4" s="17" t="str">
+        <f>VLOOKUP(L4,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" ref="M4" si="9">IF(A4&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N4" s="4">
+        <v>14</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" ref="O4" si="10">C4&amp;"--"&amp;E4</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4" si="11">IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" ht="18.75">
+      <c r="A5" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2" t="str">
+        <f t="shared" ref="I5" si="12">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J5" s="17" t="str">
+        <f>VLOOKUP(L5,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" ref="M5" si="13">IF(A5&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N5" s="4">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" ref="O5" si="14">C5&amp;"--"&amp;E5</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" ref="P5" si="15">IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" ht="18.75">
+      <c r="A6" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2" t="str">
+        <f t="shared" ref="I6" si="16">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J6" s="17" t="str">
+        <f>VLOOKUP(L6,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" ref="M6" si="17">IF(A6&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N6" s="4">
+        <v>14</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" ref="O6" si="18">C6&amp;"--"&amp;E6</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" ref="P6" si="19">IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" ht="18.75">
+      <c r="A7" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2" t="str">
+        <f t="shared" ref="I7" si="20">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J7" s="17" t="str">
+        <f>VLOOKUP(L7,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" ref="M7" si="21">IF(A7&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N7" s="4">
+        <v>14</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" ref="O7" si="22">C7&amp;"--"&amp;E7</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" ref="P7" si="23">IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" ht="18.75">
+      <c r="A8" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2" t="str">
+        <f t="shared" ref="I8" si="24">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J8" s="17" t="str">
+        <f>VLOOKUP(L8,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" ref="M8" si="25">IF(A8&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" ref="O8" si="26">C8&amp;"--"&amp;E8</f>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" ref="P8" si="27">IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" ht="18.75">
+      <c r="A9" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2" t="str">
+        <f t="shared" ref="I9" si="28">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J9" s="17" t="str">
+        <f>VLOOKUP(L9,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" ref="M9" si="29">IF(A9&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N9" s="4">
+        <v>14</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" ref="O9" si="30">C9&amp;"--"&amp;E9</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" ref="P9" si="31">IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" ht="18.75">
+      <c r="A10" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2" t="str">
+        <f t="shared" ref="I10" si="32">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J10" s="17" t="str">
+        <f>VLOOKUP(L10,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" ref="M10" si="33">IF(A10&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N10" s="4">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" ref="O10" si="34">C10&amp;"--"&amp;E10</f>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" ref="P10" si="35">IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" ht="18.75">
+      <c r="A11" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2" t="str">
+        <f t="shared" ref="I11" si="36">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J11" s="17" t="str">
+        <f>VLOOKUP(L11,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" ref="M11" si="37">IF(A11&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N11" s="4">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" ref="O11" si="38">C11&amp;"--"&amp;E11</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" ref="P11" si="39">IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" ht="18.75">
+      <c r="A12" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2" t="str">
+        <f t="shared" ref="I12" si="40">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J12" s="17" t="str">
+        <f>VLOOKUP(L12,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" ref="M12" si="41">IF(A12&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N12" s="4">
+        <v>14</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" ref="O12" si="42">C12&amp;"--"&amp;E12</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" ref="P12" si="43">IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" ht="18.75">
+      <c r="A13" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2" t="str">
+        <f t="shared" ref="I13" si="44">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J13" s="17" t="str">
+        <f>VLOOKUP(L13,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" ref="M13" si="45">IF(A13&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N13" s="4">
+        <v>14</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" ref="O13" si="46">C13&amp;"--"&amp;E13</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" ref="P13" si="47">IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" ht="18.75">
+      <c r="A14" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2" t="str">
+        <f t="shared" ref="I14:I24" si="48">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J14" s="17" t="str">
+        <f>VLOOKUP(L14,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" ref="M14:M24" si="49">IF(A14&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N14" s="4">
+        <v>14</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" ref="O14:O24" si="50">C14&amp;"--"&amp;E14</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14:P24" si="51">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" ht="18.75">
+      <c r="A15" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J15" s="17" t="str">
+        <f>VLOOKUP(L15,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N15" s="4">
+        <v>14</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103" ht="18.75">
+      <c r="A16" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J16" s="17" t="str">
+        <f>VLOOKUP(L16,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N16" s="4">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75">
+      <c r="A17" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J17" s="17" t="str">
+        <f>VLOOKUP(L17,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N17" s="4">
+        <v>14</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75">
+      <c r="A18" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J18" s="17" t="str">
+        <f>VLOOKUP(L18,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N18" s="4">
+        <v>14</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="51"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75">
+      <c r="A19" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J19" s="17" t="str">
+        <f>VLOOKUP(L19,ch!$A$1:$B$33,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N19" s="4">
+        <v>14</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="51"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75">
+      <c r="A20" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J20" s="17" t="str">
+        <f>VLOOKUP(L20,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N20" s="4">
+        <v>14</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="51"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75">
+      <c r="A21" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J21" s="17" t="str">
+        <f>VLOOKUP(L21,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N21" s="4">
+        <v>14</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.75">
+      <c r="A22" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J22" s="17" t="str">
+        <f>VLOOKUP(L22,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N22" s="4">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>万纬园区--新地园区</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18.75">
+      <c r="A23" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J23" s="17" t="str">
+        <f>VLOOKUP(L23,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N23" s="4">
+        <v>10</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>丰树园区--新地园区</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75">
+      <c r="A24" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J24" s="17" t="str">
+        <f>VLOOKUP(L24,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N24" s="4">
+        <v>14</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18.75">
+      <c r="A25" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2" t="str">
+        <f t="shared" ref="I25" si="52">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J25" s="17" t="str">
+        <f>VLOOKUP(L25,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" ref="M25" si="53">IF(A25&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N25" s="4">
+        <v>14</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" ref="O25" si="54">C25&amp;"--"&amp;E25</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" ref="P25" si="55">IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18.75">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" ht="18.75">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="18.75">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="18.75">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" ht="18.75">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="18.75">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="18.75">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="18.75">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="18.75">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" ht="18.75">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" ht="18.75">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" ht="18.75">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" ht="18.75">
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" ht="18.75">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" ht="18.75">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" ht="18.75">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" ht="18.75">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" ht="18.75">
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" ht="18.75">
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" ht="18.75">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" ht="18.75">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" ht="18.75">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.75">
+      <c r="A49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50" spans="1:16" ht="18.75">
+      <c r="A50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="1:16" ht="18.75">
+      <c r="A51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="1:16" ht="18.75">
+      <c r="A52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="1:16" ht="18.75">
+      <c r="A53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="4"/>
+    </row>
+    <row r="54" spans="1:16" ht="18.75">
+      <c r="A54" s="9"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="4"/>
+    </row>
+    <row r="55" spans="1:16" ht="18.75">
+      <c r="A55" s="9"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="4"/>
+    </row>
+    <row r="56" spans="1:16" ht="18.75">
+      <c r="A56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.75">
+      <c r="A57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.75">
+      <c r="A58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="4"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.75">
+      <c r="A59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="4"/>
+    </row>
+    <row r="60" spans="1:16" ht="18.75">
+      <c r="A60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="4"/>
+    </row>
+    <row r="61" spans="1:16" ht="18.75">
+      <c r="A61" s="9"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="4"/>
+    </row>
+    <row r="62" spans="1:16" ht="18.75">
+      <c r="A62" s="9"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="4"/>
+    </row>
+    <row r="63" spans="1:16" ht="18.75">
+      <c r="A63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" ht="18.75">
+      <c r="A64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="4"/>
+    </row>
+    <row r="65" spans="1:16" ht="18.75">
+      <c r="A65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="4"/>
+    </row>
+    <row r="66" spans="1:16" ht="18.75">
+      <c r="A66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="4"/>
+    </row>
+    <row r="67" spans="1:16" ht="18.75">
+      <c r="A67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="4"/>
+    </row>
+    <row r="68" spans="1:16" ht="18.75">
+      <c r="A68" s="9"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="4"/>
+    </row>
+    <row r="69" spans="1:16" ht="18.75">
+      <c r="A69" s="9"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="4"/>
+    </row>
+    <row r="70" spans="1:16" ht="18.75">
+      <c r="A70" s="9"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" ht="18.75">
+      <c r="A71" s="9"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="4"/>
+    </row>
+    <row r="72" spans="1:16" ht="18.75">
+      <c r="A72" s="9"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="4"/>
+    </row>
+    <row r="73" spans="1:16" ht="18.75">
+      <c r="A73" s="9"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74" spans="1:16" ht="18.75">
+      <c r="A74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="4"/>
+    </row>
+    <row r="75" spans="1:16" ht="18.75">
+      <c r="A75" s="9"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76" spans="1:16" ht="18.75">
+      <c r="A76" s="9"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="4"/>
+    </row>
+    <row r="77" spans="1:16" ht="18.75">
+      <c r="A77" s="9"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78" spans="1:16" ht="18.75">
+      <c r="A78" s="9"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="4"/>
+    </row>
+    <row r="79" spans="1:16" ht="18.75">
+      <c r="A79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G80:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="42" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H79">
+    <cfRule type="duplicateValues" dxfId="4" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H79">
+    <cfRule type="duplicateValues" dxfId="3" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H79">
+    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374BD29D-0065-4244-8393-AE7167574F42}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:16" s="18" customFormat="1" ht="18.75">
+      <c r="A1" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>IF(A1&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J1" s="17" t="str">
+        <f>VLOOKUP(L1,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <f>IF(A1&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N1" s="4">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <f>C1&amp;"--"&amp;E1</f>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="P1" s="4">
+        <f>IF(OR(C1="常福园区",C1="欣程园区",E1="常福园区",E1="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -19484,8 +22251,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -19653,8 +22420,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:CW147"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -27549,56 +30316,56 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G30 G148:G1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H54">
-    <cfRule type="duplicateValues" dxfId="49" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H77">
-    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="duplicateValues" dxfId="45" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:I94">
-    <cfRule type="duplicateValues" dxfId="44" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:I94">
-    <cfRule type="duplicateValues" dxfId="42" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H124">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="37" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27606,7 +30373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CY36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -29391,15 +32158,15 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="135" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CY45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -31344,11 +34111,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="133" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="131" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31356,7 +34123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CZ22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -32557,12 +35324,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="130" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="128" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32570,7 +35337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CY31"/>
   <sheetViews>
     <sheetView topLeftCell="E19" workbookViewId="0">
@@ -34385,23 +37152,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="126" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="125" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="123" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="121" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="119" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34409,7 +37176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CY49"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -36287,23 +39054,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="117" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="116" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="114" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="112" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="110" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36311,7 +39078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CY42"/>
   <sheetViews>
     <sheetView topLeftCell="F10" workbookViewId="0">
@@ -37979,23 +40746,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="107" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="105" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="103" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="101" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38003,7 +40770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:CY168"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -41870,37 +44637,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="99" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="98" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="96" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="94" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="91" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="89" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="87" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41908,7 +44675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:CY147"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -45296,54 +48063,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="84" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="83" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="81" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="79" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="78" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="76" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="74" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="72" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="70" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="66" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="64" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3E0FA5CF-860C-4163-9230-B56D77E70D08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6561BAAD-7A85-4FED-B759-F045247D6874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$I$1:$I$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'4-10'!$A$1:$P$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'4-11'!$A$1:$P$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'4-12'!$A$1:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'4-12'!$A$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
@@ -47,13 +47,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="821">
   <si>
     <t>发车时间</t>
   </si>
@@ -2895,6 +2895,108 @@
   </si>
   <si>
     <t>17081</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17563</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17566</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018159</t>
+  </si>
+  <si>
+    <t>WW0018160</t>
+  </si>
+  <si>
+    <t>WW0016908</t>
+  </si>
+  <si>
+    <t>WW0016909</t>
+  </si>
+  <si>
+    <t>WW0017076</t>
+  </si>
+  <si>
+    <t>WW0018224</t>
+  </si>
+  <si>
+    <t>WW0019751</t>
+  </si>
+  <si>
+    <t>WW0019752</t>
+  </si>
+  <si>
+    <t>WW0019650</t>
+  </si>
+  <si>
+    <t>WW0017951</t>
+  </si>
+  <si>
+    <t>WW0017765</t>
+  </si>
+  <si>
+    <t>WW0017766</t>
+  </si>
+  <si>
+    <t>WW0017767</t>
+  </si>
+  <si>
+    <t>WW0016911</t>
+  </si>
+  <si>
+    <t>WW0017916</t>
+  </si>
+  <si>
+    <t>WW0017917</t>
+  </si>
+  <si>
+    <t>WW0017914</t>
+  </si>
+  <si>
+    <t>WW0016733</t>
+  </si>
+  <si>
+    <t>WW0017484</t>
+  </si>
+  <si>
+    <t>WW0016913</t>
+  </si>
+  <si>
+    <t>WW0019753</t>
+  </si>
+  <si>
+    <t>WW0017078</t>
+  </si>
+  <si>
+    <t>WW0017080</t>
+  </si>
+  <si>
+    <t>WW0017081</t>
+  </si>
+  <si>
+    <t>WW0017563</t>
+  </si>
+  <si>
+    <t>WW0017566</t>
+  </si>
+  <si>
+    <t>武汉百货B家具建材仓</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18686</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>童红兵</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3251,67 +3353,7 @@
     <cellStyle name="常规 8 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="常规 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="142">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3634,6 +3676,102 @@
             <color rgb="FFFFC000"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -10541,7 +10679,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12771,7 +12909,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="141" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16027,30 +16165,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="67" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="66" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="64" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="60" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="57" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16249,7 +16387,7 @@
         <v>711</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I2:I21" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J2" s="17" t="str">
@@ -16263,18 +16401,18 @@
         <v>712</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>IF(A2&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M2:M21" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N2" s="4">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>C2&amp;"--"&amp;E2</f>
+        <f t="shared" ref="O2:O21" si="2">C2&amp;"--"&amp;E2</f>
         <v>新地园区--常福园区</v>
       </c>
       <c r="P2" s="4">
-        <f>IF(OR(C2="常福园区",C2="欣程园区",E2="常福园区",E2="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P2:P21" si="3">IF(OR(C2="常福园区",C2="欣程园区",E2="常福园区",E2="欣程园区"),1250,165)</f>
         <v>1250</v>
       </c>
     </row>
@@ -16304,7 +16442,7 @@
         <v>683</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f>IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J3" s="17" t="str">
@@ -16318,18 +16456,18 @@
         <v>260</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>IF(A3&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>684</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>C3&amp;"--"&amp;E3</f>
+        <f t="shared" si="2"/>
         <v>新地园区--常福园区</v>
       </c>
       <c r="P3" s="4">
-        <f>IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -16359,7 +16497,7 @@
         <v>685</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J4" s="17" t="str">
@@ -16373,18 +16511,18 @@
         <v>185</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>IF(A4&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N4" s="4">
         <v>14</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f>C4&amp;"--"&amp;E4</f>
+        <f t="shared" si="2"/>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="P4" s="4">
-        <f>IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16414,7 +16552,7 @@
         <v>686</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f>IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J5" s="17" t="str">
@@ -16428,18 +16566,18 @@
         <v>223</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>IF(A5&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N5" s="4">
         <v>14</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f>C5&amp;"--"&amp;E5</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P5" s="4">
-        <f>IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16469,7 +16607,7 @@
         <v>687</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J6" s="17" t="str">
@@ -16483,18 +16621,18 @@
         <v>282</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f>IF(A6&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N6" s="4">
         <v>14</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f>C6&amp;"--"&amp;E6</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P6" s="4">
-        <f>IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16524,7 +16662,7 @@
         <v>688</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J7" s="17" t="str">
@@ -16538,18 +16676,18 @@
         <v>282</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f>IF(A7&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N7" s="4">
         <v>14</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f>C7&amp;"--"&amp;E7</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P7" s="4">
-        <f>IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16579,7 +16717,7 @@
         <v>689</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J8" s="17" t="str">
@@ -16593,18 +16731,18 @@
         <v>158</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>IF(A8&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N8" s="4">
         <v>14</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f>C8&amp;"--"&amp;E8</f>
+        <f t="shared" si="2"/>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="P8" s="4">
-        <f>IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16634,7 +16772,7 @@
         <v>690</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J9" s="17" t="str">
@@ -16648,18 +16786,18 @@
         <v>168</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>IF(A9&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N9" s="4">
         <v>14</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f>C9&amp;"--"&amp;E9</f>
+        <f t="shared" si="2"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P9" s="4">
-        <f>IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16689,7 +16827,7 @@
         <v>691</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J10" s="17" t="str">
@@ -16703,18 +16841,18 @@
         <v>168</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>IF(A10&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N10" s="4">
         <v>14</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f>C10&amp;"--"&amp;E10</f>
+        <f t="shared" si="2"/>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="P10" s="4">
-        <f>IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16744,7 +16882,7 @@
         <v>692</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f>IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J11" s="17" t="str">
@@ -16758,18 +16896,18 @@
         <v>181</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>IF(A11&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N11" s="4">
         <v>14</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f>C11&amp;"--"&amp;E11</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P11" s="4">
-        <f>IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16799,7 +16937,7 @@
         <v>693</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f>IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J12" s="17" t="str">
@@ -16813,18 +16951,18 @@
         <v>632</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f>IF(A12&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N12" s="4">
         <v>14</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f>C12&amp;"--"&amp;E12</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P12" s="4">
-        <f>IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16854,7 +16992,7 @@
         <v>695</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f>IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J13" s="17" t="str">
@@ -16868,18 +17006,18 @@
         <v>202</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>IF(A13&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N13" s="4">
         <v>14</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f>C13&amp;"--"&amp;E13</f>
+        <f t="shared" si="2"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P13" s="4">
-        <f>IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16909,7 +17047,7 @@
         <v>696</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f>IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J14" s="17" t="str">
@@ -16923,18 +17061,18 @@
         <v>54</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f>IF(A14&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N14" s="4">
         <v>14</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f>C14&amp;"--"&amp;E14</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P14" s="4">
-        <f>IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -16964,7 +17102,7 @@
         <v>698</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f>IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J15" s="17" t="str">
@@ -16978,18 +17116,18 @@
         <v>202</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f>IF(A15&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N15" s="4">
         <v>14</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f>C15&amp;"--"&amp;E15</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P15" s="4">
-        <f>IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -17019,7 +17157,7 @@
         <v>699</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f>IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J16" s="17" t="str">
@@ -17033,18 +17171,18 @@
         <v>158</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>IF(A16&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N16" s="4">
         <v>14</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f>C16&amp;"--"&amp;E16</f>
+        <f t="shared" si="2"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P16" s="4">
-        <f>IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -17074,7 +17212,7 @@
         <v>700</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f>IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J17" s="17" t="str">
@@ -17088,18 +17226,18 @@
         <v>54</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f>IF(A17&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N17" s="4">
         <v>14</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f>C17&amp;"--"&amp;E17</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P17" s="4">
-        <f>IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -17129,7 +17267,7 @@
         <v>701</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J18" s="17" t="str">
@@ -17143,18 +17281,18 @@
         <v>181</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>IF(A18&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N18" s="4">
         <v>14</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f>C18&amp;"--"&amp;E18</f>
+        <f t="shared" si="2"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P18" s="4">
-        <f>IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -17184,7 +17322,7 @@
         <v>703</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f>IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J19" s="17" t="str">
@@ -17198,18 +17336,18 @@
         <v>54</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f>IF(A19&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N19" s="4">
         <v>12</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f>C19&amp;"--"&amp;E19</f>
+        <f t="shared" si="2"/>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P19" s="4">
-        <f>IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -17239,7 +17377,7 @@
         <v>706</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f>IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J20" s="17" t="str">
@@ -17253,18 +17391,18 @@
         <v>181</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f>IF(A20&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N20" s="4">
         <v>14</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f>C20&amp;"--"&amp;E20</f>
+        <f t="shared" si="2"/>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P20" s="4">
-        <f>IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -17294,7 +17432,7 @@
         <v>709</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f>IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J21" s="17" t="str">
@@ -17308,18 +17446,18 @@
         <v>202</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f>IF(A21&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="N21" s="4">
         <v>14</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f>C21&amp;"--"&amp;E21</f>
+        <f t="shared" si="2"/>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P21" s="4">
-        <f>IF(OR(C21="常福园区",C21="欣程园区",E21="常福园区",E21="欣程园区"),1250,165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
@@ -17349,7 +17487,7 @@
         <v>708</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" ref="I22" si="0">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I22" si="4">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J22" s="17" t="str">
@@ -17363,18 +17501,18 @@
         <v>261</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" ref="M22" si="1">IF(A22&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M22" si="5">IF(A22&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N22" s="4">
         <v>14</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" ref="O22" si="2">C22&amp;"--"&amp;E22</f>
+        <f t="shared" ref="O22" si="6">C22&amp;"--"&amp;E22</f>
         <v>万纬园区--新地园区</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22" si="3">IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P22" si="7">IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17404,7 +17542,7 @@
         <v>705</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" ref="I23" si="4">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I23" si="8">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J23" s="17" t="str">
@@ -17418,18 +17556,18 @@
         <v>261</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" ref="M23" si="5">IF(A23&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M23" si="9">IF(A23&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N23" s="4">
         <v>14</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" ref="O23" si="6">C23&amp;"--"&amp;E23</f>
+        <f t="shared" ref="O23" si="10">C23&amp;"--"&amp;E23</f>
         <v>万纬园区--新地园区</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" ref="P23" si="7">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P23" si="11">IF(OR(C23="常福园区",C23="欣程园区",E23="常福园区",E23="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17514,7 +17652,7 @@
         <v>715</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" ref="I25" si="8">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I25" si="12">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J25" s="17" t="str">
@@ -17528,18 +17666,18 @@
         <v>185</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f t="shared" ref="M25" si="9">IF(A25&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M25" si="13">IF(A25&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N25" s="4">
         <v>14</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" ref="O25" si="10">C25&amp;"--"&amp;E25</f>
+        <f t="shared" ref="O25" si="14">C25&amp;"--"&amp;E25</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" ref="P25" si="11">IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P25" si="15">IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17569,7 +17707,7 @@
         <v>716</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" ref="I26" si="12">IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I26" si="16">IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J26" s="17" t="str">
@@ -17583,18 +17721,18 @@
         <v>185</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" ref="M26" si="13">IF(A26&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M26" si="17">IF(A26&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N26" s="4">
         <v>14</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" ref="O26" si="14">C26&amp;"--"&amp;E26</f>
+        <f t="shared" ref="O26" si="18">C26&amp;"--"&amp;E26</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" ref="P26" si="15">IF(OR(C26="常福园区",C26="欣程园区",E26="常福园区",E26="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P26" si="19">IF(OR(C26="常福园区",C26="欣程园区",E26="常福园区",E26="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17624,7 +17762,7 @@
         <v>718</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" ref="I27:I30" si="16">IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I27:I30" si="20">IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J27" s="17" t="str">
@@ -17638,18 +17776,18 @@
         <v>185</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" ref="M27:M30" si="17">IF(A27&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M27:M30" si="21">IF(A27&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N27" s="4">
         <v>14</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" ref="O27:O30" si="18">C27&amp;"--"&amp;E27</f>
+        <f t="shared" ref="O27:O30" si="22">C27&amp;"--"&amp;E27</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:P30" si="19">IF(OR(C27="常福园区",C27="欣程园区",E27="常福园区",E27="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P27:P30" si="23">IF(OR(C27="常福园区",C27="欣程园区",E27="常福园区",E27="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17679,7 +17817,7 @@
         <v>719</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J28" s="17" t="str">
@@ -17693,18 +17831,18 @@
         <v>181</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.6米</v>
       </c>
       <c r="N28" s="4">
         <v>14</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>165</v>
       </c>
     </row>
@@ -17734,7 +17872,7 @@
         <v>720</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J29" s="17" t="str">
@@ -17748,18 +17886,18 @@
         <v>54</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.6米</v>
       </c>
       <c r="N29" s="4">
         <v>14</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>165</v>
       </c>
     </row>
@@ -17789,7 +17927,7 @@
         <v>721</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J30" s="17" t="str">
@@ -17803,18 +17941,18 @@
         <v>54</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.6米</v>
       </c>
       <c r="N30" s="4">
         <v>14</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>165</v>
       </c>
     </row>
@@ -17844,7 +17982,7 @@
         <v>722</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" ref="I31" si="20">IF(A31&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I31" si="24">IF(A31&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J31" s="17" t="str">
@@ -17858,18 +17996,18 @@
         <v>158</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f t="shared" ref="M31" si="21">IF(A31&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M31" si="25">IF(A31&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N31" s="4">
         <v>14</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f t="shared" ref="O31" si="22">C31&amp;"--"&amp;E31</f>
+        <f t="shared" ref="O31" si="26">C31&amp;"--"&amp;E31</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" ref="P31" si="23">IF(OR(C31="常福园区",C31="欣程园区",E31="常福园区",E31="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P31" si="27">IF(OR(C31="常福园区",C31="欣程园区",E31="常福园区",E31="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17899,7 +18037,7 @@
         <v>725</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" ref="I32:I33" si="24">IF(A32&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I32:I33" si="28">IF(A32&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J32" s="17" t="str">
@@ -17913,18 +18051,18 @@
         <v>270</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f t="shared" ref="M32:M33" si="25">IF(A32&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M32:M33" si="29">IF(A32&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N32" s="4">
         <v>14</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f t="shared" ref="O32:O33" si="26">C32&amp;"--"&amp;E32</f>
+        <f t="shared" ref="O32:O33" si="30">C32&amp;"--"&amp;E32</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32:P33" si="27">IF(OR(C32="常福园区",C32="欣程园区",E32="常福园区",E32="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P32:P33" si="31">IF(OR(C32="常福园区",C32="欣程园区",E32="常福园区",E32="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -17954,7 +18092,7 @@
         <v>726</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J33" s="17" t="str">
@@ -17968,18 +18106,18 @@
         <v>270</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.6米</v>
       </c>
       <c r="N33" s="4">
         <v>14</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>165</v>
       </c>
     </row>
@@ -18009,7 +18147,7 @@
         <v>727</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" ref="I34" si="28">IF(A34&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I34" si="32">IF(A34&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J34" s="17" t="str">
@@ -18023,18 +18161,18 @@
         <v>267</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" ref="M34" si="29">IF(A34&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M34" si="33">IF(A34&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N34" s="4">
         <v>14</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" ref="O34" si="30">C34&amp;"--"&amp;E34</f>
+        <f t="shared" ref="O34" si="34">C34&amp;"--"&amp;E34</f>
         <v>新地园区--新地园区</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" ref="P34" si="31">IF(OR(C34="常福园区",C34="欣程园区",E34="常福园区",E34="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P34" si="35">IF(OR(C34="常福园区",C34="欣程园区",E34="常福园区",E34="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -19445,30 +19583,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="55" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="48" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="47" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="45" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="120"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19479,8 +19617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0AA506-9764-4795-A8D3-B85187EA355D}">
   <dimension ref="A1:CY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19494,8 +19632,8 @@
     <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="16" customWidth="1"/>
     <col min="12" max="12" width="8.875" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.875" style="18" customWidth="1"/>
     <col min="14" max="14" width="8.75" style="18" bestFit="1" customWidth="1"/>
@@ -19660,10 +19798,12 @@
       <c r="F2" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -19672,7 +19812,9 @@
         <f>VLOOKUP(L2,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>39</v>
       </c>
@@ -19711,10 +19853,12 @@
       <c r="F3" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="H3" s="5"/>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -19723,7 +19867,9 @@
         <f>VLOOKUP(L3,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>39</v>
       </c>
@@ -19762,10 +19908,12 @@
       <c r="F4" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="2" t="str">
         <f t="shared" ref="I4" si="8">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -19774,7 +19922,9 @@
         <f>VLOOKUP(L4,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L4" s="4" t="s">
         <v>54</v>
       </c>
@@ -19813,10 +19963,12 @@
       <c r="F5" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="H5" s="5"/>
       <c r="I5" s="2" t="str">
         <f t="shared" ref="I5" si="12">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -19825,7 +19977,9 @@
         <f>VLOOKUP(L5,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L5" s="4" t="s">
         <v>54</v>
       </c>
@@ -19864,10 +20018,12 @@
       <c r="F6" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="2" t="str">
         <f t="shared" ref="I6" si="16">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -19876,7 +20032,9 @@
         <f>VLOOKUP(L6,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
@@ -19915,10 +20073,12 @@
       <c r="F7" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="2" t="str">
         <f t="shared" ref="I7" si="20">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -19927,7 +20087,9 @@
         <f>VLOOKUP(L7,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L7" s="4" t="s">
         <v>282</v>
       </c>
@@ -19966,10 +20128,12 @@
       <c r="F8" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="2" t="str">
         <f t="shared" ref="I8" si="24">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -19978,7 +20142,9 @@
         <f>VLOOKUP(L8,ch!$A$1:$B$33,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L8" s="4" t="s">
         <v>27</v>
       </c>
@@ -20017,10 +20183,12 @@
       <c r="F9" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="H9" s="5"/>
       <c r="I9" s="2" t="str">
         <f t="shared" ref="I9" si="28">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -20029,7 +20197,9 @@
         <f>VLOOKUP(L9,ch!$A$1:$B$33,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L9" s="4" t="s">
         <v>27</v>
       </c>
@@ -20068,10 +20238,12 @@
       <c r="F10" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="I10" s="2" t="str">
         <f t="shared" ref="I10" si="32">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -20080,7 +20252,9 @@
         <f>VLOOKUP(L10,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L10" s="4" t="s">
         <v>35</v>
       </c>
@@ -20119,10 +20293,12 @@
       <c r="F11" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="H11" s="5"/>
       <c r="I11" s="2" t="str">
         <f t="shared" ref="I11" si="36">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -20131,7 +20307,9 @@
         <f>VLOOKUP(L11,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L11" s="4" t="s">
         <v>282</v>
       </c>
@@ -20170,10 +20348,12 @@
       <c r="F12" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="H12" s="5"/>
       <c r="I12" s="2" t="str">
         <f t="shared" ref="I12" si="40">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -20182,7 +20362,9 @@
         <f>VLOOKUP(L12,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR876</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="L12" s="4" t="s">
         <v>181</v>
       </c>
@@ -20221,10 +20403,12 @@
       <c r="F13" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="H13" s="5"/>
       <c r="I13" s="2" t="str">
         <f t="shared" ref="I13" si="44">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -20233,7 +20417,9 @@
         <f>VLOOKUP(L13,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR876</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="L13" s="4" t="s">
         <v>181</v>
       </c>
@@ -20272,35 +20458,39 @@
       <c r="F14" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="H14" s="5"/>
       <c r="I14" s="2" t="str">
-        <f t="shared" ref="I14:I24" si="48">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I14:I21" si="48">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J14" s="17" t="str">
         <f>VLOOKUP(L14,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR876</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="L14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" ref="M14:M24" si="49">IF(A14&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M14:M21" si="49">IF(A14&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N14" s="4">
         <v>14</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" ref="O14:O24" si="50">C14&amp;"--"&amp;E14</f>
+        <f t="shared" ref="O14:O21" si="50">C14&amp;"--"&amp;E14</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" ref="P14:P24" si="51">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P14:P21" si="51">IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -20323,10 +20513,12 @@
       <c r="F15" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="H15" s="5"/>
       <c r="I15" s="2" t="str">
         <f t="shared" si="48"/>
         <v>武汉威伟机械</v>
@@ -20335,7 +20527,9 @@
         <f>VLOOKUP(L15,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L15" s="4" t="s">
         <v>54</v>
       </c>
@@ -20374,10 +20568,12 @@
       <c r="F16" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="H16" s="5"/>
       <c r="I16" s="2" t="str">
         <f t="shared" si="48"/>
         <v>武汉威伟机械</v>
@@ -20386,7 +20582,9 @@
         <f>VLOOKUP(L16,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AHB101</v>
       </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L16" s="4" t="s">
         <v>51</v>
       </c>
@@ -20425,10 +20623,12 @@
       <c r="F17" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="H17" s="5"/>
       <c r="I17" s="2" t="str">
         <f t="shared" si="48"/>
         <v>武汉威伟机械</v>
@@ -20437,7 +20637,9 @@
         <f>VLOOKUP(L17,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AHB101</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L17" s="4" t="s">
         <v>51</v>
       </c>
@@ -20462,35 +20664,39 @@
         <v>43202</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="G18" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="48"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J18" s="17" t="str">
         <f>VLOOKUP(L18,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
-      <c r="K18" s="17"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M18" s="2" t="str">
         <f t="shared" si="49"/>
@@ -20501,11 +20707,11 @@
       </c>
       <c r="O18" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>新地园区--常福园区</v>
+        <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="51"/>
-        <v>1250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75">
@@ -20513,50 +20719,54 @@
         <v>43202</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>784</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="48"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J19" s="17" t="str">
         <f>VLOOKUP(L19,ch!$A$1:$B$33,2,0)</f>
-        <v>粤BES791</v>
-      </c>
-      <c r="K19" s="17"/>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L19" s="4" t="s">
-        <v>632</v>
+        <v>27</v>
       </c>
       <c r="M19" s="2" t="str">
         <f t="shared" si="49"/>
         <v>9.6米</v>
       </c>
       <c r="N19" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O19" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>新地园区--常福园区</v>
+        <v>万纬园区--新地园区</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="51"/>
-        <v>1250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18.75">
@@ -20564,50 +20774,54 @@
         <v>43202</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>581</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>786</v>
+      </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="48"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J20" s="17" t="str">
         <f>VLOOKUP(L20,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ALU151</v>
-      </c>
-      <c r="K20" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M20" s="2" t="str">
         <f t="shared" si="49"/>
         <v>9.6米</v>
       </c>
       <c r="N20" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O20" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>新地园区--常福园区</v>
+        <v>丰树园区--新地园区</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="51"/>
-        <v>1250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75">
@@ -20615,35 +20829,39 @@
         <v>43202</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>783</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>436</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>787</v>
+      </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="48"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J21" s="17" t="str">
         <f>VLOOKUP(L21,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="K21" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L21" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M21" s="2" t="str">
         <f t="shared" si="49"/>
@@ -20654,7 +20872,7 @@
       </c>
       <c r="O21" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>亚洲一号园区--新地园区</v>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="51"/>
@@ -20666,49 +20884,53 @@
         <v>43202</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>560</v>
+        <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>436</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>788</v>
+      </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="I22:I24" si="52">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J22" s="17" t="str">
         <f>VLOOKUP(L22,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="K22" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="M22:M24" si="53">IF(A22&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N22" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="50"/>
-        <v>万纬园区--新地园区</v>
+        <f t="shared" ref="O22:O24" si="54">C22&amp;"--"&amp;E22</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="P22:P24" si="55">IF(OR(C22="常福园区",C22="欣程园区",E22="常福园区",E22="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -20717,49 +20939,53 @@
         <v>43202</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>581</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>436</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J23" s="17" t="str">
         <f>VLOOKUP(L23,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="K23" s="17"/>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="L23" s="4" t="s">
-        <v>35</v>
+        <v>790</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9.6米</v>
       </c>
       <c r="N23" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="50"/>
-        <v>丰树园区--新地园区</v>
+        <f t="shared" si="54"/>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>165</v>
       </c>
     </row>
@@ -20768,49 +20994,48 @@
         <v>43202</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>436</v>
+        <v>818</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="J24" s="17" t="str">
-        <f>VLOOKUP(L24,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="K24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>35</v>
+        <v>820</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9.6米</v>
       </c>
       <c r="N24" s="4">
         <v>14</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="50"/>
-        <v>新地园区--新地园区</v>
+        <f t="shared" si="54"/>
+        <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>165</v>
       </c>
     </row>
@@ -20819,7 +21044,7 @@
         <v>43202</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>55</v>
@@ -20828,96 +21053,211 @@
         <v>46</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="H25" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>779</v>
+      </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" ref="I25" si="52">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <f>IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J25" s="17" t="str">
         <f>VLOOKUP(L25,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="K25" s="17"/>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L25" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f t="shared" ref="M25" si="53">IF(A25&lt;&gt;"","9.6米","---")</f>
+        <f>IF(A25&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N25" s="4">
         <v>14</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" ref="O25" si="54">C25&amp;"--"&amp;E25</f>
-        <v>新地园区--新地园区</v>
+        <f>C25&amp;"--"&amp;E25</f>
+        <v>新地园区--常福园区</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" ref="P25" si="55">IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
-        <v>165</v>
+        <f>IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.75">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="4"/>
+      <c r="A26" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J26" s="17" t="str">
+        <f>VLOOKUP(L26,ch!$A$1:$B$33,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f>IF(A26&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N26" s="4">
+        <v>14</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f>C26&amp;"--"&amp;E26</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P26" s="4">
+        <f>IF(OR(C26="常福园区",C26="欣程园区",E26="常福园区",E26="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="18.75">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="4"/>
+      <c r="A27" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J27" s="17" t="str">
+        <f>VLOOKUP(L27,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f>IF(A27&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N27" s="4">
+        <v>14</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f>C27&amp;"--"&amp;E27</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P27" s="4">
+        <f>IF(OR(C27="常福园区",C27="欣程园区",E27="常福园区",E27="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="18.75">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="4"/>
+      <c r="A28" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J28" s="17" t="str">
+        <f>VLOOKUP(L28,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f>IF(A28&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N28" s="4">
+        <v>16</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f>C28&amp;"--"&amp;E28</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P28" s="4">
+        <f>IF(OR(C28="常福园区",C28="欣程园区",E28="常福园区",E28="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="18.75">
       <c r="A29" s="9"/>
@@ -21840,31 +22180,36 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="42" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="4" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="3" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H23 H25:H28">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21939,19 +22284,19 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21962,8 +22307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30316,56 +30661,56 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G30 G148:G1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H54">
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H77">
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:I94">
-    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:I94">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H124">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32158,8 +32503,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="140" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34111,11 +34456,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="138" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="136" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35324,12 +35669,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="135" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="133" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37152,23 +37497,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="131" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="130" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="128" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="126" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="124" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39054,23 +39399,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="122" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="121" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="119" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="117" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="115" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40746,23 +41091,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="113" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="112" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="108" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="106" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44637,37 +44982,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="104" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="103" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="101" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="99" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="98" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="96" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="94" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="92" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="90" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48063,54 +48408,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="89" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="88" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="86" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="84" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="83" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="82" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="81" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="79" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="77" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="75" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="71" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6561BAAD-7A85-4FED-B759-F045247D6874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5F483444-5FE7-44EC-BA44-2D23E49508FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,13 +47,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="823">
   <si>
     <t>发车时间</t>
   </si>
@@ -2997,6 +2997,14 @@
   </si>
   <si>
     <t>童红兵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18687</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AFE237</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -10679,7 +10687,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -19617,8 +19625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0AA506-9764-4795-A8D3-B85187EA355D}">
   <dimension ref="A1:CY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21260,22 +21268,54 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="18.75">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2" t="str">
+        <f>IF(A29&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
       <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="4"/>
+      <c r="K29" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f>IF(A29&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N29" s="4">
+        <v>14</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f>C29&amp;"--"&amp;E29</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P29" s="4">
+        <f>IF(OR(C29="常福园区",C29="欣程园区",E29="常福园区",E29="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="18.75">
       <c r="A30" s="9"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5F483444-5FE7-44EC-BA44-2D23E49508FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{76EC6A8A-ECE5-4254-B4F6-F6AA0732C3D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,21 @@
     <sheet name="4-10" sheetId="12" r:id="rId10"/>
     <sheet name="4-11" sheetId="15" r:id="rId11"/>
     <sheet name="4-12" sheetId="16" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId13"/>
-    <sheet name="ch" sheetId="3" r:id="rId14"/>
-    <sheet name="分析图" sheetId="13" r:id="rId15"/>
-    <sheet name="汇总明细" sheetId="9" r:id="rId16"/>
+    <sheet name="4-13" sheetId="18" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId14"/>
+    <sheet name="ch" sheetId="3" r:id="rId15"/>
+    <sheet name="分析图" sheetId="13" r:id="rId16"/>
+    <sheet name="汇总明细" sheetId="9" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$I$1:$I$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'4-10'!$A$1:$P$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'4-11'!$A$1:$P$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'4-12'!$A$1:$P$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'4-13'!$A$1:$P$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
@@ -47,13 +49,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="847">
   <si>
     <t>发车时间</t>
   </si>
@@ -3005,6 +3007,101 @@
   </si>
   <si>
     <t>鄂AFE237</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16914</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18176</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18177</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17924</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉百货B家居日用仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17921</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18071</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17963</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17920</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19758</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19759</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17962</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC(B-13）</t>
+  </si>
+  <si>
+    <t>TC(B-13）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19760</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC(B-12）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18078</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18688</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17085</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李枫</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17084</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17572</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16735</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17768</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3361,7 +3458,7 @@
     <cellStyle name="常规 8 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="常规 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="145">
+  <dxfs count="158">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3684,6 +3781,162 @@
             <color rgb="FFFFC000"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -12917,7 +13170,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="144" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16173,30 +16426,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="70" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="69" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="67" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="62" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="60" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19591,30 +19844,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="58" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="53" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="51" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="50" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="48" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="120"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19625,8 +19878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0AA506-9764-4795-A8D3-B85187EA355D}">
   <dimension ref="A1:CY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="B23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22220,36 +22473,36 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="45" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="38" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="37" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="35" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23 H25:H28">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22257,6 +22510,1752 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC772431-D134-43F1-951B-8784ECFDF9C8}">
+  <dimension ref="A1:CY52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:103" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+    </row>
+    <row r="2" spans="1:103" ht="18.75">
+      <c r="A2" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2" t="str">
+        <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J2" s="17" t="str">
+        <f>VLOOKUP(L2,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IF(A2&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N2" s="4">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>C2&amp;"--"&amp;E2</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P2" s="4">
+        <f>IF(OR(C2="常福园区",C2="欣程园区",E2="常福园区",E2="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" ht="18.75">
+      <c r="A3" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2" t="str">
+        <f>IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J3" s="17" t="str">
+        <f>VLOOKUP(L3,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IF(A3&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N3" s="4">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>C3&amp;"--"&amp;E3</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P3" s="4">
+        <f>IF(OR(C3="常福园区",C3="欣程园区",E3="常福园区",E3="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" ht="18.75">
+      <c r="A4" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2" t="str">
+        <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J4" s="17" t="str">
+        <f>VLOOKUP(L4,ch!$A$1:$B$33,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IF(A4&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N4" s="4">
+        <v>16</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>C4&amp;"--"&amp;E4</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P4" s="4">
+        <f>IF(OR(C4="常福园区",C4="欣程园区",E4="常福园区",E4="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" ht="18.75">
+      <c r="A5" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2" t="str">
+        <f>IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J5" s="17" t="str">
+        <f>VLOOKUP(L5,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IF(A5&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N5" s="4">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>C5&amp;"--"&amp;E5</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P5" s="4">
+        <f>IF(OR(C5="常福园区",C5="欣程园区",E5="常福园区",E5="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" ht="18.75">
+      <c r="A6" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2" t="str">
+        <f>IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J6" s="17" t="str">
+        <f>VLOOKUP(L6,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IF(A6&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N6" s="4">
+        <v>14</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>C6&amp;"--"&amp;E6</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P6" s="4">
+        <f>IF(OR(C6="常福园区",C6="欣程园区",E6="常福园区",E6="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" ht="18.75">
+      <c r="A7" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2" t="str">
+        <f>IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J7" s="17" t="str">
+        <f>VLOOKUP(L7,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IF(A7&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N7" s="4">
+        <v>16</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>C7&amp;"--"&amp;E7</f>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P7" s="4">
+        <f>IF(OR(C7="常福园区",C7="欣程园区",E7="常福园区",E7="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" ht="18.75">
+      <c r="A8" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2" t="str">
+        <f>IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J8" s="17" t="str">
+        <f>VLOOKUP(L8,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IF(A8&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>C8&amp;"--"&amp;E8</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P8" s="4">
+        <f>IF(OR(C8="常福园区",C8="欣程园区",E8="常福园区",E8="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" ht="18.75">
+      <c r="A9" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2" t="str">
+        <f>IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J9" s="17" t="str">
+        <f>VLOOKUP(L9,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IF(A9&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N9" s="4">
+        <v>14</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>C9&amp;"--"&amp;E9</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P9" s="4">
+        <f>IF(OR(C9="常福园区",C9="欣程园区",E9="常福园区",E9="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" ht="18.75">
+      <c r="A10" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2" t="str">
+        <f>IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J10" s="17" t="str">
+        <f>VLOOKUP(L10,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IF(A10&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N10" s="4">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>C10&amp;"--"&amp;E10</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P10" s="4">
+        <f>IF(OR(C10="常福园区",C10="欣程园区",E10="常福园区",E10="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" ht="18.75">
+      <c r="A11" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2" t="str">
+        <f>IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J11" s="17" t="str">
+        <f>VLOOKUP(L11,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IF(A11&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N11" s="4">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>C11&amp;"--"&amp;E11</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="P11" s="4">
+        <f>IF(OR(C11="常福园区",C11="欣程园区",E11="常福园区",E11="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" ht="18.75">
+      <c r="A12" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2" t="str">
+        <f>IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J12" s="17" t="str">
+        <f>VLOOKUP(L12,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IF(A12&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N12" s="4">
+        <v>14</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>C12&amp;"--"&amp;E12</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P12" s="4">
+        <f>IF(OR(C12="常福园区",C12="欣程园区",E12="常福园区",E12="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" ht="18.75">
+      <c r="A13" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2" t="str">
+        <f>IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J13" s="17" t="str">
+        <f>VLOOKUP(L13,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>IF(A13&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N13" s="4">
+        <v>14</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>C13&amp;"--"&amp;E13</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P13" s="4">
+        <f>IF(OR(C13="常福园区",C13="欣程园区",E13="常福园区",E13="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" ht="18.75">
+      <c r="A14" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2" t="str">
+        <f>IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J14" s="17" t="str">
+        <f>VLOOKUP(L14,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f>IF(A14&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N14" s="4">
+        <v>14</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>C14&amp;"--"&amp;E14</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P14" s="4">
+        <f>IF(OR(C14="常福园区",C14="欣程园区",E14="常福园区",E14="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" ht="18.75">
+      <c r="A15" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2" t="str">
+        <f>IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J15" s="17" t="str">
+        <f>VLOOKUP(L15,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f>IF(A15&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N15" s="4">
+        <v>11</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f>C15&amp;"--"&amp;E15</f>
+        <v>万纬园区--新地园区</v>
+      </c>
+      <c r="P15" s="4">
+        <f>IF(OR(C15="常福园区",C15="欣程园区",E15="常福园区",E15="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103" ht="18.75">
+      <c r="A16" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2" t="str">
+        <f>IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J16" s="17" t="str">
+        <f>VLOOKUP(L16,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f>IF(A16&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N16" s="4">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>C16&amp;"--"&amp;E16</f>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="P16" s="4">
+        <f>IF(OR(C16="常福园区",C16="欣程园区",E16="常福园区",E16="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75">
+      <c r="A17" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2" t="str">
+        <f>IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J17" s="17" t="str">
+        <f>VLOOKUP(L17,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f>IF(A17&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N17" s="4">
+        <v>14</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f>C17&amp;"--"&amp;E17</f>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="P17" s="4">
+        <f>IF(OR(C17="常福园区",C17="欣程园区",E17="常福园区",E17="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75">
+      <c r="A18" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2" t="str">
+        <f>IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J18" s="17" t="str">
+        <f>VLOOKUP(L18,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f>IF(A18&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N18" s="4">
+        <v>14</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f>C18&amp;"--"&amp;E18</f>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="P18" s="4">
+        <f>IF(OR(C18="常福园区",C18="欣程园区",E18="常福园区",E18="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75">
+      <c r="A19" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2" t="str">
+        <f>IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J19" s="17" t="str">
+        <f>VLOOKUP(L19,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f>IF(A19&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N19" s="4">
+        <v>13</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f>C19&amp;"--"&amp;E19</f>
+        <v>丰树园区--新地园区</v>
+      </c>
+      <c r="P19" s="4">
+        <f>IF(OR(C19="常福园区",C19="欣程园区",E19="常福园区",E19="欣程园区"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75">
+      <c r="A20" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="2" t="str">
+        <f>IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J20" s="17" t="str">
+        <f>VLOOKUP(L20,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f>IF(A20&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N20" s="4">
+        <v>14</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f>C20&amp;"--"&amp;E20</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P20" s="4">
+        <f>IF(OR(C20="常福园区",C20="欣程园区",E20="常福园区",E20="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75">
+      <c r="A21" s="9">
+        <v>43203</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="18.75">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" ht="18.75">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.75">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" ht="18.75">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" ht="18.75">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="18.75">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="18.75">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" ht="18.75">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="18.75">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="18.75">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="18.75">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="18.75">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" ht="18.75">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" ht="18.75">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" ht="18.75">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" ht="18.75">
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" ht="18.75">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" ht="18.75">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" ht="18.75">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" ht="18.75">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" ht="18.75">
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" ht="18.75">
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" ht="18.75">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" ht="18.75">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" ht="18.75">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.75">
+      <c r="A49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50" spans="1:16" ht="18.75">
+      <c r="A50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="1:16" ht="18.75">
+      <c r="A51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="1:16" ht="18.75">
+      <c r="A52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G53:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:H1048576 G1:H1">
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G20 G22:G1048576">
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H20 G22:H52 H21">
+    <cfRule type="duplicateValues" dxfId="35" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H20 G22:H52 H21">
+    <cfRule type="duplicateValues" dxfId="34" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H20 G22:H52 H21">
+    <cfRule type="duplicateValues" dxfId="32" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="161"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374BD29D-0065-4244-8393-AE7167574F42}">
   <dimension ref="A1:P1"/>
   <sheetViews>
@@ -22343,7 +24342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -22636,7 +24635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A3:H9"/>
   <sheetViews>
@@ -22805,7 +24804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:CW147"/>
   <sheetViews>
@@ -32543,8 +34542,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="143" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34496,11 +36495,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="141" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="139" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35709,12 +37708,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="138" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="136" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37537,23 +39536,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="134" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="133" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="131" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="129" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="127" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39439,23 +41438,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="125" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="124" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="122" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="120" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="118" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41131,23 +43130,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="116" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="115" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="113" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="111" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="109" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45022,37 +47021,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="107" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="106" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="104" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="102" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="101" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="99" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="97" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="95" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48448,54 +50447,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="92" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="91" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="89" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="87" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="86" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="85" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="84" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="82" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="80" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="78" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="72" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -36,6 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'4-11'!$A$1:$P$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'4-12'!$A$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'4-13'!$A$1:$P$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'4-14'!$A$1:$P$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
@@ -46,13 +47,13 @@
   <calcPr calcId="125725"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId21"/>
-    <pivotCache cacheId="4" r:id="rId22"/>
+    <pivotCache cacheId="1" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="922">
   <si>
     <t>发车时间</t>
   </si>
@@ -3166,75 +3167,23 @@
     <t>TC库房(B-13)</t>
   </si>
   <si>
-    <t>17971</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC库房(B-14)</t>
   </si>
   <si>
-    <t>17972</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC库房（B-16)</t>
   </si>
   <si>
-    <t>18691</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18690</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17771</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC库房(B-15)</t>
-  </si>
-  <si>
-    <t>17772</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17091</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17092</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17093</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18184</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>孙明宏</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>19764</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>洪家国</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>19765</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17229</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>吕文杰</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3246,18 +3195,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17228</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17226</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16919</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>代永华</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3266,49 +3203,25 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>18692</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>童红兵</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17913</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欧文艺</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>16920</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉亚一百货B家居日用仓1号库</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>16921</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC库房(B-12）</t>
-  </si>
-  <si>
-    <t>19769</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC库房</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17774</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>周华安</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3317,32 +3230,139 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>16925</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17575</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18082</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18895</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>19995</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16186</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>丁鹏</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨柳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝利超</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘伟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一3CB电脑办公仓</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-16）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合仓</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017971</t>
+  </si>
+  <si>
+    <t>WW0017972</t>
+  </si>
+  <si>
+    <t>WW0018691</t>
+  </si>
+  <si>
+    <t>WW0018690</t>
+  </si>
+  <si>
+    <t>WW0017771</t>
+  </si>
+  <si>
+    <t>WW0017772</t>
+  </si>
+  <si>
+    <t>WW0017091</t>
+  </si>
+  <si>
+    <t>WW0017092</t>
+  </si>
+  <si>
+    <t>WW0017093</t>
+  </si>
+  <si>
+    <t>WW0018184</t>
+  </si>
+  <si>
+    <t>WW0019764</t>
+  </si>
+  <si>
+    <t>WW0019765</t>
+  </si>
+  <si>
+    <t>WW0017229</t>
+  </si>
+  <si>
+    <t>WW0017228</t>
+  </si>
+  <si>
+    <t>WW0017226</t>
+  </si>
+  <si>
+    <t>WW0016919</t>
+  </si>
+  <si>
+    <t>WW0016922</t>
+  </si>
+  <si>
+    <t>WW0018692</t>
+  </si>
+  <si>
+    <t>WW0017973</t>
+  </si>
+  <si>
+    <t>WW0016920</t>
+  </si>
+  <si>
+    <t>WW0016921</t>
+  </si>
+  <si>
+    <t>WW0019769</t>
+  </si>
+  <si>
+    <t>WW0017774</t>
+  </si>
+  <si>
+    <t>WW0016925</t>
+  </si>
+  <si>
+    <t>WW0017096</t>
+  </si>
+  <si>
+    <t>WW0017097</t>
+  </si>
+  <si>
+    <t>WW0017575</t>
+  </si>
+  <si>
+    <t>WW0018082</t>
+  </si>
+  <si>
+    <t>WW0018895</t>
+  </si>
+  <si>
+    <t>WW0019995</t>
+  </si>
+  <si>
+    <t>WW0016186</t>
+  </si>
+  <si>
+    <t>WW0016856</t>
+  </si>
+  <si>
+    <t>运单号1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AMR731</t>
   </si>
 </sst>
 </file>
@@ -3701,7 +3721,7 @@
     <cellStyle name="常规 8 2" xfId="13"/>
     <cellStyle name="常规 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="213">
+  <dxfs count="279">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -3739,63 +3759,15 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -3856,6 +3828,162 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -4111,6 +4239,18 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <gradientFill degree="90">
           <stop position="0">
@@ -4276,6 +4416,678 @@
             <color rgb="FFFFC000"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -6279,9 +7091,7 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -6391,24 +7201,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45797760"/>
-        <c:axId val="45799296"/>
+        <c:axId val="78310784"/>
+        <c:axId val="77931648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45797760"/>
+        <c:axId val="78310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45799296"/>
+        <c:crossAx val="77931648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45799296"/>
+        <c:axId val="77931648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6416,20 +7226,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45797760"/>
+        <c:crossAx val="78310784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7777,7 +8586,7 @@
           <c:x val="0.18258271435078877"/>
           <c:y val="0.11843426979035028"/>
           <c:w val="0.65911740371296557"/>
-          <c:h val="0.77786915524448486"/>
+          <c:h val="0.77786915524448508"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8237,11 +9046,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="219"/>
-        <c:axId val="79211904"/>
-        <c:axId val="82003072"/>
+        <c:axId val="87295872"/>
+        <c:axId val="87297408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79211904"/>
+        <c:axId val="87295872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8276,14 +9085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82003072"/>
+        <c:crossAx val="87297408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82003072"/>
+        <c:axId val="87297408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8332,7 +9141,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79211904"/>
+        <c:crossAx val="87295872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8346,7 +9155,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
@@ -8424,7 +9232,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -9084,7 +9892,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12302,7 +13110,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="14" showAll="0"/>
@@ -14600,7 +15408,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="212" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17856,30 +18664,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="138" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="137" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="135" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="133" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="131" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="130" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="128" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21274,30 +22082,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="126" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="125" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="123" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="121" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="119" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="118" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="116" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="120"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23903,36 +24711,36 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="114" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="113" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="111" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="109" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="106" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="105" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="103" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23 H25:H28">
-    <cfRule type="duplicateValues" dxfId="101" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25832,31 +26640,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="98" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="97" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="95" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="90" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="89" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="87" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="183"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25931,19 +26739,19 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="83" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="82" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25955,7 +26763,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34308,56 +35116,56 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G30 G148:G1048576">
-    <cfRule type="duplicateValues" dxfId="78" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H54">
-    <cfRule type="duplicateValues" dxfId="77" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H77">
-    <cfRule type="duplicateValues" dxfId="75" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:I94">
-    <cfRule type="duplicateValues" dxfId="72" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:I94">
-    <cfRule type="duplicateValues" dxfId="70" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H124">
-    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="67" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="65" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H107">
-    <cfRule type="duplicateValues" dxfId="63" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:H124">
-    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:H147">
-    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34366,10 +35174,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY30"/>
+  <dimension ref="A1:CY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34380,11 +35188,11 @@
     <col min="4" max="4" width="39.25" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="31" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="14" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="16" customWidth="1"/>
     <col min="12" max="12" width="8.875" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.875" style="18" customWidth="1"/>
     <col min="14" max="14" width="8.75" style="18" bestFit="1" customWidth="1"/>
@@ -34413,10 +35221,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>225</v>
+        <v>919</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>376</v>
+        <v>920</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>7</v>
@@ -34549,10 +35357,10 @@
       <c r="F2" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>887</v>
+      </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34561,7 +35369,9 @@
         <f>VLOOKUP(L2,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>176</v>
       </c>
@@ -34592,7 +35402,7 @@
         <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>61</v>
@@ -34600,10 +35410,10 @@
       <c r="F3" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>888</v>
+      </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34612,7 +35422,9 @@
         <f>VLOOKUP(L3,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>176</v>
       </c>
@@ -34643,7 +35455,7 @@
         <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>66</v>
@@ -34651,10 +35463,10 @@
       <c r="F4" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>889</v>
+      </c>
       <c r="I4" s="2" t="str">
         <f t="shared" ref="I4" si="8">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34663,7 +35475,9 @@
         <f>VLOOKUP(L4,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AFE237</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="L4" s="4" t="s">
         <v>222</v>
       </c>
@@ -34694,7 +35508,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>66</v>
@@ -34702,10 +35516,10 @@
       <c r="F5" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>890</v>
+      </c>
       <c r="I5" s="2" t="str">
         <f t="shared" ref="I5" si="12">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34714,7 +35528,9 @@
         <f>VLOOKUP(L5,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AFE237</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="L5" s="4" t="s">
         <v>222</v>
       </c>
@@ -34745,7 +35561,7 @@
         <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>66</v>
@@ -34753,10 +35569,10 @@
       <c r="F6" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>891</v>
+      </c>
       <c r="I6" s="2" t="str">
         <f t="shared" ref="I6" si="16">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34765,7 +35581,9 @@
         <f>VLOOKUP(L6,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR876</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="L6" s="4" t="s">
         <v>281</v>
       </c>
@@ -34796,7 +35614,7 @@
         <v>161</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>66</v>
@@ -34804,10 +35622,10 @@
       <c r="F7" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>892</v>
+      </c>
       <c r="I7" s="2" t="str">
         <f t="shared" ref="I7" si="20">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34816,7 +35634,9 @@
         <f>VLOOKUP(L7,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR876</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="L7" s="4" t="s">
         <v>281</v>
       </c>
@@ -34855,10 +35675,10 @@
       <c r="F8" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>893</v>
+      </c>
       <c r="I8" s="2" t="str">
         <f t="shared" ref="I8" si="24">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34867,7 +35687,9 @@
         <f>VLOOKUP(L8,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L8" s="4" t="s">
         <v>201</v>
       </c>
@@ -34898,7 +35720,7 @@
         <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>66</v>
@@ -34906,10 +35728,10 @@
       <c r="F9" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>894</v>
+      </c>
       <c r="I9" s="2" t="str">
         <f t="shared" ref="I9" si="28">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34918,7 +35740,9 @@
         <f>VLOOKUP(L9,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L9" s="4" t="s">
         <v>201</v>
       </c>
@@ -34949,7 +35773,7 @@
         <v>161</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>66</v>
@@ -34957,10 +35781,10 @@
       <c r="F10" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="H10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>895</v>
+      </c>
       <c r="I10" s="2" t="str">
         <f t="shared" ref="I10" si="32">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -34969,7 +35793,9 @@
         <f>VLOOKUP(L10,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L10" s="4" t="s">
         <v>201</v>
       </c>
@@ -35008,10 +35834,10 @@
       <c r="F11" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="H11" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>896</v>
+      </c>
       <c r="I11" s="2" t="str">
         <f t="shared" ref="I11" si="36">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35020,7 +35846,9 @@
         <f>VLOOKUP(L11,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="L11" s="4" t="s">
         <v>184</v>
       </c>
@@ -35045,7 +35873,7 @@
         <v>43204</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>161</v>
@@ -35059,10 +35887,10 @@
       <c r="F12" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>897</v>
+      </c>
       <c r="I12" s="2" t="str">
         <f t="shared" ref="I12" si="40">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35071,9 +35899,11 @@
         <f>VLOOKUP(L12,ch!$A$1:$B$33,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" ref="M12" si="41">IF(A12&lt;&gt;"","9.6米","---")</f>
@@ -35110,10 +35940,10 @@
       <c r="F13" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="H13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>898</v>
+      </c>
       <c r="I13" s="2" t="str">
         <f t="shared" ref="I13" si="44">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35122,9 +35952,11 @@
         <f>VLOOKUP(L13,ch!$A$1:$B$33,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L13" s="4" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="M13" s="2" t="str">
         <f t="shared" ref="M13" si="45">IF(A13&lt;&gt;"","9.6米","---")</f>
@@ -35153,7 +35985,7 @@
         <v>161</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>61</v>
@@ -35161,10 +35993,10 @@
       <c r="F14" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="H14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>899</v>
+      </c>
       <c r="I14" s="2" t="str">
         <f t="shared" ref="I14" si="48">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35173,9 +36005,11 @@
         <f>VLOOKUP(L14,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AHB101</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L14" s="4" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" ref="M14" si="49">IF(A14&lt;&gt;"","9.6米","---")</f>
@@ -35204,18 +36038,18 @@
         <v>161</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>870</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>900</v>
+      </c>
       <c r="I15" s="2" t="str">
         <f t="shared" ref="I15" si="52">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35224,9 +36058,11 @@
         <f>VLOOKUP(L15,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AHB101</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" ref="M15" si="53">IF(A15&lt;&gt;"","9.6米","---")</f>
@@ -35255,18 +36091,18 @@
         <v>161</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>870</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>901</v>
+      </c>
       <c r="I16" s="2" t="str">
         <f t="shared" ref="I16" si="56">IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35275,9 +36111,11 @@
         <f>VLOOKUP(L16,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AHB101</v>
       </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="L16" s="4" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" ref="M16" si="57">IF(A16&lt;&gt;"","9.6米","---")</f>
@@ -35306,7 +36144,7 @@
         <v>161</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>66</v>
@@ -35314,10 +36152,10 @@
       <c r="F17" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>902</v>
+      </c>
       <c r="I17" s="2" t="str">
         <f t="shared" ref="I17" si="60">IF(A17&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35326,9 +36164,11 @@
         <f>VLOOKUP(L17,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L17" s="4" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="M17" s="2" t="str">
         <f t="shared" ref="M17" si="61">IF(A17&lt;&gt;"","9.6米","---")</f>
@@ -35357,7 +36197,7 @@
         <v>161</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>66</v>
@@ -35365,10 +36205,10 @@
       <c r="F18" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>903</v>
+      </c>
       <c r="I18" s="2" t="str">
         <f t="shared" ref="I18" si="64">IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35377,9 +36217,11 @@
         <f>VLOOKUP(L18,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="M18" s="2" t="str">
         <f t="shared" ref="M18" si="65">IF(A18&lt;&gt;"","9.6米","---")</f>
@@ -35414,12 +36256,12 @@
         <v>161</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>872</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>904</v>
+      </c>
       <c r="I19" s="2" t="str">
         <f t="shared" ref="I19" si="68">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35428,9 +36270,11 @@
         <f>VLOOKUP(L19,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AFE237</v>
       </c>
-      <c r="K19" s="17"/>
+      <c r="K19" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="L19" s="4" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="M19" s="2" t="str">
         <f t="shared" ref="M19" si="69">IF(A19&lt;&gt;"","9.6米","---")</f>
@@ -35459,7 +36303,7 @@
         <v>161</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>66</v>
@@ -35467,10 +36311,10 @@
       <c r="F20" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="H20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>905</v>
+      </c>
       <c r="I20" s="2" t="str">
         <f t="shared" ref="I20" si="72">IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35479,9 +36323,11 @@
         <f>VLOOKUP(L20,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="K20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="M20" s="2" t="str">
         <f t="shared" ref="M20" si="73">IF(A20&lt;&gt;"","9.6米","---")</f>
@@ -35510,7 +36356,7 @@
         <v>161</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>66</v>
@@ -35518,10 +36364,10 @@
       <c r="F21" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>906</v>
+      </c>
       <c r="I21" s="2" t="str">
         <f t="shared" ref="I21" si="76">IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35530,9 +36376,11 @@
         <f>VLOOKUP(L21,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K21" s="17"/>
+      <c r="K21" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L21" s="4" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="M21" s="2" t="str">
         <f t="shared" ref="M21" si="77">IF(A21&lt;&gt;"","9.6米","---")</f>
@@ -35561,18 +36409,18 @@
         <v>161</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>875</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>907</v>
+      </c>
       <c r="I22" s="2" t="str">
         <f t="shared" ref="I22" si="80">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35581,9 +36429,11 @@
         <f>VLOOKUP(L22,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="M22" s="2" t="str">
         <f t="shared" ref="M22" si="81">IF(A22&lt;&gt;"","9.6米","---")</f>
@@ -35618,12 +36468,12 @@
         <v>161</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>876</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>908</v>
+      </c>
       <c r="I23" s="2" t="str">
         <f t="shared" ref="I23" si="84">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35632,9 +36482,11 @@
         <f>VLOOKUP(L23,ch!$A$1:$B$33,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="L23" s="4" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" ref="M23" si="85">IF(A23&lt;&gt;"","9.6米","---")</f>
@@ -35669,12 +36521,12 @@
         <v>161</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="H24" s="5"/>
+        <v>877</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>909</v>
+      </c>
       <c r="I24" s="2" t="str">
         <f t="shared" ref="I24" si="88">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
@@ -35683,9 +36535,11 @@
         <f>VLOOKUP(L24,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZR876</v>
       </c>
-      <c r="K24" s="17"/>
+      <c r="K24" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" ref="M24" si="89">IF(A24&lt;&gt;"","9.6米","---")</f>
@@ -35708,7 +36562,7 @@
         <v>43204</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>61</v>
@@ -35720,37 +36574,39 @@
         <v>161</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="H25" s="5"/>
+        <v>876</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>910</v>
+      </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" ref="I25:I29" si="92">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="I25:I32" si="92">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J25" s="17" t="str">
         <f>VLOOKUP(L25,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="K25" s="17"/>
+      <c r="K25" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="L25" s="4" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f t="shared" ref="M25:M29" si="93">IF(A25&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="M25:M32" si="93">IF(A25&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N25" s="4">
         <v>14</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" ref="O25:O29" si="94">C25&amp;"--"&amp;E25</f>
+        <f t="shared" ref="O25:O32" si="94">C25&amp;"--"&amp;E25</f>
         <v>丰树园区--新地园区</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" ref="P25:P29" si="95">IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
+        <f t="shared" ref="P25:P32" si="95">IF(OR(C25="常福园区",C25="欣程园区",E25="常福园区",E25="欣程园区"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -35759,50 +36615,52 @@
         <v>43204</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>347</v>
+        <v>881</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="H26" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
+        <v>911</v>
+      </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="92"/>
+        <f>IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J26" s="17" t="str">
         <f>VLOOKUP(L26,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="K26" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L26" s="4" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" si="93"/>
+        <f>IF(A26&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N26" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v>新地园区--常福园区</v>
+        <f>C26&amp;"--"&amp;E26</f>
+        <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="95"/>
-        <v>1250</v>
+        <f>IF(OR(C26="常福园区",C26="欣程园区",E26="常福园区",E26="欣程园区"),1250,165)</f>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.75">
@@ -35810,50 +36668,52 @@
         <v>43204</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>212</v>
+        <v>882</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>882</v>
+        <v>435</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="H27" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20" t="s">
+        <v>912</v>
+      </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="92"/>
+        <f>IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J27" s="17" t="str">
         <f>VLOOKUP(L27,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="K27" s="17"/>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="L27" s="4" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" si="93"/>
+        <f>IF(A27&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N27" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v>新地园区--常福园区</v>
+        <f>C27&amp;"--"&amp;E27</f>
+        <v>新地园区--新地园区</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="95"/>
-        <v>1250</v>
+        <f>IF(OR(C27="常福园区",C27="欣程园区",E27="常福园区",E27="欣程园区"),1250,165)</f>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18.75">
@@ -35861,50 +36721,52 @@
         <v>43204</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>212</v>
+        <v>883</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="H28" s="5"/>
+        <v>885</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20" t="s">
+        <v>505</v>
+      </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="92"/>
+        <f>IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="J28" s="17" t="str">
         <f>VLOOKUP(L28,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂FJU350</v>
-      </c>
-      <c r="K28" s="17"/>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="L28" s="4" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f t="shared" si="93"/>
+        <f>IF(A28&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="N28" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v>新地园区--常福园区</v>
+        <f>C28&amp;"--"&amp;E28</f>
+        <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="95"/>
-        <v>1250</v>
+        <f>IF(OR(C28="常福园区",C28="欣程园区",E28="常福园区",E28="欣程园区"),1250,165)</f>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18.75">
@@ -35912,13 +36774,13 @@
         <v>43204</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>213</v>
@@ -35926,21 +36788,23 @@
       <c r="F29" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>913</v>
+      </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="92"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J29" s="17" t="str">
         <f>VLOOKUP(L29,ch!$A$1:$B$33,2,0)</f>
-        <v>鄂ALU291</v>
-      </c>
-      <c r="K29" s="17"/>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="L29" s="4" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2" t="str">
         <f t="shared" si="93"/>
@@ -35963,13 +36827,13 @@
         <v>43204</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>213</v>
@@ -35977,68 +36841,316 @@
       <c r="F30" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>914</v>
+      </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" ref="I30" si="96">IF(A30&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="92"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="J30" s="17" t="str">
         <f>VLOOKUP(L30,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="93"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N30" s="4">
+        <v>16</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="94"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="95"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.75">
+      <c r="A31" s="9">
+        <v>43204</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="92"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J31" s="17" t="str">
+        <f>VLOOKUP(L31,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="93"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N31" s="4">
+        <v>16</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="94"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="95"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75">
+      <c r="A32" s="9">
+        <v>43204</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="92"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J32" s="17" t="str">
+        <f>VLOOKUP(L32,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="93"/>
+        <v>9.6米</v>
+      </c>
+      <c r="N32" s="4">
+        <v>14</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="94"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="95"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18.75">
+      <c r="A33" s="9">
+        <v>43204</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" ref="I33:I34" si="96">IF(A33&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J33" s="17" t="str">
+        <f>VLOOKUP(L33,ch!$A$1:$B$33,2,0)</f>
         <v>鄂AQQ353</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" ref="M30" si="97">IF(A30&lt;&gt;"","9.6米","---")</f>
+      <c r="K33" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" ref="M33" si="97">IF(A33&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N33" s="4">
         <v>14</v>
       </c>
-      <c r="O30" s="2" t="str">
-        <f t="shared" ref="O30" si="98">C30&amp;"--"&amp;E30</f>
+      <c r="O33" s="2" t="str">
+        <f t="shared" ref="O33:O34" si="98">C33&amp;"--"&amp;E33</f>
         <v>新地园区--常福园区</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" ref="P30" si="99">IF(OR(C30="常福园区",C30="欣程园区",E30="常福园区",E30="欣程园区"),1250,165)</f>
+      <c r="P33" s="4">
+        <f t="shared" ref="P33:P34" si="99">IF(OR(C33="常福园区",C33="欣程园区",E33="常福园区",E33="欣程园区"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18.75">
+      <c r="A34" s="9">
+        <v>43204</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="J34" s="17" t="str">
+        <f>VLOOKUP(L34,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMR731</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f t="shared" ref="M34" si="100">IF(A34&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="N34" s="4">
+        <v>14</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="99"/>
         <v>1250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G31:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="59" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+  <conditionalFormatting sqref="G29:G33 G2:G25">
+    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+  <conditionalFormatting sqref="G29:G33 G2:G25">
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  <conditionalFormatting sqref="G2:G34">
+    <cfRule type="duplicateValues" dxfId="81" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H30">
-    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="duplicateValues" dxfId="79" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H30">
-    <cfRule type="duplicateValues" dxfId="7" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="30"/>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="duplicateValues" dxfId="78" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H30">
-    <cfRule type="duplicateValues" dxfId="13" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="duplicateValues" dxfId="76" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="duplicateValues" dxfId="74" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="duplicateValues" dxfId="73" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="duplicateValues" dxfId="71" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="duplicateValues" dxfId="66" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G1048576 G26:G28 G1">
+    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G1048576 G26:G28 G1">
+    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G1048576 G26:G28 G1">
+    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37828,8 +38940,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="211" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39781,11 +40893,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="209" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="207" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40994,12 +42106,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="206" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="204" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42822,23 +43934,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="202" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="201" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="199" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="197" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="195" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44724,23 +45836,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="193" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="192" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="190" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="188" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="186" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46416,23 +47528,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="184" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="183" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="181" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="179" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="177" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -50307,37 +51419,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="175" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="174" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="172" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="170" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="169" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="167" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="165" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="163" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="161" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53733,54 +54845,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="160" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="159" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="157" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="155" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="154" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="153" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="152" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="150" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="148" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="146" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="144" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="143" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="142" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="140" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7200" firstSheet="9" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7200" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="分析图" sheetId="13" r:id="rId19"/>
     <sheet name="汇总明细" sheetId="9" r:id="rId20"/>
     <sheet name="Sheet2" sheetId="17" r:id="rId21"/>
+    <sheet name="4-17" sheetId="23" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$I$1:$I$41</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'4-14'!$A$1:$P$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'4-15'!$A$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'4-16'!$A$1:$P$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'4-17'!$A$1:$P$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
@@ -50,14 +52,14 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId23"/>
-    <pivotCache cacheId="1" r:id="rId24"/>
+    <pivotCache cacheId="0" r:id="rId24"/>
+    <pivotCache cacheId="1" r:id="rId25"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="1147">
   <si>
     <t>发车时间</t>
   </si>
@@ -3930,6 +3932,274 @@
   </si>
   <si>
     <t>WW0019737</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B米面粮油2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018094</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-14）</t>
+  </si>
+  <si>
+    <t>WW0015878</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017241</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-5)</t>
+  </si>
+  <si>
+    <t>武汉公共平台5号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017240</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄燕平</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-15）</t>
+  </si>
+  <si>
+    <t>武汉亚一百货B家具建材仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017788</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-16）</t>
+  </si>
+  <si>
+    <t>WW0017789</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵金海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017170</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ADU616</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>程斌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>程斌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>方志刚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017169</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017127</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017128</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉公共平台1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016809</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016806</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰西蒂分拣</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017280</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016808</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一3C电脑办公仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016807</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018095</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0019737</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017242</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AHB101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉服装1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017112</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZR299</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋保平</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017792</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AMT870</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017171</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ADU616</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018782</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲一号园区--新地园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ANH299</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰西蒂分拣</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉公共平台仓4号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰西蒂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017110</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZR992</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017866</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZV373</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋辉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超A休闲食品仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0019738</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ABY256</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪家国</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B母婴玩具仓号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016933</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZV377</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016860</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻海涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016189</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AQQ353</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁鹏</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4352,7 +4622,103 @@
     <cellStyle name="常规 9" xfId="12"/>
     <cellStyle name="常规 9 2" xfId="20"/>
   </cellStyles>
-  <dxfs count="214">
+  <dxfs count="222">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -7044,24 +7410,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89792896"/>
-        <c:axId val="89794432"/>
+        <c:axId val="87696128"/>
+        <c:axId val="87697664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89792896"/>
+        <c:axId val="87696128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89794432"/>
+        <c:crossAx val="87697664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89794432"/>
+        <c:axId val="87697664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7069,7 +7435,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89792896"/>
+        <c:crossAx val="87696128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7081,7 +7447,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8429,7 +8795,7 @@
           <c:x val="0.18258271435078877"/>
           <c:y val="0.11843426979035028"/>
           <c:w val="0.65911740371296557"/>
-          <c:h val="0.77786915524448619"/>
+          <c:h val="0.77786915524448641"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8889,11 +9255,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="219"/>
-        <c:axId val="92170880"/>
-        <c:axId val="92184960"/>
+        <c:axId val="89816064"/>
+        <c:axId val="89826048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92170880"/>
+        <c:axId val="89816064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8928,14 +9294,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92184960"/>
+        <c:crossAx val="89826048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92184960"/>
+        <c:axId val="89826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8984,7 +9350,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92170880"/>
+        <c:crossAx val="89816064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9075,7 +9441,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -9735,7 +10101,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15251,7 +15617,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="213" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18507,30 +18873,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="139" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="138" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="136" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="134" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="132" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="131" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="129" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21925,30 +22291,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="127" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="126" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="124" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="122" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="120" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="119" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="117" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="120"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24554,36 +24920,36 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="115" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="114" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="112" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="107" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="106" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="104" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23 H25:H28">
-    <cfRule type="duplicateValues" dxfId="102" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26483,31 +26849,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="99" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="98" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="96" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="91" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="90" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="88" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="183"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26518,8 +26884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26530,7 +26896,7 @@
     <col min="4" max="4" width="39.25" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="31" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="14" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.75" style="16" customWidth="1"/>
@@ -28484,79 +28850,79 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="86" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33 G2:G25">
-    <cfRule type="duplicateValues" dxfId="83" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33 G2:G25">
-    <cfRule type="duplicateValues" dxfId="82" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="duplicateValues" dxfId="80" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="78" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="77" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="75" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="73" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="72" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="70" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="67" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="65" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="63" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="60" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31803,20 +32169,20 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31827,8 +32193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -33699,20 +34065,20 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33720,10 +34086,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34002,6 +34368,14 @@
       </c>
       <c r="B34" s="29" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20.25">
+      <c r="A35" s="29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -35966,8 +36340,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="212" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35977,8 +36351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView topLeftCell="G79" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44139,67 +44513,67 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G31:G54">
-    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G77">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G77">
-    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G124">
-    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G107">
-    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:G124">
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G107">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:G124">
-    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G147">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G147">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G147">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G30 G170:G1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:G169">
-    <cfRule type="duplicateValues" dxfId="15" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:G169">
-    <cfRule type="duplicateValues" dxfId="14" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:G169">
-    <cfRule type="duplicateValues" dxfId="12" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H94">
-    <cfRule type="duplicateValues" dxfId="10" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H94">
-    <cfRule type="duplicateValues" dxfId="8" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="70"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44279,22 +44653,2793 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CY99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="12.125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="39" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="39" customWidth="1"/>
+    <col min="15" max="15" width="29.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="39" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:103" ht="18.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="35"/>
+      <c r="CG1" s="35"/>
+      <c r="CH1" s="35"/>
+      <c r="CI1" s="35"/>
+      <c r="CJ1" s="35"/>
+      <c r="CK1" s="35"/>
+      <c r="CL1" s="35"/>
+      <c r="CM1" s="35"/>
+      <c r="CN1" s="35"/>
+      <c r="CO1" s="35"/>
+      <c r="CP1" s="35"/>
+      <c r="CQ1" s="35"/>
+      <c r="CR1" s="35"/>
+      <c r="CS1" s="35"/>
+      <c r="CT1" s="35"/>
+      <c r="CU1" s="35"/>
+      <c r="CV1" s="35"/>
+      <c r="CW1" s="35"/>
+      <c r="CX1" s="35"/>
+      <c r="CY1" s="35"/>
+    </row>
+    <row r="2" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A2" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="40" t="str">
+        <f>VLOOKUP(L2,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N2" s="44">
+        <v>14</v>
+      </c>
+      <c r="O2" s="44" t="str">
+        <f t="shared" ref="O2:O18" si="0">C2&amp;"--"&amp;E2</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" ref="P2:P6" si="1">IF(OR(C2="常福园区",C2="欣程园区",C2="弗兰西蒂",E2="常福园区",E2="欣程园区",E2="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A3" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="40" t="str">
+        <f>VLOOKUP(L3,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N3" s="44">
+        <v>14</v>
+      </c>
+      <c r="O3" s="44" t="str">
+        <f t="shared" ref="O3" si="2">C3&amp;"--"&amp;E3</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A4" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="40" t="str">
+        <f>VLOOKUP(L4,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N4" s="44">
+        <v>14</v>
+      </c>
+      <c r="O4" s="44" t="str">
+        <f t="shared" ref="O4" si="3">C4&amp;"--"&amp;E4</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A5" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="40" t="str">
+        <f>VLOOKUP(L5,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N5" s="44">
+        <v>14</v>
+      </c>
+      <c r="O5" s="44" t="str">
+        <f t="shared" ref="O5" si="4">C5&amp;"--"&amp;E5</f>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A6" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="40" t="str">
+        <f>VLOOKUP(L6,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N6" s="44">
+        <v>14</v>
+      </c>
+      <c r="O6" s="44" t="str">
+        <f t="shared" ref="O6" si="5">C6&amp;"--"&amp;E6</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A7" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="40" t="str">
+        <f>VLOOKUP(L7,ch!$A$1:$B$33,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N7" s="44">
+        <v>11</v>
+      </c>
+      <c r="O7" s="44" t="str">
+        <f t="shared" ref="O7" si="6">C7&amp;"--"&amp;E7</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" ref="P7" si="7">IF(OR(C7="常福园区",C7="欣程园区",C7="弗兰西蒂",E7="常福园区",E7="欣程园区",E7="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A8" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="40" t="str">
+        <f>VLOOKUP(L8,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ADU616</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N8" s="44">
+        <v>14</v>
+      </c>
+      <c r="O8" s="44" t="str">
+        <f t="shared" ref="O8" si="8">C8&amp;"--"&amp;E8</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" ref="P8" si="9">IF(OR(C8="常福园区",C8="欣程园区",C8="弗兰西蒂",E8="常福园区",E8="欣程园区",E8="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A9" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="40" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N9" s="44">
+        <v>14</v>
+      </c>
+      <c r="O9" s="44" t="str">
+        <f t="shared" ref="O9" si="10">C9&amp;"--"&amp;E9</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" ref="P9" si="11">IF(OR(C9="常福园区",C9="欣程园区",C9="弗兰西蒂",E9="常福园区",E9="欣程园区",E9="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A10" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="40" t="str">
+        <f>VLOOKUP(L10,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N10" s="44">
+        <v>14</v>
+      </c>
+      <c r="O10" s="44" t="str">
+        <f t="shared" ref="O10" si="12">C10&amp;"--"&amp;E10</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" ref="P10" si="13">IF(OR(C10="常福园区",C10="欣程园区",C10="弗兰西蒂",E10="常福园区",E10="欣程园区",E10="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A11" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="40" t="str">
+        <f>VLOOKUP(L11,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N11" s="44">
+        <v>14</v>
+      </c>
+      <c r="O11" s="44" t="str">
+        <f t="shared" ref="O11" si="14">C11&amp;"--"&amp;E11</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" ref="P11" si="15">IF(OR(C11="常福园区",C11="欣程园区",C11="弗兰西蒂",E11="常福园区",E11="欣程园区",E11="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A12" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="40" t="str">
+        <f>VLOOKUP(L12,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N12" s="44">
+        <v>14</v>
+      </c>
+      <c r="O12" s="44" t="str">
+        <f t="shared" ref="O12" si="16">C12&amp;"--"&amp;E12</f>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" ref="P12" si="17">IF(OR(C12="常福园区",C12="欣程园区",C12="弗兰西蒂",E12="常福园区",E12="欣程园区",E12="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A13" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J13" s="44"/>
+      <c r="K13" s="40" t="str">
+        <f>VLOOKUP(L13,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N13" s="44">
+        <v>14</v>
+      </c>
+      <c r="O13" s="44" t="str">
+        <f t="shared" ref="O13" si="18">C13&amp;"--"&amp;E13</f>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" ref="P13:P26" si="19">IF(OR(C13="常福园区",C13="欣程园区",C13="弗兰西蒂",E13="常福园区",E13="欣程园区",E13="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A14" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="40" t="str">
+        <f>VLOOKUP(L14,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N14" s="44">
+        <v>14</v>
+      </c>
+      <c r="O14" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="19"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A15" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="40" t="str">
+        <f>VLOOKUP(L15,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N15" s="44">
+        <v>14</v>
+      </c>
+      <c r="O15" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103" s="45" customFormat="1" ht="18.75">
+      <c r="A16" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="40" t="str">
+        <f>VLOOKUP(L16,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N16" s="44">
+        <v>14</v>
+      </c>
+      <c r="O16" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A17" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="40" t="str">
+        <f>VLOOKUP(L17,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N17" s="44">
+        <v>14</v>
+      </c>
+      <c r="O17" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A18" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="40" t="str">
+        <f>VLOOKUP(L18,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N18" s="44">
+        <v>14</v>
+      </c>
+      <c r="O18" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A19" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="47" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N19" s="44">
+        <v>13</v>
+      </c>
+      <c r="O19" s="44" t="e">
+        <f>O47C45&amp;"--"&amp;E19</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A20" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="47" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="40" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N20" s="44">
+        <v>13</v>
+      </c>
+      <c r="O20" s="44"/>
+      <c r="P20" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A21" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>857</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="47" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="40" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N21" s="44">
+        <v>14</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A22" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="47" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J22" s="44"/>
+      <c r="K22" s="40" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N22" s="44">
+        <v>14</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A23" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="M23" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N23" s="44">
+        <v>14</v>
+      </c>
+      <c r="O23" s="44" t="str">
+        <f t="shared" ref="O23" si="20">C23&amp;"--"&amp;E23</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="19"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A24" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="40" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N24" s="44">
+        <v>16</v>
+      </c>
+      <c r="O24" s="44"/>
+      <c r="P24" s="4">
+        <f t="shared" si="19"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A25" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="47" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N25" s="44">
+        <v>14</v>
+      </c>
+      <c r="O25" s="44"/>
+      <c r="P25" s="4">
+        <f t="shared" si="19"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A26" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G26" s="44"/>
+      <c r="H26" s="47" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N26" s="44">
+        <v>13</v>
+      </c>
+      <c r="O26" s="44"/>
+      <c r="P26" s="4">
+        <f t="shared" si="19"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A27" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="47" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J27" s="44"/>
+      <c r="K27" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N27" s="44">
+        <v>14</v>
+      </c>
+      <c r="O27" s="44"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A28" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="47" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J28" s="44"/>
+      <c r="K28" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N28" s="44">
+        <v>16</v>
+      </c>
+      <c r="O28" s="44"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A29" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="47" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="J29" s="44"/>
+      <c r="K29" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N29" s="44">
+        <v>14</v>
+      </c>
+      <c r="O29" s="44"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A30" s="46"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A32" s="46"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A33" s="46"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A34" s="46"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A36" s="46"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A38" s="46"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A41" s="46"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A43" s="46"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A45" s="46"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A46" s="46"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A48" s="46"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A49" s="46"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A50" s="46"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A51" s="46"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A52" s="46"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A53" s="46"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="4"/>
+    </row>
+    <row r="54" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A54" s="46"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="4"/>
+    </row>
+    <row r="55" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A55" s="46"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="4"/>
+    </row>
+    <row r="56" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A56" s="46"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A57" s="46"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A58" s="46"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="4"/>
+    </row>
+    <row r="59" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A59" s="46"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="4"/>
+    </row>
+    <row r="60" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A60" s="46"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="4"/>
+    </row>
+    <row r="61" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="4"/>
+    </row>
+    <row r="62" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A62" s="46"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="4"/>
+    </row>
+    <row r="63" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A63" s="46"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A64" s="46"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="4"/>
+    </row>
+    <row r="65" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A65" s="46"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="4"/>
+    </row>
+    <row r="66" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A66" s="46"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="4"/>
+    </row>
+    <row r="67" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A67" s="46"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="4"/>
+    </row>
+    <row r="68" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A68" s="46"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="4"/>
+    </row>
+    <row r="69" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A69" s="46"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="4"/>
+    </row>
+    <row r="70" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A70" s="46"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A71" s="46"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="4"/>
+    </row>
+    <row r="72" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A72" s="46"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="4"/>
+    </row>
+    <row r="73" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A73" s="46"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A74" s="46"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="4"/>
+    </row>
+    <row r="75" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A75" s="46"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A76" s="46"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="4"/>
+    </row>
+    <row r="77" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A77" s="46"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A78" s="46"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="4"/>
+    </row>
+    <row r="79" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A79" s="46"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="4"/>
+    </row>
+    <row r="80" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A80" s="46"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="4"/>
+    </row>
+    <row r="81" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A81" s="46"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="4"/>
+    </row>
+    <row r="82" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="4"/>
+    </row>
+    <row r="83" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A83" s="46"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="4"/>
+    </row>
+    <row r="84" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A84" s="46"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="4"/>
+    </row>
+    <row r="85" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A85" s="46"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="4"/>
+    </row>
+    <row r="86" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A86" s="46"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="4"/>
+    </row>
+    <row r="87" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A87" s="46"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="4"/>
+    </row>
+    <row r="88" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A88" s="46"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="4"/>
+    </row>
+    <row r="89" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A89" s="46"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="4"/>
+    </row>
+    <row r="90" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A90" s="46"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="4"/>
+    </row>
+    <row r="91" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A91" s="46"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="4"/>
+    </row>
+    <row r="92" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A92" s="46"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="4"/>
+    </row>
+    <row r="93" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A93" s="46"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="4"/>
+    </row>
+    <row r="94" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A94" s="46"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="4"/>
+    </row>
+    <row r="95" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A95" s="46"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="4"/>
+    </row>
+    <row r="96" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A96" s="46"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="4"/>
+    </row>
+    <row r="97" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A97" s="46"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="44"/>
+      <c r="P97" s="4"/>
+    </row>
+    <row r="98" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A98" s="46"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="44"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="4"/>
+    </row>
+    <row r="99" spans="1:16" s="45" customFormat="1" ht="18.75">
+      <c r="A99" s="46"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="44"/>
+      <c r="P99" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -46244,11 +49389,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="210" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="208" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47457,12 +50602,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="207" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="205" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49285,23 +52430,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="203" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="202" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="200" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="198" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="196" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -51187,23 +54332,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="194" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="193" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="191" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="189" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="187" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52879,23 +56024,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="185" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="184" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="182" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="180" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="178" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56770,37 +59915,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="176" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="175" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="173" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="171" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="170" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="168" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="166" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="164" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="162" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60196,54 +63341,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="161" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="160" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="158" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="156" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="155" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="154" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="153" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="151" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="149" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="147" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="145" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="144" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="143" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="141" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -46,6 +46,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'4-16'!$A$1:$O$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'4-17'!$A$1:$P$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'4-18'!$A$1:$N$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'4-19'!$A$1:$N$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5729" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="1251">
   <si>
     <t>发车时间</t>
   </si>
@@ -4357,10 +4358,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>16747</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>蔡定操</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4369,34 +4366,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17288</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>19745</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>19746</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18118</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18116</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉亚一百货Ｂ家居日用仓号库</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17252</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>吕文杰</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4409,40 +4382,201 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17407</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉分拣配送中心安利KA仓1号库</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>19747</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>洪家国</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17254</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17251</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17175</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>程斌</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>17406</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>周丹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲一号园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-13)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡元文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电1，电2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李耀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16板22托盘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常福园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰本蒂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代永华</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋辉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉生活小家电1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>童红兵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>14板加多件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李威</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一3CB电脑办公仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-13)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈和敏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏洋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万纬园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B个护清洁仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>程斌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉公共平台1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016747</t>
+  </si>
+  <si>
+    <t>WW0017288</t>
+  </si>
+  <si>
+    <t>WW0019745</t>
+  </si>
+  <si>
+    <t>WW0019746</t>
+  </si>
+  <si>
+    <t>WW0018118</t>
+  </si>
+  <si>
+    <t>WW0018116</t>
+  </si>
+  <si>
+    <t>WW0017252</t>
+  </si>
+  <si>
+    <t>WW0017407</t>
+  </si>
+  <si>
+    <t>WW0019747</t>
+  </si>
+  <si>
+    <t>WW0017254</t>
+  </si>
+  <si>
+    <t>WW0017251</t>
+  </si>
+  <si>
+    <t>WW0017175</t>
+  </si>
+  <si>
+    <t>WW0017406</t>
+  </si>
+  <si>
+    <t>WW0019749</t>
+  </si>
+  <si>
+    <t>WW0016814</t>
+  </si>
+  <si>
+    <t>WW0016939</t>
+  </si>
+  <si>
+    <t>WW0017872</t>
+  </si>
+  <si>
+    <t>WW0017133</t>
+  </si>
+  <si>
+    <t>WW0018699</t>
+  </si>
+  <si>
+    <t>WW0015853</t>
+  </si>
+  <si>
+    <t>WW0018251</t>
+  </si>
+  <si>
+    <t>WW0018252</t>
+  </si>
+  <si>
+    <t>WW0018253</t>
   </si>
 </sst>
 </file>
@@ -7508,24 +7642,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96019968"/>
-        <c:axId val="96021504"/>
+        <c:axId val="73860992"/>
+        <c:axId val="73862528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96019968"/>
+        <c:axId val="73860992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96021504"/>
+        <c:crossAx val="73862528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96021504"/>
+        <c:axId val="73862528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7533,7 +7667,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96019968"/>
+        <c:crossAx val="73860992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7545,7 +7679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8893,7 +9027,7 @@
           <c:x val="0.18258271435078877"/>
           <c:y val="0.11843426979035028"/>
           <c:w val="0.65911740371296557"/>
-          <c:h val="0.77786915524448685"/>
+          <c:h val="0.77786915524448719"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -9353,11 +9487,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="219"/>
-        <c:axId val="97550336"/>
-        <c:axId val="97551872"/>
+        <c:axId val="91722112"/>
+        <c:axId val="91723648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97550336"/>
+        <c:axId val="91722112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9392,14 +9526,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97551872"/>
+        <c:crossAx val="91723648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97551872"/>
+        <c:axId val="91723648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9448,7 +9582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97550336"/>
+        <c:crossAx val="91722112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9539,7 +9673,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -37051,11 +37185,11 @@
         <v>14</v>
       </c>
       <c r="M2" s="44" t="str">
-        <f>C2&amp;"--"&amp;E2</f>
+        <f t="shared" ref="M2:M19" si="0">C2&amp;"--"&amp;E2</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N2" s="4">
-        <f>IF(OR(C2="常福园区",C2="欣程园区",C2="弗兰西蒂",E2="常福园区",E2="欣程园区",E2="弗兰西蒂"),1250,165)</f>
+        <f t="shared" ref="N2:N19" si="1">IF(OR(C2="常福园区",C2="欣程园区",C2="弗兰西蒂",E2="常福园区",E2="欣程园区",E2="弗兰西蒂"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -37097,11 +37231,11 @@
         <v>14</v>
       </c>
       <c r="M3" s="44" t="str">
-        <f>C3&amp;"--"&amp;E3</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N3" s="4">
-        <f>IF(OR(C3="常福园区",C3="欣程园区",C3="弗兰西蒂",E3="常福园区",E3="欣程园区",E3="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37143,11 +37277,11 @@
         <v>13</v>
       </c>
       <c r="M4" s="44" t="str">
-        <f>C4&amp;"--"&amp;E4</f>
+        <f t="shared" si="0"/>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="N4" s="4">
-        <f>IF(OR(C4="常福园区",C4="欣程园区",C4="弗兰西蒂",E4="常福园区",E4="欣程园区",E4="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37189,11 +37323,11 @@
         <v>14</v>
       </c>
       <c r="M5" s="44" t="str">
-        <f>C5&amp;"--"&amp;E5</f>
+        <f t="shared" si="0"/>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="N5" s="4">
-        <f>IF(OR(C5="常福园区",C5="欣程园区",C5="弗兰西蒂",E5="常福园区",E5="欣程园区",E5="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37235,11 +37369,11 @@
         <v>14</v>
       </c>
       <c r="M6" s="44" t="str">
-        <f>C6&amp;"--"&amp;E6</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N6" s="4">
-        <f>IF(OR(C6="常福园区",C6="欣程园区",C6="弗兰西蒂",E6="常福园区",E6="欣程园区",E6="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37281,11 +37415,11 @@
         <v>14</v>
       </c>
       <c r="M7" s="44" t="str">
-        <f>C7&amp;"--"&amp;E7</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N7" s="4">
-        <f>IF(OR(C7="常福园区",C7="欣程园区",C7="弗兰西蒂",E7="常福园区",E7="欣程园区",E7="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37327,11 +37461,11 @@
         <v>14</v>
       </c>
       <c r="M8" s="44" t="str">
-        <f>C8&amp;"--"&amp;E8</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N8" s="4">
-        <f>IF(OR(C8="常福园区",C8="欣程园区",C8="弗兰西蒂",E8="常福园区",E8="欣程园区",E8="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37373,11 +37507,11 @@
         <v>14</v>
       </c>
       <c r="M9" s="44" t="str">
-        <f>C9&amp;"--"&amp;E9</f>
+        <f t="shared" si="0"/>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="N9" s="4">
-        <f>IF(OR(C9="常福园区",C9="欣程园区",C9="弗兰西蒂",E9="常福园区",E9="欣程园区",E9="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37419,11 +37553,11 @@
         <v>14</v>
       </c>
       <c r="M10" s="44" t="str">
-        <f>C10&amp;"--"&amp;E10</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N10" s="4">
-        <f>IF(OR(C10="常福园区",C10="欣程园区",C10="弗兰西蒂",E10="常福园区",E10="欣程园区",E10="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37465,11 +37599,11 @@
         <v>14</v>
       </c>
       <c r="M11" s="44" t="str">
-        <f>C11&amp;"--"&amp;E11</f>
+        <f t="shared" si="0"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="N11" s="4">
-        <f>IF(OR(C11="常福园区",C11="欣程园区",C11="弗兰西蒂",E11="常福园区",E11="欣程园区",E11="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37511,11 +37645,11 @@
         <v>14</v>
       </c>
       <c r="M12" s="44" t="str">
-        <f>C12&amp;"--"&amp;E12</f>
+        <f t="shared" si="0"/>
         <v>新地园区--丰树园区</v>
       </c>
       <c r="N12" s="4">
-        <f>IF(OR(C12="常福园区",C12="欣程园区",C12="弗兰西蒂",E12="常福园区",E12="欣程园区",E12="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37557,11 +37691,11 @@
         <v>14</v>
       </c>
       <c r="M13" s="44" t="str">
-        <f>C13&amp;"--"&amp;E13</f>
+        <f t="shared" si="0"/>
         <v>新地园区--弗兰西蒂</v>
       </c>
       <c r="N13" s="4">
-        <f>IF(OR(C13="常福园区",C13="欣程园区",C13="弗兰西蒂",E13="常福园区",E13="欣程园区",E13="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -37603,11 +37737,11 @@
         <v>14</v>
       </c>
       <c r="M14" s="44" t="str">
-        <f>C14&amp;"--"&amp;E14</f>
+        <f t="shared" si="0"/>
         <v>新地园区--弗兰西蒂</v>
       </c>
       <c r="N14" s="4">
-        <f>IF(OR(C14="常福园区",C14="欣程园区",C14="弗兰西蒂",E14="常福园区",E14="欣程园区",E14="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -37649,11 +37783,11 @@
         <v>14</v>
       </c>
       <c r="M15" s="44" t="str">
-        <f>C15&amp;"--"&amp;E15</f>
+        <f t="shared" si="0"/>
         <v>万纬园区--新地园区</v>
       </c>
       <c r="N15" s="4">
-        <f>IF(OR(C15="常福园区",C15="欣程园区",C15="弗兰西蒂",E15="常福园区",E15="欣程园区",E15="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37695,11 +37829,11 @@
         <v>12</v>
       </c>
       <c r="M16" s="44" t="str">
-        <f>C16&amp;"--"&amp;E16</f>
+        <f t="shared" si="0"/>
         <v>丰树园区--新地园区</v>
       </c>
       <c r="N16" s="4">
-        <f>IF(OR(C16="常福园区",C16="欣程园区",C16="弗兰西蒂",E16="常福园区",E16="欣程园区",E16="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37741,11 +37875,11 @@
         <v>14</v>
       </c>
       <c r="M17" s="44" t="str">
-        <f>C17&amp;"--"&amp;E17</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N17" s="4">
-        <f>IF(OR(C17="常福园区",C17="欣程园区",C17="弗兰西蒂",E17="常福园区",E17="欣程园区",E17="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37787,11 +37921,11 @@
         <v>14</v>
       </c>
       <c r="M18" s="44" t="str">
-        <f>C18&amp;"--"&amp;E18</f>
+        <f t="shared" si="0"/>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="N18" s="4">
-        <f>IF(OR(C18="常福园区",C18="欣程园区",C18="弗兰西蒂",E18="常福园区",E18="欣程园区",E18="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -37833,11 +37967,11 @@
         <v>14</v>
       </c>
       <c r="M19" s="44" t="str">
-        <f>C19&amp;"--"&amp;E19</f>
+        <f t="shared" si="0"/>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="N19" s="4">
-        <f>IF(OR(C19="常福园区",C19="欣程园区",C19="弗兰西蒂",E19="常福园区",E19="欣程园区",E19="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40413,7 +40547,7 @@
   <dimension ref="A1:CW50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40582,15 +40716,14 @@
       <c r="F2" s="44" t="s">
         <v>1189</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>1190</v>
+      <c r="G2" s="50" t="s">
+        <v>1228</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I2" s="40" t="str">
-        <f>VLOOKUP(J2,ch!$A$1:$B$35,2,0)</f>
-        <v>粤BES791</v>
+      <c r="I2" s="40" t="s">
+        <v>678</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>631</v>
@@ -40602,11 +40735,11 @@
         <v>14</v>
       </c>
       <c r="M2" s="44" t="str">
-        <f>C2&amp;"--"&amp;E2</f>
+        <f t="shared" ref="M2:M18" si="0">C2&amp;"--"&amp;E2</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N2" s="4">
-        <f>IF(OR(C2="常福园区",C2="欣程园区",C2="弗兰西蒂",E2="常福园区",E2="欣程园区",E2="弗兰西蒂"),1250,165)</f>
+        <f t="shared" ref="N2:N18" si="1">IF(OR(C2="常福园区",C2="欣程园区",C2="弗兰西蒂",E2="常福园区",E2="欣程园区",E2="弗兰西蒂"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -40615,7 +40748,7 @@
         <v>43209</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>161</v>
@@ -40627,17 +40760,16 @@
         <v>161</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>1193</v>
+        <v>1191</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>1229</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I3" s="40" t="str">
-        <f>VLOOKUP(J3,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR876</v>
+      <c r="I3" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>1154</v>
@@ -40649,11 +40781,11 @@
         <v>14</v>
       </c>
       <c r="M3" s="44" t="str">
-        <f>C3&amp;"--"&amp;E3</f>
+        <f t="shared" si="0"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="N3" s="4">
-        <f>IF(OR(C3="常福园区",C3="欣程园区",C3="弗兰西蒂",E3="常福园区",E3="欣程园区",E3="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40662,7 +40794,7 @@
         <v>43209</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>161</v>
@@ -40674,17 +40806,16 @@
         <v>161</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>1194</v>
+        <v>1191</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>1230</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I4" s="40" t="str">
-        <f>VLOOKUP(J4,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ABY256</v>
+      <c r="I4" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>215</v>
@@ -40696,11 +40827,11 @@
         <v>14</v>
       </c>
       <c r="M4" s="44" t="str">
-        <f>C4&amp;"--"&amp;E4</f>
+        <f t="shared" si="0"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="N4" s="4">
-        <f>IF(OR(C4="常福园区",C4="欣程园区",C4="弗兰西蒂",E4="常福园区",E4="欣程园区",E4="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40709,7 +40840,7 @@
         <v>43209</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>161</v>
@@ -40723,15 +40854,14 @@
       <c r="F5" s="44" t="s">
         <v>1159</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1195</v>
+      <c r="G5" s="50" t="s">
+        <v>1231</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I5" s="40" t="str">
-        <f>VLOOKUP(J5,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ABY256</v>
+      <c r="I5" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>215</v>
@@ -40743,11 +40873,11 @@
         <v>14</v>
       </c>
       <c r="M5" s="44" t="str">
-        <f>C5&amp;"--"&amp;E5</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N5" s="4">
-        <f>IF(OR(C5="常福园区",C5="欣程园区",C5="弗兰西蒂",E5="常福园区",E5="欣程园区",E5="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40768,17 +40898,16 @@
         <v>161</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G6" s="49" t="s">
         <v>1196</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>1232</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I6" s="40" t="str">
-        <f>VLOOKUP(J6,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AAW309</v>
+      <c r="I6" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>167</v>
@@ -40790,11 +40919,11 @@
         <v>14</v>
       </c>
       <c r="M6" s="44" t="str">
-        <f>C6&amp;"--"&amp;E6</f>
+        <f t="shared" si="0"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="N6" s="4">
-        <f>IF(OR(C6="常福园区",C6="欣程园区",C6="弗兰西蒂",E6="常福园区",E6="欣程园区",E6="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40817,15 +40946,14 @@
       <c r="F7" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>1197</v>
+      <c r="G7" s="50" t="s">
+        <v>1233</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I7" s="40" t="str">
-        <f>VLOOKUP(J7,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AAW309</v>
+      <c r="I7" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>167</v>
@@ -40837,11 +40965,11 @@
         <v>14</v>
       </c>
       <c r="M7" s="44" t="str">
-        <f>C7&amp;"--"&amp;E7</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N7" s="4">
-        <f>IF(OR(C7="常福园区",C7="欣程园区",C7="弗兰西蒂",E7="常福园区",E7="欣程园区",E7="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40862,20 +40990,19 @@
         <v>66</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>1199</v>
+        <v>1192</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>1234</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I8" s="40" t="str">
-        <f>VLOOKUP(J8,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AHB101</v>
+      <c r="I8" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>1006</v>
@@ -40884,11 +41011,11 @@
         <v>14</v>
       </c>
       <c r="M8" s="44" t="str">
-        <f>C8&amp;"--"&amp;E8</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N8" s="4">
-        <f>IF(OR(C8="常福园区",C8="欣程园区",C8="弗兰西蒂",E8="常福园区",E8="欣程园区",E8="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40897,7 +41024,7 @@
         <v>43209</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>161</v>
@@ -40909,17 +41036,16 @@
         <v>66</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>1203</v>
+        <v>1195</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>1235</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I9" s="40" t="str">
-        <f>VLOOKUP(J9,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AMT870</v>
+      <c r="I9" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>1152</v>
@@ -40931,11 +41057,11 @@
         <v>14</v>
       </c>
       <c r="M9" s="44" t="str">
-        <f>C9&amp;"--"&amp;E9</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N9" s="4">
-        <f>IF(OR(C9="常福园区",C9="欣程园区",C9="弗兰西蒂",E9="常福园区",E9="欣程园区",E9="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -40958,18 +41084,17 @@
       <c r="F10" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>1205</v>
+      <c r="G10" s="50" t="s">
+        <v>1236</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I10" s="40" t="str">
-        <f>VLOOKUP(J10,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ABY256</v>
+      <c r="I10" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>1006</v>
@@ -40978,11 +41103,11 @@
         <v>14</v>
       </c>
       <c r="M10" s="44" t="str">
-        <f>C10&amp;"--"&amp;E10</f>
+        <f t="shared" si="0"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="N10" s="4">
-        <f>IF(OR(C10="常福园区",C10="欣程园区",C10="弗兰西蒂",E10="常福园区",E10="欣程园区",E10="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -41005,18 +41130,17 @@
       <c r="F11" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>1207</v>
+      <c r="G11" s="50" t="s">
+        <v>1237</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I11" s="40" t="str">
-        <f>VLOOKUP(J11,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AHB101</v>
+      <c r="I11" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>1006</v>
@@ -41025,11 +41149,11 @@
         <v>14</v>
       </c>
       <c r="M11" s="44" t="str">
-        <f>C11&amp;"--"&amp;E11</f>
+        <f t="shared" si="0"/>
         <v>新地园区--新地园区</v>
       </c>
       <c r="N11" s="4">
-        <f>IF(OR(C11="常福园区",C11="欣程园区",C11="弗兰西蒂",E11="常福园区",E11="欣程园区",E11="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -41052,18 +41176,17 @@
       <c r="F12" s="44" t="s">
         <v>1159</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>1208</v>
+      <c r="G12" s="50" t="s">
+        <v>1238</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I12" s="40" t="str">
-        <f>VLOOKUP(J12,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AHB101</v>
+      <c r="I12" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>1006</v>
@@ -41072,11 +41195,11 @@
         <v>14</v>
       </c>
       <c r="M12" s="44" t="str">
-        <f>C12&amp;"--"&amp;E12</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N12" s="4">
-        <f>IF(OR(C12="常福园区",C12="欣程园区",C12="弗兰西蒂",E12="常福园区",E12="欣程园区",E12="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -41099,18 +41222,17 @@
       <c r="F13" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1209</v>
+      <c r="G13" s="50" t="s">
+        <v>1239</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I13" s="40" t="str">
-        <f>VLOOKUP(J13,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ADU616</v>
+      <c r="I13" s="40" t="s">
+        <v>1131</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K13" s="44" t="s">
         <v>1006</v>
@@ -41119,11 +41241,11 @@
         <v>14</v>
       </c>
       <c r="M13" s="44" t="str">
-        <f>C13&amp;"--"&amp;E13</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N13" s="4">
-        <f>IF(OR(C13="常福园区",C13="欣程园区",C13="弗兰西蒂",E13="常福园区",E13="欣程园区",E13="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -41146,15 +41268,14 @@
       <c r="F14" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>1211</v>
+      <c r="G14" s="50" t="s">
+        <v>1240</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I14" s="40" t="str">
-        <f>VLOOKUP(J14,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AMT870</v>
+      <c r="I14" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="J14" s="44" t="s">
         <v>1152</v>
@@ -41166,173 +41287,473 @@
         <v>14</v>
       </c>
       <c r="M14" s="44" t="str">
-        <f>C14&amp;"--"&amp;E14</f>
+        <f t="shared" si="0"/>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="N14" s="4">
-        <f>IF(OR(C14="常福园区",C14="欣程园区",C14="弗兰西蒂",E14="常福园区",E14="欣程园区",E14="弗兰西蒂"),1250,165)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:101" s="45" customFormat="1" ht="18.75">
-      <c r="A15" s="46"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="4"/>
+      <c r="A15" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L15" s="44">
+        <v>14</v>
+      </c>
+      <c r="M15" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:101" s="45" customFormat="1" ht="18.75">
-      <c r="A16" s="46"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="4"/>
+      <c r="A16" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M16" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--弗兰西蒂</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
     </row>
     <row r="17" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A17" s="46"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="4"/>
+      <c r="A17" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L17" s="44">
+        <v>16</v>
+      </c>
+      <c r="M17" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
     </row>
     <row r="18" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A18" s="46"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="4"/>
+      <c r="A18" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L18" s="44">
+        <v>14</v>
+      </c>
+      <c r="M18" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
     </row>
     <row r="19" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A19" s="46"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="4"/>
+      <c r="A19" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L19" s="44">
+        <v>14</v>
+      </c>
+      <c r="M19" s="44" t="str">
+        <f t="shared" ref="M19:M22" si="2">C19&amp;"--"&amp;E19</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19:N22" si="3">IF(OR(C19="常福园区",C19="欣程园区",C19="弗兰西蒂",E19="常福园区",E19="欣程园区",E19="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
     </row>
     <row r="20" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A20" s="46"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="4"/>
+      <c r="A20" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M20" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>新地园区--弗兰西蒂</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
     </row>
     <row r="21" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="4"/>
+      <c r="A21" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L21" s="44">
+        <v>14</v>
+      </c>
+      <c r="M21" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="22" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A22" s="46"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="4"/>
+      <c r="A22" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L22" s="44">
+        <v>14</v>
+      </c>
+      <c r="M22" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>万纬园区--新地园区</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A23" s="46"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="4"/>
+      <c r="A23" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L23" s="44">
+        <v>14</v>
+      </c>
+      <c r="M23" s="44" t="str">
+        <f t="shared" ref="M23" si="4">C23&amp;"--"&amp;E23</f>
+        <v>万纬园区--新地园区</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23" si="5">IF(OR(C23="常福园区",C23="欣程园区",C23="弗兰西蒂",E23="常福园区",E23="欣程园区",E23="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="1:14" s="45" customFormat="1" ht="18.75">
-      <c r="A24" s="46"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="4"/>
+      <c r="A24" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J24" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L24" s="44">
+        <v>6</v>
+      </c>
+      <c r="M24" s="44" t="str">
+        <f t="shared" ref="M24" si="6">C24&amp;"--"&amp;E24</f>
+        <v>万纬园区--新地园区</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" ref="N24" si="7">IF(OR(C24="常福园区",C24="欣程园区",C24="弗兰西蒂",E24="常福园区",E24="欣程园区",E24="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="25" spans="1:14" s="45" customFormat="1" ht="18.75">
       <c r="A25" s="46"/>
@@ -41760,8 +42181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50522,6 +50943,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\weiwei\4月报表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{066AAF74-3F6F-4D9C-A2DA-CA1D978C4B5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7200" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7200" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -34,13 +28,14 @@
     <sheet name="4-18" sheetId="24" r:id="rId19"/>
     <sheet name="4-19" sheetId="26" r:id="rId20"/>
     <sheet name="4-20" sheetId="27" r:id="rId21"/>
-    <sheet name="ch" sheetId="3" r:id="rId22"/>
-    <sheet name="分析图" sheetId="13" r:id="rId23"/>
-    <sheet name="汇总明细" sheetId="9" r:id="rId24"/>
-    <sheet name="Sheet1" sheetId="25" r:id="rId25"/>
+    <sheet name="4-21" sheetId="28" r:id="rId22"/>
+    <sheet name="ch" sheetId="3" r:id="rId23"/>
+    <sheet name="分析图" sheetId="13" r:id="rId24"/>
+    <sheet name="汇总明细" sheetId="9" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$I$1:$I$41</definedName>
@@ -56,22 +51,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'4-19'!$A$1:$O$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'4-20'!$A$1:$O$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'4-21'!$A$1:$O$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4-6'!$A$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'4-8'!$A$1:$P$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'4-9'!$A$1:$P$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId27"/>
-    <pivotCache cacheId="2" r:id="rId28"/>
+    <pivotCache cacheId="0" r:id="rId28"/>
+    <pivotCache cacheId="1" r:id="rId29"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6139" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="1356">
   <si>
     <t>发车时间</t>
   </si>
@@ -4792,12 +4788,195 @@
   </si>
   <si>
     <t>WW0017500</t>
+  </si>
+  <si>
+    <t>WW0017259</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17062</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18259</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18257</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18258</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17261</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17260</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17299</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17298</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17190</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17060</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17061</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15905</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚建国</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15904</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16819</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16818</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17296</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15979</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡允源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18700</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16946</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17430</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祚红</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>马广楠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙金刚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货A家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房</t>
+  </si>
+  <si>
+    <t>陈娜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰树园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B米面粮油仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15977</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李威、周丹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17063</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻海涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17139</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16865</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19116</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19118</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;鄂A&quot;@"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
@@ -5222,34 +5401,94 @@
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 2 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="常规 7" xfId="9" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 7 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 7 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 8" xfId="10" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="常规 8 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 8 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 9 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="常规 9 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 9 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="5"/>
+    <cellStyle name="常规 2 2 2" xfId="24"/>
+    <cellStyle name="常规 2 2 3" xfId="21"/>
+    <cellStyle name="常规 2 3" xfId="7"/>
+    <cellStyle name="常规 2 3 2" xfId="17"/>
+    <cellStyle name="常规 2 4" xfId="14"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="8"/>
+    <cellStyle name="常规 3 2 2" xfId="18"/>
+    <cellStyle name="常规 3 3" xfId="15"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 4 2" xfId="16"/>
+    <cellStyle name="常规 5" xfId="6"/>
+    <cellStyle name="常规 5 2" xfId="11"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 7" xfId="9"/>
+    <cellStyle name="常规 7 2" xfId="25"/>
+    <cellStyle name="常规 7 3" xfId="22"/>
+    <cellStyle name="常规 8" xfId="10"/>
+    <cellStyle name="常规 8 2" xfId="13"/>
+    <cellStyle name="常规 8 3" xfId="19"/>
+    <cellStyle name="常规 9" xfId="12"/>
+    <cellStyle name="常规 9 2" xfId="20"/>
+    <cellStyle name="常规 9 2 2" xfId="26"/>
+    <cellStyle name="常规 9 2 3" xfId="23"/>
   </cellStyles>
-  <dxfs count="212">
+  <dxfs count="217">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7806,27 +8045,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[4月TC报表.xlsx]分析!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:title/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -7840,7 +8066,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7855,7 +8080,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>分析!$A$2:$A$14</c:f>
@@ -7937,94 +8161,65 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F1B-49F5-9D0C-11070070240A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="73860992"/>
-        <c:axId val="73862528"/>
+        <c:axId val="96460160"/>
+        <c:axId val="96470144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73860992"/>
+        <c:axId val="96460160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73862528"/>
+        <c:crossAx val="96470144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73862528"/>
+        <c:axId val="96470144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73860992"/>
+        <c:crossAx val="96460160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[4月TC报表.xlsx]分析图!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -8059,13 +8254,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8100,13 +8290,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8141,13 +8326,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8182,13 +8362,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8223,13 +8398,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8264,13 +8434,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8305,13 +8470,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8346,13 +8506,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8387,13 +8542,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8428,13 +8578,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8469,13 +8614,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8510,13 +8650,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8551,13 +8686,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8592,13 +8722,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8633,13 +8758,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8674,13 +8794,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8715,13 +8830,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8756,13 +8866,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8797,13 +8902,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8838,13 +8938,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8879,13 +8974,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8920,13 +9010,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -8961,13 +9046,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9002,13 +9082,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9043,13 +9118,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9084,13 +9154,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9125,13 +9190,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9166,13 +9226,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9207,13 +9262,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9248,13 +9298,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9289,13 +9334,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9330,13 +9370,8 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:delete val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -9375,13 +9410,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -9403,13 +9438,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -9431,13 +9466,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -9459,13 +9494,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -9487,13 +9522,13 @@
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:gs>
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
@@ -9519,13 +9554,12 @@
           <c:x val="0.18258271435078877"/>
           <c:y val="0.11843426979035028"/>
           <c:w val="0.65911740371296557"/>
-          <c:h val="0.77786915524448719"/>
+          <c:h val="0.77786915524448763"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9562,7 +9596,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -9595,7 +9628,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -9637,7 +9670,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -9670,7 +9702,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000044-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -9712,7 +9744,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -9745,7 +9776,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000045-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -9787,7 +9818,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -9820,7 +9850,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000046-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -9862,7 +9892,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -9904,7 +9933,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000047-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
@@ -9946,7 +9975,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>分析图!$A$5:$A$9</c:f>
@@ -9979,34 +10007,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000048-FA1C-43DB-A1E4-4FD63B512760}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="91722112"/>
-        <c:axId val="91723648"/>
+        <c:axId val="98697216"/>
+        <c:axId val="98698752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91722112"/>
+        <c:axId val="98697216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10035,19 +10053,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91723648"/>
+        <c:crossAx val="98698752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91723648"/>
+        <c:axId val="98698752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -10065,7 +10081,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10094,7 +10109,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91722112"/>
+        <c:crossAx val="98697216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10108,7 +10123,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
@@ -10143,14 +10157,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:pattFill prst="dkDnDiag">
@@ -10187,10 +10200,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -10812,7 +10825,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10853,7 +10866,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10875,7 +10888,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -11147,7 +11160,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="LENOVO" refreshedDate="43198.888957870367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="146" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="LENOVO" refreshedDate="43198.888957870367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="146">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N129" sheet="汇总明细"/>
   </cacheSource>
@@ -11278,7 +11291,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="bobo" refreshedDate="43204.839384143517" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="bobo" refreshedDate="43204.839384143517" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="21">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P22" sheet="4-13"/>
   </cacheSource>
@@ -14076,7 +14089,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="14" showAll="0"/>
@@ -14185,7 +14198,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-1500-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -14425,7 +14438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14467,7 +14480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14499,27 +14512,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14551,24 +14546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14744,7 +14721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16415,7 +16392,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="211" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16423,7 +16400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY131"/>
   <sheetViews>
     <sheetView topLeftCell="D10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -19671,30 +19648,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="137" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="136" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="134" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="132" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="130" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="129" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="127" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19702,7 +19679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY112"/>
   <sheetViews>
     <sheetView topLeftCell="E28" workbookViewId="0">
@@ -23089,30 +23066,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="125" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="124" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="122" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="120" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="118" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="117" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="115" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="120"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23120,7 +23097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY79"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -25718,36 +25695,36 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="113" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="112" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="110" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="108" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="105" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="104" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="102" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23 H25:H28">
-    <cfRule type="duplicateValues" dxfId="100" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25755,7 +25732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25888,7 +25865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27647,31 +27624,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="97" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="96" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="94" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="92" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="89" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="88" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="86" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="183"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27679,7 +27656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY35"/>
   <sheetViews>
     <sheetView topLeftCell="F28" workbookViewId="0">
@@ -29648,79 +29625,79 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="84" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33 G2:G25">
-    <cfRule type="duplicateValues" dxfId="81" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33 G2:G25">
-    <cfRule type="duplicateValues" dxfId="80" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="duplicateValues" dxfId="78" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="75" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="71" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="65" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="63" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="61" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="58" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="54" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29728,7 +29705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY59"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -32967,20 +32944,20 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="46" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32988,7 +32965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX46"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -34817,7 +34794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY98"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -37538,20 +37515,20 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="41" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37559,7 +37536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW68"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
@@ -39316,7 +39293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -41101,19 +41078,19 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="210" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42799,11 +42776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C570F4-1B22-416A-8C18-433614FF9FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44276,16 +44253,16 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G22 G28:G29 G31:G1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G27">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44293,11 +44270,1816 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CX48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16" style="39" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="39" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="39" customWidth="1"/>
+    <col min="14" max="14" width="29.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="39" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:102" ht="18.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="35"/>
+      <c r="CG1" s="35"/>
+      <c r="CH1" s="35"/>
+      <c r="CI1" s="35"/>
+      <c r="CJ1" s="35"/>
+      <c r="CK1" s="35"/>
+      <c r="CL1" s="35"/>
+      <c r="CM1" s="35"/>
+      <c r="CN1" s="35"/>
+      <c r="CO1" s="35"/>
+      <c r="CP1" s="35"/>
+      <c r="CQ1" s="35"/>
+      <c r="CR1" s="35"/>
+      <c r="CS1" s="35"/>
+      <c r="CT1" s="35"/>
+      <c r="CU1" s="35"/>
+      <c r="CV1" s="35"/>
+      <c r="CW1" s="35"/>
+      <c r="CX1" s="35"/>
+    </row>
+    <row r="2" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A2" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J2" s="40" t="str">
+        <f>VLOOKUP(K2,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M2" s="44">
+        <v>14</v>
+      </c>
+      <c r="N2" s="44" t="str">
+        <f t="shared" ref="N2:N23" si="0">C2&amp;"--"&amp;E2</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O23" si="1">IF(OR(C2="常福园区",C2="欣程园区",C2="弗兰西蒂",E2="常福园区",E2="欣程园区",E2="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A3" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J3" s="40" t="str">
+        <f>VLOOKUP(K3,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M3" s="44">
+        <v>14</v>
+      </c>
+      <c r="N3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A4" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>VLOOKUP(K4,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ADU616</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M4" s="44">
+        <v>14</v>
+      </c>
+      <c r="N4" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A5" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f>VLOOKUP(K5,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ADU616</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M5" s="44">
+        <v>14</v>
+      </c>
+      <c r="N5" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A6" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J6" s="40" t="str">
+        <f>VLOOKUP(K6,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ADU616</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M6" s="44">
+        <v>14</v>
+      </c>
+      <c r="N6" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A7" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J7" s="40" t="str">
+        <f>VLOOKUP(K7,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M7" s="44">
+        <v>14</v>
+      </c>
+      <c r="N7" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A8" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J8" s="40" t="str">
+        <f>VLOOKUP(K8,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M8" s="44">
+        <v>14</v>
+      </c>
+      <c r="N8" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A9" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J9" s="40" t="str">
+        <f>VLOOKUP(K9,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M9" s="44">
+        <v>14</v>
+      </c>
+      <c r="N9" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A10" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>867</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J10" s="40" t="str">
+        <f>VLOOKUP(K10,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M10" s="44">
+        <v>14</v>
+      </c>
+      <c r="N10" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A11" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J11" s="40" t="str">
+        <f>VLOOKUP(K11,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M11" s="44">
+        <v>14</v>
+      </c>
+      <c r="N11" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A12" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J12" s="40" t="str">
+        <f>VLOOKUP(K12,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M12" s="44">
+        <v>14</v>
+      </c>
+      <c r="N12" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A13" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J13" s="40" t="str">
+        <f>VLOOKUP(K13,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M13" s="44">
+        <v>14</v>
+      </c>
+      <c r="N13" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A14" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J14" s="40" t="str">
+        <f>VLOOKUP(K14,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M14" s="44">
+        <v>14</v>
+      </c>
+      <c r="N14" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A15" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J15" s="40" t="str">
+        <f>VLOOKUP(K15,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M15" s="44">
+        <v>14</v>
+      </c>
+      <c r="N15" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A16" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J16" s="40" t="str">
+        <f>VLOOKUP(K16,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M16" s="44">
+        <v>14</v>
+      </c>
+      <c r="N16" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A17" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J17" s="40" t="str">
+        <f>VLOOKUP(K17,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M17" s="44">
+        <v>14</v>
+      </c>
+      <c r="N17" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--万纬园区</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A18" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J18" s="40" t="str">
+        <f>VLOOKUP(K18,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M18" s="44">
+        <v>14</v>
+      </c>
+      <c r="N18" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A19" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M19" s="44">
+        <v>14</v>
+      </c>
+      <c r="N19" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A20" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J20" s="40" t="str">
+        <f>VLOOKUP(K20,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M20" s="44">
+        <v>15</v>
+      </c>
+      <c r="N20" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--弗兰西蒂</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A21" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>978</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J21" s="40" t="str">
+        <f>VLOOKUP(K21,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M21" s="44">
+        <v>13</v>
+      </c>
+      <c r="N21" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A22" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>978</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J22" s="40" t="str">
+        <f>VLOOKUP(K22,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M22" s="44">
+        <v>15</v>
+      </c>
+      <c r="N22" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A23" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J23" s="40" t="str">
+        <f>VLOOKUP(K23,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AFX299</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M23" s="44">
+        <v>14</v>
+      </c>
+      <c r="N23" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A24" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J24" s="40" t="str">
+        <f>VLOOKUP(K24,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AFX299</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M24" s="44">
+        <v>14</v>
+      </c>
+      <c r="N24" s="44" t="str">
+        <f t="shared" ref="N24:N28" si="2">C24&amp;"--"&amp;E24</f>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" ref="O24:O28" si="3">IF(OR(C24="常福园区",C24="欣程园区",C24="弗兰西蒂",E24="常福园区",E24="欣程园区",E24="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A25" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J25" s="40" t="str">
+        <f>VLOOKUP(K25,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ADU616</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M25" s="44">
+        <v>12</v>
+      </c>
+      <c r="N25" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>丰树园区--新地园区</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A26" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J26" s="40" t="str">
+        <f>VLOOKUP(K26,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>999</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M26" s="44">
+        <v>14</v>
+      </c>
+      <c r="N26" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A27" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J27" s="40" t="str">
+        <f>VLOOKUP(K27,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M27" s="44">
+        <v>14</v>
+      </c>
+      <c r="N27" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A28" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>976</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J28" s="40" t="str">
+        <f>VLOOKUP(K28,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AMR731</v>
+      </c>
+      <c r="K28" s="44" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M28" s="44">
+        <v>14</v>
+      </c>
+      <c r="N28" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A30" s="46"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A32" s="46"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A33" s="46"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A34" s="46"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A36" s="46"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A38" s="46"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A41" s="46"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A43" s="46"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A45" s="46"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A46" s="46"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A48" s="46"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:B35"/>
+      <selection activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44593,8 +46375,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -44762,8 +46544,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW169"/>
   <sheetViews>
     <sheetView topLeftCell="A160" workbookViewId="0">
@@ -52933,81 +54715,81 @@
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G26:G49">
-    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:G159 G86:G111 G165">
-    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G98">
-    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:G159 G99:G111 G165">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G98">
-    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:G159 G99:G111 G165">
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G129 G160:G164">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G129 G160:G164">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G129 G160:G164">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G151">
-    <cfRule type="duplicateValues" dxfId="13" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G151">
-    <cfRule type="duplicateValues" dxfId="12" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G151">
-    <cfRule type="duplicateValues" dxfId="10" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:G1048576 G152:G156 G1:G25">
-    <cfRule type="duplicateValues" dxfId="8" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166:G167 G71:H85">
-    <cfRule type="duplicateValues" dxfId="7" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166:G167 G71:H85">
-    <cfRule type="duplicateValues" dxfId="5" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:G169 G50:G70">
-    <cfRule type="duplicateValues" dxfId="3" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:G169 G50:G70">
-    <cfRule type="duplicateValues" dxfId="1" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -53071,7 +54853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -55016,11 +56798,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="208" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="206" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -55028,7 +56810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CZ22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -56229,12 +58011,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="205" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="203" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56242,7 +58024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY31"/>
   <sheetViews>
     <sheetView topLeftCell="E19" workbookViewId="0">
@@ -58057,23 +59839,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="201" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="200" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="198" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="196" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="194" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58081,7 +59863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY49"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -59959,23 +61741,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="192" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="191" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="189" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="187" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="185" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59983,7 +61765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY42"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -61651,23 +63433,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="183" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="182" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="180" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="178" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="176" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61675,7 +63457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY168"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -65542,37 +67324,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="174" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="173" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="171" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="169" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="168" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="166" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="164" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="162" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="160" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -65580,7 +67362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY147"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -68968,54 +70750,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="159" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="158" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="156" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="154" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="153" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="152" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="151" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="149" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="147" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="145" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="143" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="142" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="141" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="139" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6424" uniqueCount="1356">
   <si>
     <t>发车时间</t>
   </si>
@@ -4790,187 +4790,160 @@
     <t>WW0017500</t>
   </si>
   <si>
+    <t>潘涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚建国</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡允源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祚红</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>马广楠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙金刚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货A家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房</t>
+  </si>
+  <si>
+    <t>陈娜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰树园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B米面粮油仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李威、周丹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻海涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>WW0017259</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17062</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘涛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18259</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18257</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18258</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17261</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17260</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>张亚军</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17299</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17298</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17190</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17060</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17061</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15905</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚建国</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15904</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房(B-3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16819</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16818</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17296</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15979</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡允源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18700</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16946</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17430</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>张祚红</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>马广楠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙金刚</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货A家居日用仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房</t>
-  </si>
-  <si>
-    <t>陈娜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰树园区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉商超B米面粮油仓2号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房（B-10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15977</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李威、周丹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货B家居日用仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17063</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>喻海涛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17139</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16865</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>19116</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>19118</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017062</t>
+  </si>
+  <si>
+    <t>WW0018259</t>
+  </si>
+  <si>
+    <t>WW0018257</t>
+  </si>
+  <si>
+    <t>WW0018258</t>
+  </si>
+  <si>
+    <t>WW0017261</t>
+  </si>
+  <si>
+    <t>WW0017260</t>
+  </si>
+  <si>
+    <t>WW0017299</t>
+  </si>
+  <si>
+    <t>WW0017298</t>
+  </si>
+  <si>
+    <t>WW0017190</t>
+  </si>
+  <si>
+    <t>WW0017060</t>
+  </si>
+  <si>
+    <t>WW0017061</t>
+  </si>
+  <si>
+    <t>WW0015905</t>
+  </si>
+  <si>
+    <t>WW0015904</t>
+  </si>
+  <si>
+    <t>WW0016819</t>
+  </si>
+  <si>
+    <t>WW0016818</t>
+  </si>
+  <si>
+    <t>WW0017296</t>
+  </si>
+  <si>
+    <t>WW0015979</t>
+  </si>
+  <si>
+    <t>WW0018700</t>
+  </si>
+  <si>
+    <t>WW0016946</t>
+  </si>
+  <si>
+    <t>WW0017430</t>
+  </si>
+  <si>
+    <t>WW0019116</t>
+  </si>
+  <si>
+    <t>WW0019118</t>
+  </si>
+  <si>
+    <t>WW0015977</t>
+  </si>
+  <si>
+    <t>WW0017063</t>
+  </si>
+  <si>
+    <t>WW0017139</t>
+  </si>
+  <si>
+    <t>WW0016865</t>
   </si>
 </sst>
 </file>
@@ -42779,8 +42752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX29"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44273,8 +44246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44449,15 +44422,14 @@
         <v>371</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>1310</v>
+        <v>1329</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J2" s="40" t="str">
-        <f>VLOOKUP(K2,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AHB101</v>
+      <c r="J2" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="K2" s="44" t="s">
         <v>157</v>
@@ -44496,19 +44468,18 @@
       <c r="F3" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="G3" s="49" t="s">
-        <v>1311</v>
+      <c r="G3" s="50" t="s">
+        <v>1330</v>
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J3" s="40" t="str">
-        <f>VLOOKUP(K3,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR992</v>
+      <c r="J3" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="L3" s="44" t="s">
         <v>1006</v>
@@ -44544,16 +44515,15 @@
       <c r="F4" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>1313</v>
+      <c r="G4" s="50" t="s">
+        <v>1331</v>
       </c>
       <c r="H4" s="49"/>
       <c r="I4" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J4" s="40" t="str">
-        <f>VLOOKUP(K4,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ADU616</v>
+      <c r="J4" s="40" t="s">
+        <v>1131</v>
       </c>
       <c r="K4" s="44" t="s">
         <v>1093</v>
@@ -44592,16 +44562,15 @@
       <c r="F5" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1314</v>
+      <c r="G5" s="50" t="s">
+        <v>1332</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J5" s="40" t="str">
-        <f>VLOOKUP(K5,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ADU616</v>
+      <c r="J5" s="40" t="s">
+        <v>1131</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>1093</v>
@@ -44640,16 +44609,15 @@
       <c r="F6" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>1315</v>
+      <c r="G6" s="50" t="s">
+        <v>1333</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J6" s="40" t="str">
-        <f>VLOOKUP(K6,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ADU616</v>
+      <c r="J6" s="40" t="s">
+        <v>1131</v>
       </c>
       <c r="K6" s="44" t="s">
         <v>1093</v>
@@ -44688,16 +44656,15 @@
       <c r="F7" s="44" t="s">
         <v>1196</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>1316</v>
+      <c r="G7" s="50" t="s">
+        <v>1334</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J7" s="40" t="str">
-        <f>VLOOKUP(K7,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AHB101</v>
+      <c r="J7" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>157</v>
@@ -44736,16 +44703,15 @@
       <c r="F8" s="44" t="s">
         <v>1260</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>1317</v>
+      <c r="G8" s="50" t="s">
+        <v>1335</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J8" s="40" t="str">
-        <f>VLOOKUP(K8,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AHB101</v>
+      <c r="J8" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>157</v>
@@ -44770,7 +44736,7 @@
         <v>43211</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>161</v>
@@ -44784,16 +44750,15 @@
       <c r="F9" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>1319</v>
+      <c r="G9" s="50" t="s">
+        <v>1336</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J9" s="40" t="str">
-        <f>VLOOKUP(K9,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR876</v>
+      <c r="J9" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="K9" s="44" t="s">
         <v>281</v>
@@ -44832,16 +44797,15 @@
       <c r="F10" s="44" t="s">
         <v>867</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>1320</v>
+      <c r="G10" s="50" t="s">
+        <v>1337</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J10" s="40" t="str">
-        <f>VLOOKUP(K10,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR876</v>
+      <c r="J10" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>281</v>
@@ -44880,16 +44844,15 @@
       <c r="F11" s="44" t="s">
         <v>1015</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>1321</v>
+      <c r="G11" s="50" t="s">
+        <v>1338</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J11" s="40" t="str">
-        <f>VLOOKUP(K11,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ABY277</v>
+      <c r="J11" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>786</v>
@@ -44928,16 +44891,15 @@
       <c r="F12" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>1322</v>
+      <c r="G12" s="50" t="s">
+        <v>1339</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J12" s="40" t="str">
-        <f>VLOOKUP(K12,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR992</v>
+      <c r="J12" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>201</v>
@@ -44976,16 +44938,15 @@
       <c r="F13" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1323</v>
+      <c r="G13" s="50" t="s">
+        <v>1340</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J13" s="40" t="str">
-        <f>VLOOKUP(K13,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR992</v>
+      <c r="J13" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="K13" s="44" t="s">
         <v>201</v>
@@ -45024,16 +44985,15 @@
       <c r="F14" s="44" t="s">
         <v>1260</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>1324</v>
+      <c r="G14" s="50" t="s">
+        <v>1341</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J14" s="40" t="str">
-        <f>VLOOKUP(K14,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AMT870</v>
+      <c r="J14" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>176</v>
@@ -45058,7 +45018,7 @@
         <v>43211</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>161</v>
@@ -45072,16 +45032,15 @@
       <c r="F15" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="G15" s="49" t="s">
-        <v>1326</v>
+      <c r="G15" s="50" t="s">
+        <v>1342</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J15" s="40" t="str">
-        <f>VLOOKUP(K15,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AMT870</v>
+      <c r="J15" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>176</v>
@@ -45112,7 +45071,7 @@
         <v>161</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>59</v>
@@ -45120,16 +45079,15 @@
       <c r="F16" s="44" t="s">
         <v>1100</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>1328</v>
+      <c r="G16" s="50" t="s">
+        <v>1343</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J16" s="40" t="str">
-        <f>VLOOKUP(K16,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂FJU350</v>
+      <c r="J16" s="40" t="s">
+        <v>17</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>52</v>
@@ -45160,7 +45118,7 @@
         <v>161</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>59</v>
@@ -45168,16 +45126,15 @@
       <c r="F17" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="G17" s="49" t="s">
-        <v>1329</v>
+      <c r="G17" s="50" t="s">
+        <v>1344</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J17" s="40" t="str">
-        <f>VLOOKUP(K17,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂FJU350</v>
+      <c r="J17" s="40" t="s">
+        <v>17</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>52</v>
@@ -45202,7 +45159,7 @@
         <v>43211</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>161</v>
@@ -45216,16 +45173,15 @@
       <c r="F18" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="G18" s="49" t="s">
-        <v>1330</v>
+      <c r="G18" s="50" t="s">
+        <v>1345</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J18" s="40" t="str">
-        <f>VLOOKUP(K18,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR876</v>
+      <c r="J18" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>281</v>
@@ -45264,8 +45220,8 @@
       <c r="F19" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="G19" s="49" t="s">
-        <v>1331</v>
+      <c r="G19" s="50" t="s">
+        <v>1346</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="44" t="s">
@@ -45275,7 +45231,7 @@
         <v>1131</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="L19" s="44" t="s">
         <v>1006</v>
@@ -45309,18 +45265,17 @@
         <v>985</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>1334</v>
+        <v>1315</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>1347</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J20" s="40" t="str">
-        <f>VLOOKUP(K20,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AFE237</v>
+      <c r="J20" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>222</v>
@@ -45359,16 +45314,15 @@
       <c r="F21" s="44" t="s">
         <v>978</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>1335</v>
+      <c r="G21" s="50" t="s">
+        <v>1348</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J21" s="40" t="str">
-        <f>VLOOKUP(K21,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZV377</v>
+      <c r="J21" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>54</v>
@@ -45407,16 +45361,15 @@
       <c r="F22" s="44" t="s">
         <v>978</v>
       </c>
-      <c r="G22" s="49" t="s">
-        <v>1336</v>
+      <c r="G22" s="50" t="s">
+        <v>1349</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J22" s="40" t="str">
-        <f>VLOOKUP(K22,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZV373</v>
+      <c r="J22" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>919</v>
@@ -45441,7 +45394,7 @@
         <v>43211</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>253</v>
@@ -45455,19 +45408,18 @@
       <c r="F23" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="G23" s="49" t="s">
-        <v>1354</v>
+      <c r="G23" s="50" t="s">
+        <v>1350</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J23" s="40" t="str">
-        <f>VLOOKUP(K23,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AFX299</v>
+      <c r="J23" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="L23" s="44" t="s">
         <v>1006</v>
@@ -45489,13 +45441,13 @@
         <v>43211</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>253</v>
@@ -45503,19 +45455,18 @@
       <c r="F24" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="G24" s="49" t="s">
-        <v>1355</v>
+      <c r="G24" s="50" t="s">
+        <v>1351</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J24" s="40" t="str">
-        <f>VLOOKUP(K24,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AFX299</v>
+      <c r="J24" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="L24" s="44" t="s">
         <v>1006</v>
@@ -45537,30 +45488,29 @@
         <v>43211</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>253</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>1346</v>
+        <v>1324</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>1352</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J25" s="40" t="str">
-        <f>VLOOKUP(K25,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ADU616</v>
+      <c r="J25" s="40" t="s">
+        <v>1131</v>
       </c>
       <c r="K25" s="44" t="s">
         <v>1093</v>
@@ -45585,30 +45535,29 @@
         <v>43211</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>1347</v>
+        <v>1325</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>1348</v>
+        <v>1326</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>253</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>1349</v>
+        <v>1320</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>1353</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J26" s="40" t="str">
-        <f>VLOOKUP(K26,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AZR992</v>
+      <c r="J26" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>999</v>
@@ -45633,7 +45582,7 @@
         <v>43211</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>253</v>
@@ -45647,16 +45596,15 @@
       <c r="F27" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>1352</v>
+      <c r="G27" s="50" t="s">
+        <v>1354</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J27" s="40" t="str">
-        <f>VLOOKUP(K27,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂ABY277</v>
+      <c r="J27" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K27" s="44" t="s">
         <v>260</v>
@@ -45687,7 +45635,7 @@
         <v>253</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>1350</v>
+        <v>1327</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>628</v>
@@ -45695,19 +45643,18 @@
       <c r="F28" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>1353</v>
+      <c r="G28" s="50" t="s">
+        <v>1355</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="J28" s="40" t="str">
-        <f>VLOOKUP(K28,ch!$A$1:$B$35,2,0)</f>
-        <v>鄂AMR731</v>
+      <c r="J28" s="40" t="s">
+        <v>918</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>1351</v>
+        <v>1328</v>
       </c>
       <c r="L28" s="44" t="s">
         <v>1006</v>
@@ -46071,6 +46018,7 @@
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -54789,7 +54737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/4月报表/4月TC报表.xlsx
+++ b/4月报表/4月TC报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7200" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7200" firstSheet="17" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="4-19" sheetId="26" r:id="rId20"/>
     <sheet name="4-20" sheetId="27" r:id="rId21"/>
     <sheet name="4-21" sheetId="28" r:id="rId22"/>
-    <sheet name="ch" sheetId="3" r:id="rId23"/>
-    <sheet name="分析图" sheetId="13" r:id="rId24"/>
-    <sheet name="汇总明细" sheetId="9" r:id="rId25"/>
-    <sheet name="Sheet1" sheetId="25" r:id="rId26"/>
+    <sheet name="4-22" sheetId="29" r:id="rId23"/>
+    <sheet name="ch" sheetId="3" r:id="rId24"/>
+    <sheet name="分析图" sheetId="13" r:id="rId25"/>
+    <sheet name="汇总明细" sheetId="9" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$I$1:$I$41</definedName>
@@ -52,6 +53,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$1:$P$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'4-20'!$A$1:$O$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'4-21'!$A$1:$O$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'4-22'!$A$1:$O$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$1:$Q$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4-6'!$A$1:$P$23</definedName>
@@ -60,14 +62,14 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId28"/>
-    <pivotCache cacheId="1" r:id="rId29"/>
+    <pivotCache cacheId="0" r:id="rId29"/>
+    <pivotCache cacheId="1" r:id="rId30"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6424" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="1408">
   <si>
     <t>发车时间</t>
   </si>
@@ -4339,30 +4341,678 @@
     <t>WW0017402</t>
   </si>
   <si>
+    <t>WW0017282</t>
+  </si>
+  <si>
+    <t>WW0017283</t>
+  </si>
+  <si>
+    <t>WW0017284</t>
+  </si>
+  <si>
+    <t>WW0017250</t>
+  </si>
+  <si>
+    <t>黄燕平</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家具建材仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡定操</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉百货B家居日用仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货Ｂ家居日用仓号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕文杰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙金刚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货A家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉分拣配送中心安利KA仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪家国</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>程斌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周丹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲一号园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-13)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡元文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电1，电2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李耀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16板22托盘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常福园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰本蒂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代永华</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋辉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉生活小家电1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>童红兵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>14板加多件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李威</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一3CB电脑办公仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-13)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈和敏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏洋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万纬园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B个护清洁仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>程斌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉公共平台1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016747</t>
+  </si>
+  <si>
+    <t>WW0017288</t>
+  </si>
+  <si>
+    <t>WW0019745</t>
+  </si>
+  <si>
+    <t>WW0019746</t>
+  </si>
+  <si>
+    <t>WW0018118</t>
+  </si>
+  <si>
+    <t>WW0018116</t>
+  </si>
+  <si>
+    <t>WW0017252</t>
+  </si>
+  <si>
+    <t>WW0017407</t>
+  </si>
+  <si>
+    <t>WW0019747</t>
+  </si>
+  <si>
+    <t>WW0017254</t>
+  </si>
+  <si>
+    <t>WW0017251</t>
+  </si>
+  <si>
+    <t>WW0017175</t>
+  </si>
+  <si>
+    <t>WW0017406</t>
+  </si>
+  <si>
+    <t>WW0019749</t>
+  </si>
+  <si>
+    <t>WW0016814</t>
+  </si>
+  <si>
+    <t>WW0016939</t>
+  </si>
+  <si>
+    <t>WW0017872</t>
+  </si>
+  <si>
+    <t>WW0017133</t>
+  </si>
+  <si>
+    <t>WW0018699</t>
+  </si>
+  <si>
+    <t>WW0015853</t>
+  </si>
+  <si>
+    <t>WW0018251</t>
+  </si>
+  <si>
+    <t>WW0018252</t>
+  </si>
+  <si>
+    <t>WW0018253</t>
+  </si>
+  <si>
+    <t>补单号（原单）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018774</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">邵金海 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕玉霞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万纬园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 武汉服装1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TC库房 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李耀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代永华</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B母婴玩具仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛向飞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰西蒂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨柳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲一号园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一3CA数码通讯仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房 （B-13）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李威</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚3CB电脑办公仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房 （B-11）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周丹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房 （B-12）</t>
+  </si>
+  <si>
+    <t>TC库房</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕文杰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉公共平台6号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王加先</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ANH992</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉百货B家具建材仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明华</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ALU151</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0015859</t>
+  </si>
+  <si>
+    <t>WW0017417</t>
+  </si>
+  <si>
+    <t>WW0017418</t>
+  </si>
+  <si>
+    <t>WW0017981</t>
+  </si>
+  <si>
+    <t>WW0017980</t>
+  </si>
+  <si>
+    <t>WW0017979</t>
+  </si>
+  <si>
+    <t>WW0015860</t>
+  </si>
+  <si>
+    <t>WW0017135</t>
+  </si>
+  <si>
+    <t>WW0017136</t>
+  </si>
+  <si>
+    <t>WW0017121</t>
+  </si>
+  <si>
+    <t>WW0017119</t>
+  </si>
+  <si>
+    <t>WW0017426</t>
+  </si>
+  <si>
+    <t>WW0017874</t>
+  </si>
+  <si>
+    <t>WW0017427</t>
+  </si>
+  <si>
+    <t>WW0018254</t>
+  </si>
+  <si>
+    <t>WW0018255</t>
+  </si>
+  <si>
+    <t>WW0018652</t>
+  </si>
+  <si>
+    <t>WW0016817</t>
+  </si>
+  <si>
+    <t>WW0016941</t>
+  </si>
+  <si>
+    <t>WW0016942</t>
+  </si>
+  <si>
+    <t>WW0016943</t>
+  </si>
+  <si>
+    <t>WW0016749</t>
+  </si>
+  <si>
+    <t>WW0017982</t>
+  </si>
+  <si>
+    <t>WW0017137</t>
+  </si>
+  <si>
+    <t>WW0018256</t>
+  </si>
+  <si>
+    <t>WW0017257</t>
+  </si>
+  <si>
+    <t>WW0018230</t>
+  </si>
+  <si>
+    <t>WW0017500</t>
+  </si>
+  <si>
+    <t>潘涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚军</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚建国</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房(B-3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡允源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祚红</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>马广楠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙金刚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货A家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房</t>
+  </si>
+  <si>
+    <t>陈娜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰树园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超B米面粮油仓2号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李威、周丹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一百货B家居日用仓1号库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻海涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017259</t>
+  </si>
+  <si>
+    <t>WW0017062</t>
+  </si>
+  <si>
+    <t>WW0018259</t>
+  </si>
+  <si>
+    <t>WW0018257</t>
+  </si>
+  <si>
+    <t>WW0018258</t>
+  </si>
+  <si>
+    <t>WW0017261</t>
+  </si>
+  <si>
+    <t>WW0017260</t>
+  </si>
+  <si>
+    <t>WW0017299</t>
+  </si>
+  <si>
+    <t>WW0017298</t>
+  </si>
+  <si>
+    <t>WW0017190</t>
+  </si>
+  <si>
+    <t>WW0017060</t>
+  </si>
+  <si>
+    <t>WW0017061</t>
+  </si>
+  <si>
+    <t>WW0015905</t>
+  </si>
+  <si>
+    <t>WW0015904</t>
+  </si>
+  <si>
+    <t>WW0016819</t>
+  </si>
+  <si>
+    <t>WW0016818</t>
+  </si>
+  <si>
+    <t>WW0017296</t>
+  </si>
+  <si>
+    <t>WW0015979</t>
+  </si>
+  <si>
+    <t>WW0018700</t>
+  </si>
+  <si>
+    <t>WW0016946</t>
+  </si>
+  <si>
+    <t>WW0017430</t>
+  </si>
+  <si>
+    <t>WW0019116</t>
+  </si>
+  <si>
+    <t>WW0019118</t>
+  </si>
+  <si>
+    <t>WW0015977</t>
+  </si>
+  <si>
+    <t>WW0017063</t>
+  </si>
+  <si>
+    <t>WW0017139</t>
+  </si>
+  <si>
+    <t>WW0016865</t>
+  </si>
+  <si>
     <t>WW0016938</t>
-  </si>
-  <si>
-    <t>WW0017282</t>
-  </si>
-  <si>
-    <t>WW0017283</t>
-  </si>
-  <si>
-    <t>WW0017284</t>
-  </si>
-  <si>
-    <t>WW0017250</t>
-  </si>
-  <si>
-    <t>黄燕平</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货B家具建材仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡定操</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-11)</t>
+  </si>
+  <si>
+    <t>TC库房（B-11)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17191</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉威伟机械</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>方双红</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TC库房 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16458</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC库房（B-13)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17150</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17447</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋辉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16755</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛向飞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16868</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈和敏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万飞</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4370,55 +5020,103 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>武汉亚一百货Ｂ家居日用仓号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕文杰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙金刚</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货A家居日用仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉分拣配送中心安利KA仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪家国</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>程斌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周丹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚洲一号园区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货B家居日用仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房（B-13)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡元文</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>电1，电2</t>
+    <t>16457</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16753</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17448</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17998</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高湘斌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17149</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17148</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17144</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15916</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15867</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15915</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16456</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16455</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16454</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16060</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15982</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ABY277</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17726</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周华安</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16948</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16820</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4426,35 +5124,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>16板22托盘</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房(B-5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常福园区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗兰本蒂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>代永华</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉生活小家电1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓军</t>
+    <t>14板6件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17194</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17064</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘涛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18702</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4462,488 +5152,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>14板加多件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李威</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一3CB电脑办公仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房（B-13)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈和敏</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏洋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>万纬园区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉商超B个护清洁仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房（B-3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>程斌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉公共平台1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房（B-5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WW0016747</t>
-  </si>
-  <si>
-    <t>WW0017288</t>
-  </si>
-  <si>
-    <t>WW0019745</t>
-  </si>
-  <si>
-    <t>WW0019746</t>
-  </si>
-  <si>
-    <t>WW0018118</t>
-  </si>
-  <si>
-    <t>WW0018116</t>
-  </si>
-  <si>
-    <t>WW0017252</t>
-  </si>
-  <si>
-    <t>WW0017407</t>
-  </si>
-  <si>
-    <t>WW0019747</t>
-  </si>
-  <si>
-    <t>WW0017254</t>
-  </si>
-  <si>
-    <t>WW0017251</t>
-  </si>
-  <si>
-    <t>WW0017175</t>
-  </si>
-  <si>
-    <t>WW0017406</t>
-  </si>
-  <si>
-    <t>WW0019749</t>
-  </si>
-  <si>
-    <t>WW0016814</t>
-  </si>
-  <si>
-    <t>WW0016939</t>
-  </si>
-  <si>
-    <t>WW0017872</t>
-  </si>
-  <si>
-    <t>WW0017133</t>
-  </si>
-  <si>
-    <t>WW0018699</t>
-  </si>
-  <si>
-    <t>WW0015853</t>
-  </si>
-  <si>
-    <t>WW0018251</t>
-  </si>
-  <si>
-    <t>WW0018252</t>
-  </si>
-  <si>
-    <t>WW0018253</t>
-  </si>
-  <si>
-    <t>补单号（原单）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WW0018774</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">邵金海 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕玉霞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>万纬园区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 武汉服装1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TC库房 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李耀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>代永华</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉商超B母婴玩具仓2号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛向飞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗兰西蒂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨柳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚洲一号园区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一3CA数码通讯仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房 （B-13）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李威</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚3CB电脑办公仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房 （B-11）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓军</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周丹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货B家居日用仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房 （B-12）</t>
-  </si>
-  <si>
-    <t>TC库房</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕文杰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉公共平台6号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王加先</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄂ANH992</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉百货B家具建材仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明华</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄂ALU151</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WW0015859</t>
-  </si>
-  <si>
-    <t>WW0017417</t>
-  </si>
-  <si>
-    <t>WW0017418</t>
-  </si>
-  <si>
-    <t>WW0017981</t>
-  </si>
-  <si>
-    <t>WW0017980</t>
-  </si>
-  <si>
-    <t>WW0017979</t>
-  </si>
-  <si>
-    <t>WW0015860</t>
-  </si>
-  <si>
-    <t>WW0017135</t>
-  </si>
-  <si>
-    <t>WW0017136</t>
-  </si>
-  <si>
-    <t>WW0017121</t>
-  </si>
-  <si>
-    <t>WW0017119</t>
-  </si>
-  <si>
-    <t>WW0017426</t>
-  </si>
-  <si>
-    <t>WW0017874</t>
-  </si>
-  <si>
-    <t>WW0017427</t>
-  </si>
-  <si>
-    <t>WW0018254</t>
-  </si>
-  <si>
-    <t>WW0018255</t>
-  </si>
-  <si>
-    <t>WW0018652</t>
-  </si>
-  <si>
-    <t>WW0016817</t>
-  </si>
-  <si>
-    <t>WW0016941</t>
-  </si>
-  <si>
-    <t>WW0016942</t>
-  </si>
-  <si>
-    <t>WW0016943</t>
-  </si>
-  <si>
-    <t>WW0016749</t>
-  </si>
-  <si>
-    <t>WW0017982</t>
-  </si>
-  <si>
-    <t>WW0017137</t>
-  </si>
-  <si>
-    <t>WW0018256</t>
-  </si>
-  <si>
-    <t>WW0017257</t>
-  </si>
-  <si>
-    <t>WW0018230</t>
-  </si>
-  <si>
-    <t>WW0017500</t>
-  </si>
-  <si>
-    <t>潘涛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>张亚军</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚建国</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房(B-3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡允源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>张祚红</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>马广楠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙金刚</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货A家居日用仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房</t>
-  </si>
-  <si>
-    <t>陈娜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰树园区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉商超B米面粮油仓2号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房（B-10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李威、周丹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉亚一百货B家居日用仓1号库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC库房</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>喻海涛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WW0017259</t>
-  </si>
-  <si>
-    <t>WW0017062</t>
-  </si>
-  <si>
-    <t>WW0018259</t>
-  </si>
-  <si>
-    <t>WW0018257</t>
-  </si>
-  <si>
-    <t>WW0018258</t>
-  </si>
-  <si>
-    <t>WW0017261</t>
-  </si>
-  <si>
-    <t>WW0017260</t>
-  </si>
-  <si>
-    <t>WW0017299</t>
-  </si>
-  <si>
-    <t>WW0017298</t>
-  </si>
-  <si>
-    <t>WW0017190</t>
-  </si>
-  <si>
-    <t>WW0017060</t>
-  </si>
-  <si>
-    <t>WW0017061</t>
-  </si>
-  <si>
-    <t>WW0015905</t>
-  </si>
-  <si>
-    <t>WW0015904</t>
-  </si>
-  <si>
-    <t>WW0016819</t>
-  </si>
-  <si>
-    <t>WW0016818</t>
-  </si>
-  <si>
-    <t>WW0017296</t>
-  </si>
-  <si>
-    <t>WW0015979</t>
-  </si>
-  <si>
-    <t>WW0018700</t>
-  </si>
-  <si>
-    <t>WW0016946</t>
-  </si>
-  <si>
-    <t>WW0017430</t>
-  </si>
-  <si>
-    <t>WW0019116</t>
-  </si>
-  <si>
-    <t>WW0019118</t>
-  </si>
-  <si>
-    <t>WW0015977</t>
-  </si>
-  <si>
-    <t>WW0017063</t>
-  </si>
-  <si>
-    <t>WW0017139</t>
-  </si>
-  <si>
-    <t>WW0016865</t>
+    <t>16196</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5401,7 +5611,391 @@
     <cellStyle name="常规 9 2 2" xfId="26"/>
     <cellStyle name="常规 9 2 3" xfId="23"/>
   </cellStyles>
-  <dxfs count="217">
+  <dxfs count="249">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -8140,25 +8734,25 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="96460160"/>
-        <c:axId val="96470144"/>
+        <c:axId val="81975552"/>
+        <c:axId val="81981440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96460160"/>
+        <c:axId val="81975552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96470144"/>
+        <c:crossAx val="81981440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96470144"/>
+        <c:axId val="81981440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8166,7 +8760,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96460160"/>
+        <c:crossAx val="81975552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8179,7 +8773,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9527,7 +10121,7 @@
           <c:x val="0.18258271435078877"/>
           <c:y val="0.11843426979035028"/>
           <c:w val="0.65911740371296557"/>
-          <c:h val="0.77786915524448763"/>
+          <c:h val="0.77786915524448774"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -9987,11 +10581,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="219"/>
-        <c:axId val="98697216"/>
-        <c:axId val="98698752"/>
+        <c:axId val="88773376"/>
+        <c:axId val="88774912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98697216"/>
+        <c:axId val="88773376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10026,14 +10620,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98698752"/>
+        <c:crossAx val="88774912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98698752"/>
+        <c:axId val="88774912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10082,7 +10676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98697216"/>
+        <c:crossAx val="88773376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10173,7 +10767,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -10798,7 +11392,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10839,7 +11433,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7B8580-CA97-413E-921B-08820EA58184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16365,7 +16959,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="216" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19621,30 +20215,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="142" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="141" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="139" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="137" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="135" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="134" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H131">
-    <cfRule type="duplicateValues" dxfId="132" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23039,30 +23633,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="130" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="129" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="127" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="125" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="123" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="122" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H112">
-    <cfRule type="duplicateValues" dxfId="120" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="120"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25668,36 +26262,36 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="118" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="117" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="115" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="113" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="110" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="109" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H79">
-    <cfRule type="duplicateValues" dxfId="107" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23 H25:H28">
-    <cfRule type="duplicateValues" dxfId="105" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27597,31 +28191,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="102" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="101" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="99" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="97" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="94" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="93" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H51">
-    <cfRule type="duplicateValues" dxfId="91" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="183"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29598,79 +30192,79 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="89" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33 G2:G25">
-    <cfRule type="duplicateValues" dxfId="86" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33 G2:G25">
-    <cfRule type="duplicateValues" dxfId="85" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="duplicateValues" dxfId="83" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="81" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="80" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="duplicateValues" dxfId="78" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="76" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="75" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="73" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="71" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="70" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="duplicateValues" dxfId="68" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G28 G1 G34:G1048576">
-    <cfRule type="duplicateValues" dxfId="63" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="61" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32917,20 +33511,20 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32942,7 +33536,7 @@
   <dimension ref="A1:CX46"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34770,7 +35364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY98"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -37488,20 +38082,20 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37512,8 +38106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW68"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -38327,7 +38921,7 @@
         <v>267</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>1183</v>
+        <v>1355</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>980</v>
@@ -38373,7 +38967,7 @@
         <v>1159</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>980</v>
@@ -38419,7 +39013,7 @@
         <v>1158</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>980</v>
@@ -38465,7 +39059,7 @@
         <v>1158</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>980</v>
@@ -41051,8 +41645,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="215" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41062,8 +41656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX50"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41106,7 +41700,7 @@
         <v>225</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>7</v>
@@ -41222,7 +41816,7 @@
         <v>43209</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>161</v>
@@ -41234,10 +41828,10 @@
         <v>66</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="44" t="s">
@@ -41269,7 +41863,7 @@
         <v>43209</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>161</v>
@@ -41281,10 +41875,10 @@
         <v>161</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H3" s="50"/>
       <c r="I3" s="44" t="s">
@@ -41316,7 +41910,7 @@
         <v>43209</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>161</v>
@@ -41328,10 +41922,10 @@
         <v>161</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H4" s="50"/>
       <c r="I4" s="44" t="s">
@@ -41363,7 +41957,7 @@
         <v>43209</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>161</v>
@@ -41378,7 +41972,7 @@
         <v>1159</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="44" t="s">
@@ -41422,10 +42016,10 @@
         <v>161</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="44" t="s">
@@ -41472,7 +42066,7 @@
         <v>445</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="44" t="s">
@@ -41516,10 +42110,10 @@
         <v>66</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="44" t="s">
@@ -41529,7 +42123,7 @@
         <v>103</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L8" s="44" t="s">
         <v>1006</v>
@@ -41551,7 +42145,7 @@
         <v>43209</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>161</v>
@@ -41563,10 +42157,10 @@
         <v>66</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="44" t="s">
@@ -41613,7 +42207,7 @@
         <v>435</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="44" t="s">
@@ -41623,7 +42217,7 @@
         <v>99</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L10" s="44" t="s">
         <v>1006</v>
@@ -41660,7 +42254,7 @@
         <v>435</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="44" t="s">
@@ -41670,7 +42264,7 @@
         <v>103</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L11" s="44" t="s">
         <v>1006</v>
@@ -41707,7 +42301,7 @@
         <v>1159</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
@@ -41717,7 +42311,7 @@
         <v>103</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L12" s="44" t="s">
         <v>1006</v>
@@ -41754,7 +42348,7 @@
         <v>372</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
@@ -41764,7 +42358,7 @@
         <v>1131</v>
       </c>
       <c r="K13" s="44" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L13" s="44" t="s">
         <v>1006</v>
@@ -41801,7 +42395,7 @@
         <v>372</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="44" t="s">
@@ -41833,25 +42427,25 @@
         <v>43209</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>1199</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="D15" s="44" t="s">
         <v>1200</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>1201</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I15" s="44" t="s">
         <v>980</v>
@@ -41882,7 +42476,7 @@
         <v>43209</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>161</v>
@@ -41894,10 +42488,10 @@
         <v>985</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="44" t="s">
@@ -41907,13 +42501,13 @@
         <v>17</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L16" s="44" t="s">
         <v>1006</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="N16" s="44" t="str">
         <f t="shared" si="0"/>
@@ -41929,22 +42523,22 @@
         <v>43209</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="44" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>1207</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="F17" s="44" t="s">
         <v>1208</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>1209</v>
-      </c>
       <c r="G17" s="50" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="44" t="s">
@@ -41954,7 +42548,7 @@
         <v>105</v>
       </c>
       <c r="K17" s="44" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L17" s="44" t="s">
         <v>1006</v>
@@ -41976,22 +42570,22 @@
         <v>43209</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>161</v>
       </c>
       <c r="D18" s="44" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>1207</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="F18" s="44" t="s">
         <v>1208</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>1209</v>
-      </c>
       <c r="G18" s="50" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="44" t="s">
@@ -42001,7 +42595,7 @@
         <v>126</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L18" s="44" t="s">
         <v>1006</v>
@@ -42032,13 +42626,13 @@
         <v>1085</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="44" t="s">
@@ -42048,7 +42642,7 @@
         <v>97</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L19" s="44" t="s">
         <v>1006</v>
@@ -42082,10 +42676,10 @@
         <v>985</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="44" t="s">
@@ -42095,13 +42689,13 @@
         <v>98</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L20" s="44" t="s">
         <v>1006</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="N20" s="44" t="str">
         <f t="shared" si="2"/>
@@ -42117,22 +42711,22 @@
         <v>43209</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
@@ -42142,7 +42736,7 @@
         <v>101</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="L21" s="44" t="s">
         <v>1006</v>
@@ -42164,22 +42758,22 @@
         <v>43209</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>1220</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="D22" s="44" t="s">
         <v>1221</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>1222</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
@@ -42189,7 +42783,7 @@
         <v>1131</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L22" s="44" t="s">
         <v>1006</v>
@@ -42211,22 +42805,22 @@
         <v>43209</v>
       </c>
       <c r="B23" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>1225</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>1226</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
@@ -42236,7 +42830,7 @@
         <v>1131</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L23" s="44" t="s">
         <v>1006</v>
@@ -42258,22 +42852,22 @@
         <v>43209</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>1225</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>1226</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="44" t="s">
@@ -42283,7 +42877,7 @@
         <v>1131</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L24" s="44" t="s">
         <v>1006</v>
@@ -42752,8 +43346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX29"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42796,7 +43390,7 @@
         <v>225</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>7</v>
@@ -42927,7 +43521,7 @@
         <v>371</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="44" t="s">
@@ -42974,7 +43568,7 @@
         <v>456</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="44" t="s">
@@ -43021,7 +43615,7 @@
         <v>370</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H4" s="49"/>
       <c r="I4" s="44" t="s">
@@ -43068,7 +43662,7 @@
         <v>435</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="44" t="s">
@@ -43115,7 +43709,7 @@
         <v>456</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="44" t="s">
@@ -43162,7 +43756,7 @@
         <v>371</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="44" t="s">
@@ -43206,10 +43800,10 @@
         <v>55</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="44" t="s">
@@ -43256,7 +43850,7 @@
         <v>370</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="44" t="s">
@@ -43300,10 +43894,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="44" t="s">
@@ -43347,10 +43941,10 @@
         <v>55</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="44" t="s">
@@ -43397,7 +43991,7 @@
         <v>370</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="44" t="s">
@@ -43429,7 +44023,7 @@
         <v>43210</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>55</v>
@@ -43444,7 +44038,7 @@
         <v>397</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="44" t="s">
@@ -43491,7 +44085,7 @@
         <v>372</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="44" t="s">
@@ -43538,7 +44132,7 @@
         <v>373</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="44" t="s">
@@ -43570,7 +44164,7 @@
         <v>43210</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>55</v>
@@ -43585,7 +44179,7 @@
         <v>368</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="44" t="s">
@@ -43632,7 +44226,7 @@
         <v>370</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="44" t="s">
@@ -43664,22 +44258,22 @@
         <v>43210</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>1254</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="D18" s="44" t="s">
         <v>1255</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>1256</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="44" t="s">
@@ -43689,7 +44283,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L18" s="44" t="s">
         <v>1006</v>
@@ -43726,7 +44320,7 @@
         <v>372</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="44" t="s">
@@ -43736,7 +44330,7 @@
         <v>105</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L19" s="44" t="s">
         <v>1006</v>
@@ -43770,10 +44364,10 @@
         <v>61</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="44" t="s">
@@ -43783,7 +44377,7 @@
         <v>105</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L20" s="44" t="s">
         <v>1006</v>
@@ -43820,7 +44414,7 @@
         <v>373</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="44" t="s">
@@ -43830,7 +44424,7 @@
         <v>105</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L21" s="44" t="s">
         <v>1006</v>
@@ -43852,22 +44446,22 @@
         <v>43210</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>1263</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="D22" s="44" t="s">
         <v>1264</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>1265</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="44" t="s">
@@ -43899,22 +44493,22 @@
         <v>43210</v>
       </c>
       <c r="B23" s="44" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>1267</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>1268</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="44" t="s">
@@ -43924,7 +44518,7 @@
         <v>97</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L23" s="44" t="s">
         <v>1006</v>
@@ -43946,22 +44540,22 @@
         <v>43210</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>1271</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>1272</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="44" t="s">
@@ -43999,7 +44593,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>48</v>
@@ -44008,7 +44602,7 @@
         <v>279</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="44" t="s">
@@ -44018,7 +44612,7 @@
         <v>103</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L25" s="44" t="s">
         <v>1006</v>
@@ -44049,23 +44643,23 @@
         <v>866</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="44" t="s">
         <v>980</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L26" s="44" t="s">
         <v>1006</v>
@@ -44096,23 +44690,23 @@
         <v>1081</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="44" t="s">
         <v>980</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L27" s="44" t="s">
         <v>1006</v>
@@ -44149,7 +44743,7 @@
         <v>279</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="44" t="s">
@@ -44196,7 +44790,7 @@
         <v>279</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H29" s="49"/>
       <c r="I29" s="44" t="s">
@@ -44206,7 +44800,7 @@
         <v>678</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L29" s="44" t="s">
         <v>1006</v>
@@ -44226,16 +44820,16 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:G22 G28:G29 G31:G1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G27">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44246,8 +44840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44291,7 +44885,7 @@
         <v>225</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>7</v>
@@ -44422,7 +45016,7 @@
         <v>371</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="44" t="s">
@@ -44469,7 +45063,7 @@
         <v>393</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="44" t="s">
@@ -44479,7 +45073,7 @@
         <v>100</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L3" s="44" t="s">
         <v>1006</v>
@@ -44516,7 +45110,7 @@
         <v>435</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H4" s="49"/>
       <c r="I4" s="44" t="s">
@@ -44563,7 +45157,7 @@
         <v>368</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="44" t="s">
@@ -44595,7 +45189,7 @@
         <v>43211</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>161</v>
@@ -44610,7 +45204,7 @@
         <v>397</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="44" t="s">
@@ -44654,10 +45248,10 @@
         <v>161</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="44" t="s">
@@ -44701,10 +45295,10 @@
         <v>61</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="44" t="s">
@@ -44736,7 +45330,7 @@
         <v>43211</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>161</v>
@@ -44751,7 +45345,7 @@
         <v>370</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="44" t="s">
@@ -44798,7 +45392,7 @@
         <v>867</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="44" t="s">
@@ -44845,7 +45439,7 @@
         <v>1015</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="44" t="s">
@@ -44892,7 +45486,7 @@
         <v>371</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="44" t="s">
@@ -44939,7 +45533,7 @@
         <v>368</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="44" t="s">
@@ -44971,7 +45565,7 @@
         <v>43211</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>161</v>
@@ -44983,10 +45577,10 @@
         <v>61</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="44" t="s">
@@ -45018,7 +45612,7 @@
         <v>43211</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>161</v>
@@ -45033,7 +45627,7 @@
         <v>372</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="44" t="s">
@@ -45071,7 +45665,7 @@
         <v>161</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>59</v>
@@ -45080,7 +45674,7 @@
         <v>1100</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="44" t="s">
@@ -45118,7 +45712,7 @@
         <v>161</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>59</v>
@@ -45127,7 +45721,7 @@
         <v>481</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="44" t="s">
@@ -45159,7 +45753,7 @@
         <v>43211</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>161</v>
@@ -45174,7 +45768,7 @@
         <v>372</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="44" t="s">
@@ -45221,7 +45815,7 @@
         <v>328</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="44" t="s">
@@ -45231,7 +45825,7 @@
         <v>1131</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L19" s="44" t="s">
         <v>1006</v>
@@ -45265,10 +45859,10 @@
         <v>985</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="44" t="s">
@@ -45306,7 +45900,7 @@
         <v>161</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>213</v>
@@ -45315,7 +45909,7 @@
         <v>978</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="44" t="s">
@@ -45353,7 +45947,7 @@
         <v>161</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>213</v>
@@ -45362,7 +45956,7 @@
         <v>978</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="44" t="s">
@@ -45394,7 +45988,7 @@
         <v>43211</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>253</v>
@@ -45409,7 +46003,7 @@
         <v>372</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="44" t="s">
@@ -45419,7 +46013,7 @@
         <v>156</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L23" s="44" t="s">
         <v>1006</v>
@@ -45441,13 +46035,13 @@
         <v>43211</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>253</v>
@@ -45456,7 +46050,7 @@
         <v>267</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="44" t="s">
@@ -45466,7 +46060,7 @@
         <v>156</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L24" s="44" t="s">
         <v>1006</v>
@@ -45475,11 +46069,11 @@
         <v>14</v>
       </c>
       <c r="N24" s="44" t="str">
-        <f t="shared" ref="N24:N28" si="2">C24&amp;"--"&amp;E24</f>
+        <f>C24&amp;"--"&amp;E24</f>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" ref="O24:O28" si="3">IF(OR(C24="常福园区",C24="欣程园区",C24="弗兰西蒂",E24="常福园区",E24="欣程园区",E24="弗兰西蒂"),1250,165)</f>
+        <f>IF(OR(C24="常福园区",C24="欣程园区",C24="弗兰西蒂",E24="常福园区",E24="欣程园区",E24="弗兰西蒂"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -45488,22 +46082,22 @@
         <v>43211</v>
       </c>
       <c r="B25" s="44" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>1321</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="D25" s="44" t="s">
         <v>1322</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>1323</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>253</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="44" t="s">
@@ -45522,11 +46116,11 @@
         <v>12</v>
       </c>
       <c r="N25" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f>C25&amp;"--"&amp;E25</f>
         <v>丰树园区--新地园区</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="3"/>
+        <f>IF(OR(C25="常福园区",C25="欣程园区",C25="弗兰西蒂",E25="常福园区",E25="欣程园区",E25="弗兰西蒂"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -45535,22 +46129,22 @@
         <v>43211</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>253</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="44" t="s">
@@ -45569,11 +46163,11 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f>C26&amp;"--"&amp;E26</f>
         <v>亚洲一号园区--新地园区</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="3"/>
+        <f>IF(OR(C26="常福园区",C26="欣程园区",C26="弗兰西蒂",E26="常福园区",E26="欣程园区",E26="弗兰西蒂"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -45582,7 +46176,7 @@
         <v>43211</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>253</v>
@@ -45597,7 +46191,7 @@
         <v>372</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="44" t="s">
@@ -45616,11 +46210,11 @@
         <v>14</v>
       </c>
       <c r="N27" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f>C27&amp;"--"&amp;E27</f>
         <v>新地园区--亚洲一号园区</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="3"/>
+        <f>IF(OR(C27="常福园区",C27="欣程园区",C27="弗兰西蒂",E27="常福园区",E27="欣程园区",E27="弗兰西蒂"),1250,165)</f>
         <v>165</v>
       </c>
     </row>
@@ -45635,7 +46229,7 @@
         <v>253</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>628</v>
@@ -45644,7 +46238,7 @@
         <v>629</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="44" t="s">
@@ -45654,7 +46248,7 @@
         <v>918</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="L28" s="44" t="s">
         <v>1006</v>
@@ -45663,30 +46257,13 @@
         <v>14</v>
       </c>
       <c r="N28" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f>C28&amp;"--"&amp;E28</f>
         <v>新地园区--常福园区</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="3"/>
+        <f>IF(OR(C28="常福园区",C28="欣程园区",C28="弗兰西蒂",E28="常福园区",E28="欣程园区",E28="弗兰西蒂"),1250,165)</f>
         <v>1250</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="45" customFormat="1" ht="18.75">
-      <c r="A29" s="46"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" s="45" customFormat="1" ht="18.75">
       <c r="A30" s="46"/>
@@ -46013,9 +46590,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="G1:G28 G30:G1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46023,6 +46601,1667 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CX32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16" style="39" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="39" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="39" customWidth="1"/>
+    <col min="14" max="14" width="29.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="39" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:102" ht="18.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="35"/>
+      <c r="CG1" s="35"/>
+      <c r="CH1" s="35"/>
+      <c r="CI1" s="35"/>
+      <c r="CJ1" s="35"/>
+      <c r="CK1" s="35"/>
+      <c r="CL1" s="35"/>
+      <c r="CM1" s="35"/>
+      <c r="CN1" s="35"/>
+      <c r="CO1" s="35"/>
+      <c r="CP1" s="35"/>
+      <c r="CQ1" s="35"/>
+      <c r="CR1" s="35"/>
+      <c r="CS1" s="35"/>
+      <c r="CT1" s="35"/>
+      <c r="CU1" s="35"/>
+      <c r="CV1" s="35"/>
+      <c r="CW1" s="35"/>
+      <c r="CX1" s="35"/>
+    </row>
+    <row r="2" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A2" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J2" s="40" t="str">
+        <f>VLOOKUP(K2,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M2" s="44">
+        <v>9</v>
+      </c>
+      <c r="N2" s="44" t="str">
+        <f t="shared" ref="N2:N8" si="0">C2&amp;"--"&amp;E2</f>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O8" si="1">IF(OR(C2="常福园区",C2="欣程园区",C2="弗兰西蒂",E2="常福园区",E2="欣程园区",E2="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A3" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J3" s="40" t="str">
+        <f>VLOOKUP(K3,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M3" s="44">
+        <v>14</v>
+      </c>
+      <c r="N3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A4" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>VLOOKUP(K4,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M4" s="44">
+        <v>11</v>
+      </c>
+      <c r="N4" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>万纬园区--新地园区</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A5" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f>VLOOKUP(K5,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M5" s="44">
+        <v>14</v>
+      </c>
+      <c r="N5" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>亚洲一号园区--新地园区</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A6" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J6" s="40" t="str">
+        <f>VLOOKUP(K6,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M6" s="44">
+        <v>14</v>
+      </c>
+      <c r="N6" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A7" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J7" s="40" t="str">
+        <f>VLOOKUP(K7,ch!$A$1:$B$35,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M7" s="44">
+        <v>14</v>
+      </c>
+      <c r="N7" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A8" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J8" s="40" t="str">
+        <f>VLOOKUP(K8,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M8" s="44">
+        <v>14</v>
+      </c>
+      <c r="N8" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A9" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J9" s="40" t="str">
+        <f>VLOOKUP(K9,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M9" s="44">
+        <v>13</v>
+      </c>
+      <c r="N9" s="44" t="str">
+        <f t="shared" ref="N9" si="2">C9&amp;"--"&amp;E9</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" ref="O9" si="3">IF(OR(C9="常福园区",C9="欣程园区",C9="弗兰西蒂",E9="常福园区",E9="欣程园区",E9="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A10" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J10" s="40" t="str">
+        <f>VLOOKUP(K10,ch!$A$1:$B$35,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M10" s="44">
+        <v>14</v>
+      </c>
+      <c r="N10" s="44" t="str">
+        <f t="shared" ref="N10" si="4">C10&amp;"--"&amp;E10</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" ref="O10" si="5">IF(OR(C10="常福园区",C10="欣程园区",C10="弗兰西蒂",E10="常福园区",E10="欣程园区",E10="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A11" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>863</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J11" s="40" t="str">
+        <f>VLOOKUP(K11,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M11" s="44">
+        <v>14</v>
+      </c>
+      <c r="N11" s="44" t="str">
+        <f t="shared" ref="N11" si="6">C11&amp;"--"&amp;E11</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" ref="O11" si="7">IF(OR(C11="常福园区",C11="欣程园区",C11="弗兰西蒂",E11="常福园区",E11="欣程园区",E11="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A12" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J12" s="40" t="str">
+        <f>VLOOKUP(K12,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M12" s="44">
+        <v>14</v>
+      </c>
+      <c r="N12" s="44" t="str">
+        <f t="shared" ref="N12" si="8">C12&amp;"--"&amp;E12</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" ref="O12" si="9">IF(OR(C12="常福园区",C12="欣程园区",C12="弗兰西蒂",E12="常福园区",E12="欣程园区",E12="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A13" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J13" s="40" t="str">
+        <f>VLOOKUP(K13,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M13" s="44">
+        <v>14</v>
+      </c>
+      <c r="N13" s="44" t="str">
+        <f t="shared" ref="N13" si="10">C13&amp;"--"&amp;E13</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" ref="O13" si="11">IF(OR(C13="常福园区",C13="欣程园区",C13="弗兰西蒂",E13="常福园区",E13="欣程园区",E13="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A14" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J14" s="40" t="str">
+        <f>VLOOKUP(K14,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M14" s="44">
+        <v>14</v>
+      </c>
+      <c r="N14" s="44" t="str">
+        <f t="shared" ref="N14" si="12">C14&amp;"--"&amp;E14</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" ref="O14" si="13">IF(OR(C14="常福园区",C14="欣程园区",C14="弗兰西蒂",E14="常福园区",E14="欣程园区",E14="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A15" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J15" s="40" t="str">
+        <f>VLOOKUP(K15,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M15" s="44">
+        <v>11</v>
+      </c>
+      <c r="N15" s="44" t="str">
+        <f t="shared" ref="N15" si="14">C15&amp;"--"&amp;E15</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" ref="O15" si="15">IF(OR(C15="常福园区",C15="欣程园区",C15="弗兰西蒂",E15="常福园区",E15="欣程园区",E15="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:102" s="45" customFormat="1" ht="18.75">
+      <c r="A16" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J16" s="40" t="str">
+        <f>VLOOKUP(K16,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M16" s="44">
+        <v>14</v>
+      </c>
+      <c r="N16" s="44" t="str">
+        <f t="shared" ref="N16" si="16">C16&amp;"--"&amp;E16</f>
+        <v>新地园区--新地园区</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ref="O16" si="17">IF(OR(C16="常福园区",C16="欣程园区",C16="弗兰西蒂",E16="常福园区",E16="欣程园区",E16="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A17" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J17" s="40" t="str">
+        <f>VLOOKUP(K17,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M17" s="44">
+        <v>14</v>
+      </c>
+      <c r="N17" s="44" t="str">
+        <f t="shared" ref="N17" si="18">C17&amp;"--"&amp;E17</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" ref="O17" si="19">IF(OR(C17="常福园区",C17="欣程园区",C17="弗兰西蒂",E17="常福园区",E17="欣程园区",E17="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A18" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J18" s="40" t="str">
+        <f>VLOOKUP(K18,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M18" s="44">
+        <v>14</v>
+      </c>
+      <c r="N18" s="44" t="str">
+        <f t="shared" ref="N18" si="20">C18&amp;"--"&amp;E18</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" ref="O18" si="21">IF(OR(C18="常福园区",C18="欣程园区",C18="弗兰西蒂",E18="常福园区",E18="欣程园区",E18="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A19" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J19" s="40" t="str">
+        <f>VLOOKUP(K19,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M19" s="44">
+        <v>14</v>
+      </c>
+      <c r="N19" s="44" t="str">
+        <f t="shared" ref="N19" si="22">C19&amp;"--"&amp;E19</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" ref="O19" si="23">IF(OR(C19="常福园区",C19="欣程园区",C19="弗兰西蒂",E19="常福园区",E19="欣程园区",E19="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A20" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J20" s="40" t="str">
+        <f>VLOOKUP(K20,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M20" s="44">
+        <v>14</v>
+      </c>
+      <c r="N20" s="44" t="str">
+        <f t="shared" ref="N20" si="24">C20&amp;"--"&amp;E20</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" ref="O20" si="25">IF(OR(C20="常福园区",C20="欣程园区",C20="弗兰西蒂",E20="常福园区",E20="欣程园区",E20="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A21" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>613</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J21" s="40" t="str">
+        <f>VLOOKUP(K21,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M21" s="44">
+        <v>14</v>
+      </c>
+      <c r="N21" s="44" t="str">
+        <f t="shared" ref="N21" si="26">C21&amp;"--"&amp;E21</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" ref="O21" si="27">IF(OR(C21="常福园区",C21="欣程园区",C21="弗兰西蒂",E21="常福园区",E21="欣程园区",E21="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A22" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J22" s="40" t="str">
+        <f>VLOOKUP(K22,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M22" s="44">
+        <v>14</v>
+      </c>
+      <c r="N22" s="44" t="str">
+        <f t="shared" ref="N22" si="28">C22&amp;"--"&amp;E22</f>
+        <v>新地园区--亚洲一号园区</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" ref="O22" si="29">IF(OR(C22="常福园区",C22="欣程园区",C22="弗兰西蒂",E22="常福园区",E22="欣程园区",E22="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A23" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J23" s="40" t="str">
+        <f>VLOOKUP(K23,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M23" s="44">
+        <v>14</v>
+      </c>
+      <c r="N23" s="44" t="str">
+        <f t="shared" ref="N23" si="30">C23&amp;"--"&amp;E23</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" ref="O23" si="31">IF(OR(C23="常福园区",C23="欣程园区",C23="弗兰西蒂",E23="常福园区",E23="欣程园区",E23="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A24" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J24" s="40" t="str">
+        <f>VLOOKUP(K24,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AFX299</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M24" s="44">
+        <v>8</v>
+      </c>
+      <c r="N24" s="44" t="str">
+        <f t="shared" ref="N24" si="32">C24&amp;"--"&amp;E24</f>
+        <v>丰树园区--新地园区</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" ref="O24" si="33">IF(OR(C24="常福园区",C24="欣程园区",C24="弗兰西蒂",E24="常福园区",E24="欣程园区",E24="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A25" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M25" s="44">
+        <v>14</v>
+      </c>
+      <c r="N25" s="44" t="str">
+        <f>C25&amp;"--"&amp;E25</f>
+        <v>新地园区--丰树园区</v>
+      </c>
+      <c r="O25" s="4">
+        <f>IF(OR(C25="常福园区",C25="欣程园区",C25="弗兰西蒂",E25="常福园区",E25="欣程园区",E25="弗兰西蒂"),1250,165)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A26" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M26" s="44">
+        <v>14</v>
+      </c>
+      <c r="N26" s="44" t="str">
+        <f t="shared" ref="N26" si="34">C26&amp;"--"&amp;E26</f>
+        <v>新地园区--弗兰西蒂</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" ref="O26" si="35">IF(OR(C26="常福园区",C26="欣程园区",C26="弗兰西蒂",E26="常福园区",E26="欣程园区",E26="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A27" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J27" s="40" t="str">
+        <f>VLOOKUP(K27,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M27" s="44">
+        <v>15</v>
+      </c>
+      <c r="N27" s="44" t="str">
+        <f t="shared" ref="N27" si="36">C27&amp;"--"&amp;E27</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" ref="O27" si="37">IF(OR(C27="常福园区",C27="欣程园区",C27="弗兰西蒂",E27="常福园区",E27="欣程园区",E27="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A28" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J28" s="40" t="str">
+        <f>VLOOKUP(K28,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="K28" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M28" s="44">
+        <v>14</v>
+      </c>
+      <c r="N28" s="44" t="str">
+        <f t="shared" ref="N28" si="38">C28&amp;"--"&amp;E28</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" ref="O28" si="39">IF(OR(C28="常福园区",C28="欣程园区",C28="弗兰西蒂",E28="常福园区",E28="欣程园区",E28="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A29" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J29" s="40" t="str">
+        <f>VLOOKUP(K29,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>1400</v>
+      </c>
+      <c r="N29" s="44" t="str">
+        <f t="shared" ref="N29" si="40">C29&amp;"--"&amp;E29</f>
+        <v>新地园区--弗兰西蒂</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" ref="O29" si="41">IF(OR(C29="常福园区",C29="欣程园区",C29="弗兰西蒂",E29="常福园区",E29="欣程园区",E29="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A30" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J30" s="40" t="str">
+        <f>VLOOKUP(K30,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L30" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M30" s="44">
+        <v>14</v>
+      </c>
+      <c r="N30" s="44" t="str">
+        <f t="shared" ref="N30" si="42">C30&amp;"--"&amp;E30</f>
+        <v>新地园区--弗兰西蒂</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" ref="O30" si="43">IF(OR(C30="常福园区",C30="欣程园区",C30="弗兰西蒂",E30="常福园区",E30="欣程园区",E30="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A31" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J31" s="40" t="str">
+        <f>VLOOKUP(K31,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>1406</v>
+      </c>
+      <c r="L31" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M31" s="44">
+        <v>16</v>
+      </c>
+      <c r="N31" s="44" t="str">
+        <f t="shared" ref="N31" si="44">C31&amp;"--"&amp;E31</f>
+        <v>新地园区--弗兰西蒂</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" ref="O31" si="45">IF(OR(C31="常福园区",C31="欣程园区",C31="弗兰西蒂",E31="常福园区",E31="欣程园区",E31="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="45" customFormat="1" ht="18.75">
+      <c r="A32" s="46">
+        <v>43212</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="44" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J32" s="40" t="str">
+        <f>VLOOKUP(K32,ch!$A$1:$B$35,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M32" s="44">
+        <v>16</v>
+      </c>
+      <c r="N32" s="44" t="str">
+        <f t="shared" ref="N32" si="46">C32&amp;"--"&amp;E32</f>
+        <v>新地园区--常福园区</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" ref="O32" si="47">IF(OR(C32="常福园区",C32="欣程园区",C32="弗兰西蒂",E32="常福园区",E32="欣程园区",E32="弗兰西蒂"),1250,165)</f>
+        <v>1250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -46323,7 +48562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:H9"/>
   <sheetViews>
@@ -46492,7 +48731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW169"/>
   <sheetViews>
@@ -54663,77 +56902,77 @@
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G26:G49">
-    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:G159 G86:G111 G165">
-    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G98">
-    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:G159 G99:G111 G165">
-    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G98">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:G159 G99:G111 G165">
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G129 G160:G164">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G129 G160:G164">
-    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G129 G160:G164">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G151">
-    <cfRule type="duplicateValues" dxfId="18" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G151">
-    <cfRule type="duplicateValues" dxfId="17" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G151">
-    <cfRule type="duplicateValues" dxfId="15" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170:G1048576 G152:G156 G1:G25">
-    <cfRule type="duplicateValues" dxfId="13" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166:G167 G71:H85">
-    <cfRule type="duplicateValues" dxfId="12" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166:G167 G71:H85">
-    <cfRule type="duplicateValues" dxfId="10" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:G169 G50:G70">
-    <cfRule type="duplicateValues" dxfId="8" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168:G169 G50:G70">
-    <cfRule type="duplicateValues" dxfId="6" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N1"/>
   <sheetViews>
@@ -54767,7 +57006,7 @@
         <v>1167</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1" s="44" t="s">
         <v>980</v>
@@ -56746,11 +58985,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="213" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="211" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57959,12 +60198,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:I1048576">
-    <cfRule type="duplicateValues" dxfId="210" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="duplicateValues" dxfId="208" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59787,23 +62026,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H31">
-    <cfRule type="duplicateValues" dxfId="206" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="205" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="203" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H14">
-    <cfRule type="duplicateValues" dxfId="201" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H31">
-    <cfRule type="duplicateValues" dxfId="199" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61689,23 +63928,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="197" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="196" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="194" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="192" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="duplicateValues" dxfId="190" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63381,23 +65620,23 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="duplicateValues" dxfId="188" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="187" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="185" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="183" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H26">
-    <cfRule type="duplicateValues" dxfId="181" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -67272,37 +69511,37 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G169:H1048576 G1:H4">
-    <cfRule type="duplicateValues" dxfId="179" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="178" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="176" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="174" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="173" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H168">
-    <cfRule type="duplicateValues" dxfId="171" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="169" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="duplicateValues" dxfId="167" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="165" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -70698,54 +72937,54 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="164" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="163" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:H1048576 G1:H1">
-    <cfRule type="duplicateValues" dxfId="161" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G1048576 H15:H17 G1 H2:H11">
-    <cfRule type="duplicateValues" dxfId="159" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="158" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="157" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="156" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H147 H15:H17 H2:H11">
-    <cfRule type="duplicateValues" dxfId="154" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="152" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="duplicateValues" dxfId="150" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="148" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="147" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="146" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="duplicateValues" dxfId="144" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
